--- a/arquitectura-informacion/Tabla de Historias de Usuario.xlsx
+++ b/arquitectura-informacion/Tabla de Historias de Usuario.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Nuestros" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Historias de usuario" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Ejemplos" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="325">
   <si>
     <t>Épica</t>
   </si>
@@ -137,6 +137,9 @@
     <t>Recibir archivo JSON desde el front-end</t>
   </si>
   <si>
+    <t>El usuario lo debe hacer manualmente</t>
+  </si>
+  <si>
     <t>Sistema</t>
   </si>
   <si>
@@ -158,7 +161,16 @@
     <t>Datos correctamente almacenados dentro del lenguaje</t>
   </si>
   <si>
+    <t>Revisar datos ok</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>Traducir la información al formato de la api de generación del grafo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recibir archivo Json en formato Raw. </t>
   </si>
   <si>
     <t>Transformar la información en la estrucutura de datos al formato requerido por la api</t>
@@ -179,7 +191,10 @@
     <t>La información está en el formato necesario para la api</t>
   </si>
   <si>
-    <t>Enviar la información a la api</t>
+    <t>Enviar la información grafo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recibir en backend de python el JSON a usar. </t>
   </si>
   <si>
     <t>Se desea enviar la información a la api para generar el grafo</t>
@@ -200,16 +215,16 @@
     <t>La api recibe la información necesaria para generar el grafo del estudiante</t>
   </si>
   <si>
-    <t>Recibir grafo de la API</t>
+    <t>Recibir grafo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generar en back-end el archivo PDF </t>
   </si>
   <si>
     <t>Se recibe el grafo generado por la API con la información enviada</t>
   </si>
   <si>
     <t>Se requiere para mostrar el grafo generado al usuario</t>
-  </si>
-  <si>
-    <t>Recibir grafo</t>
   </si>
   <si>
     <t>La API procesó la información enviada y generó el grafo</t>
@@ -230,10 +245,10 @@
     <t>Visualizar PAPA</t>
   </si>
   <si>
-    <t>Se calcula como la suma ponderada de creditos y la nota obtenida en cada asignatura. Las materias con estado="cancelada" no entran dentro de éste cálculo. Las materias perdidas siguen afectando el PAPA así se vuelvan a cursar y se aprueben posteriormente</t>
+    <t>Se calcula como la suma ponderada de creditos y la nota obtenida en cada asignatura. Las asignaturas con estado="cancelada" no entran dentro de éste cálculo. Las asignaturas perdidas siguen afectando el PAPA así se vuelvan a cursar y se aprueben posteriormente</t>
   </si>
   <si>
-    <t>Se toman todas las notas y si se les hace un promedio ponderado en caso de que tengan nota. Cada materia se suma multiplicada por su cantidad de créditos y se divide al final por el número total de créditos.</t>
+    <t>Se toman todas las notas y si se les hace un promedio ponderado en caso de que tengan nota. Cada asignatura se suma multiplicada por su cantidad de créditos y se divide al final por el número total de créditos.</t>
   </si>
   <si>
     <t>Se requiere obtener el PAPA del semestre para análisis individual y de posibles becas/descuentos</t>
@@ -242,25 +257,25 @@
     <t>El usuario desea consultar visualmente su historia académica y sus promedios.</t>
   </si>
   <si>
-    <t>Usuario presionó el botón "mostrar gráfica"</t>
+    <t>Usuario presionó el botón "Generar plan de estudios"</t>
   </si>
   <si>
     <t>Se visualiza en pantalla de manera reconocible el Promedio Aritmético Ponderado Acumulado</t>
   </si>
   <si>
-    <t>Visualizar PAPA si se han perdido materias y se han recuperado</t>
+    <t>Visualizar PAPA si se han perdido asignaturas y se han recuperado</t>
   </si>
   <si>
-    <t>Se toman todas las notas, incluyendo aquellas que aparezcan como 'no_aprobado' y tengan nota y se les hace un promedio ponderado en caso de que tengan nota. Cada materia se suma multiplicada por su cantidad de créditos y se divide al final por el número total de créditos.</t>
+    <t>Se toman todas las notas, incluyendo aquellas que aparezcan como 'no_aprobado' y tengan nota y se les hace un promedio ponderado en caso de que tengan nota. Cada asignatura se suma multiplicada por su cantidad de créditos y se divide al final por el número total de créditos.</t>
   </si>
   <si>
-    <t>Visualizar PAPA con materias perdidas</t>
+    <t>Visualizar PAPA con asignaturas perdidas</t>
   </si>
   <si>
     <t>Visualizar PAPPI</t>
   </si>
   <si>
-    <t>El promedio se hace para cada semestre y se tiene en cuenta las materias canceladas con pérdida de créditos como si nota = 0.0</t>
+    <t>El promedio se hace para cada semestre y se tiene en cuenta las asignaturas canceladas con pérdida de créditos como si nota = 0.0</t>
   </si>
   <si>
     <t>Se toman todas las notas que se hayan cursado en un único semestre y se hace un promedio ponderado con los mismos.</t>
@@ -269,22 +284,22 @@
     <t>Se requiere obtener el PAPPI del semestre para análisis individual y conocer el orden de inscripción del semestre</t>
   </si>
   <si>
-    <t>Visualizar PAPPI si se han cancelado materias</t>
+    <t>Visualizar PAPPI si se han cancelado asignaturas</t>
   </si>
   <si>
     <t>Se toman todas las notas que se hayan cursado en un único semestre, se les suma los créditos cancelados con pérdida de créditos y se hace un promedio ponderado con los mismos.</t>
   </si>
   <si>
-    <t>Visualizar PAPPI con materias canceladads</t>
+    <t>Visualizar PAPPI con asignaturas canceladads</t>
   </si>
   <si>
     <t>Visualizar PA</t>
   </si>
   <si>
-    <t xml:space="preserve">Se calcula como la suma ponderada de creditos y la nota obtenida en cada asignatura. Las materias con estado="cancelada" no entran dentro de éste cálculo. Las materias perdidas, al ser recuperadas, son reemplazadas por la nueva nota. </t>
+    <t xml:space="preserve">Se calcula como la suma ponderada de creditos y la nota obtenida en cada asignatura. Las asignaturas con estado="cancelada" no entran dentro de éste cálculo. Las asignaturas perdidas, al ser recuperadas, son reemplazadas por la nueva nota. </t>
   </si>
   <si>
-    <t>Se toman todas las notas y si se les hace un promedio ponderado en caso de que tengan nota. Cada materia se suma multiplicada por su cantidad de créditos y se divide al final por el número total de créditos. Es idéntico al PAPA siempre y cuando no se pierda alguna materia</t>
+    <t>Se toman todas las notas y si se les hace un promedio ponderado en caso de que tengan nota. Cada asignatura se suma multiplicada por su cantidad de créditos y se divide al final por el número total de créditos. Es idéntico al PAPA siempre y cuando no se pierda alguna asignatura</t>
   </si>
   <si>
     <t xml:space="preserve">Se requiere obtener el PA del semestre para análisis individual </t>
@@ -293,10 +308,10 @@
     <t xml:space="preserve">Se visualiza en pantalla de manera reconocible el Promedio Aritmético </t>
   </si>
   <si>
-    <t>Visualizar PA si se han perdido materias y se han recuperado</t>
+    <t>Visualizar PA si se han perdido asignaturas y se han recuperado</t>
   </si>
   <si>
-    <t>Se toman todas las notas, excluyendo las que se hayan cursado más de una vez y hayan pasado de "no_aprobada a aprobada" y tengan nota y se les hace un promedio ponderado en caso de que tengan nota. Cada materia se suma multiplicada por su cantidad de créditos y se divide al final por el número total de créditos. Las notas recuperadas NO se ponderan</t>
+    <t>Se toman todas las notas, excluyendo las que se hayan cursado más de una vez y hayan pasado de "no_aprobada a aprobada" y tengan nota y se les hace un promedio ponderado en caso de que tengan nota. Cada asignatura se suma multiplicada por su cantidad de créditos y se divide al final por el número total de créditos. Las notas recuperadas NO se ponderan</t>
   </si>
   <si>
     <t>Visualizar número de créditos de cada asignatura</t>
@@ -305,10 +320,10 @@
     <t>Visualizar número de créditos de una asignatura específica</t>
   </si>
   <si>
-    <t>Esto depende del código y no del nombre de la materia, dado que hay materias con el mismo nombre y diferente cantidad de créditos</t>
+    <t>Esto depende del código y no del nombre de la asignatura, dado que hay asignaturas con el mismo nombre y diferente cantidad de créditos</t>
   </si>
   <si>
-    <t>Se grafica en el recuadro de la materia  el número de créditos de una asignatura específica</t>
+    <t>Se grafica en el recuadro de la asignatura  el número de créditos de una asignatura específica</t>
   </si>
   <si>
     <t>Se requiere visualizar cada asignatura en un nodo diferente y con su número de créditos de manera que se alcance a ver a simple vista</t>
@@ -317,37 +332,37 @@
     <t>Visualizar asignaturas</t>
   </si>
   <si>
-    <t>El usuario quiere poder ver sus materias en diferentes nodos y con los créditos asociados a cada una de ellas</t>
+    <t>El usuario quiere poder ver sus asignaturas en diferentes nodos y con los créditos asociados a cada una de ellas</t>
   </si>
   <si>
     <t>El usuario está viendo su historia acádemica graficada después de haber presionado el botón de graficarla</t>
   </si>
   <si>
-    <t>Se ve cada materia en su nodo con su cantidad de créditos asociadas</t>
+    <t>Se ve cada asignatura en su nodo con su cantidad de créditos asociadas</t>
   </si>
   <si>
-    <t>Visualizar materias perdidas de manera distintiva</t>
+    <t>Visualizar asignaturas perdidas de manera distintiva</t>
   </si>
   <si>
-    <t>Visualizar las materias que cuya calificación sea 'no_aprobada'</t>
+    <t>Visualizar las asignaturas que cuya calificación sea 'no_aprobada'</t>
   </si>
   <si>
-    <t>Las materias 'no_aprobado' no necesariamente tienen nota y, además, si la tienen, no necesariamente es menor a 3.0. Estas se identificarán con un relleno de color rojo</t>
+    <t>Las asignaturas 'no_aprobado' no necesariamente tienen nota y, además, si la tienen, no necesariamente es menor a 3.0. Estas se identificarán con un relleno de color rojo</t>
   </si>
   <si>
-    <t>Se grafica con el fondo en rojo la materia que al culminarse, se obtuvo 'no_aprobado'</t>
+    <t>Se grafica con el fondo en rojo la asignatura que al culminarse, se obtuvo 'no_aprobado'</t>
   </si>
   <si>
-    <t>Se desea diferenciar los nodos de las materias pérdidas de manera distintiva e intuitiva para que el usuario pueda entender que se diferencia de resto, en este caso se diferenciará con el color</t>
+    <t>Se desea diferenciar los nodos de las asignaturas pérdidas de manera distintiva e intuitiva para que el usuario pueda entender que se diferencia de resto, en este caso se diferenciará con el color</t>
   </si>
   <si>
     <t>Visualizar asignaturas pérdidas</t>
   </si>
   <si>
-    <t xml:space="preserve">Las materias pérdidas se deben diferenciar de manera gráfica de las otras </t>
+    <t xml:space="preserve">Las asignaturas pérdidas se deben diferenciar de manera gráfica de las otras </t>
   </si>
   <si>
-    <t>Las materias pérdidas tienen un relleno rojo que permite que se diferencien del resto</t>
+    <t>Las asignaturas pérdidas tienen un relleno rojo que permite que se diferencien del resto</t>
   </si>
   <si>
     <t>Diferenciar tipología de cada asignatura</t>
@@ -359,67 +374,67 @@
     <t>las tipologías son: ("disciplinar_optativa", "fundamentacion_optativa", "disciplinar_obligatoria", "fundamentacion_obligatoria", "libre_eleccion", "trabajo_de_grado", "nivelacion")</t>
   </si>
   <si>
-    <t>Se grafica en el recuadro de la materia la tipología de una asignatura específica</t>
+    <t>Se grafica en el recuadro de la asignatura la tipología de una asignatura específica</t>
   </si>
   <si>
-    <t>Se desea diferenciar la tipología de la materia</t>
+    <t>Se desea diferenciar la tipología de la asignatura</t>
   </si>
   <si>
     <t>Se debe diferenciar la tipología de la asignatura</t>
   </si>
   <si>
-    <t>Las materias tienen su tipología asociada de manera gráfica</t>
+    <t>Las asignaturas tienen su tipología asociada de manera gráfica</t>
   </si>
   <si>
     <t>Visualizar código de cada asignatura</t>
   </si>
   <si>
-    <t xml:space="preserve">Es un código numérico que al final puede tener, por ejemplo '-M', que representa que son materias generales para la universidad en el país pero se trata de la versión M de Medellín </t>
+    <t xml:space="preserve">Es un código numérico que al final puede tener, por ejemplo '-M', que representa que son asignaturas generales para la universidad en el país pero se trata de la versión M de Medellín </t>
   </si>
   <si>
     <t>Se observa en el recuadro el código de la asigunatura específica</t>
   </si>
   <si>
-    <t>Se desea mostrar el identificador único de la materia que es el código de asignatura</t>
+    <t>Se desea mostrar el identificador único de la asignatura que es el código de asignatura</t>
   </si>
   <si>
     <t>El usuario desea ver el código de una asignatura</t>
   </si>
   <si>
-    <t>Cada materia tiene su código específico</t>
+    <t>Cada asignatura tiene su código específico</t>
   </si>
   <si>
     <t>Visualizar calificación de cada asignatura</t>
   </si>
   <si>
-    <t>Visualizar si la materia fue aprobada o no aprobada</t>
+    <t>Visualizar si la asignatura fue aprobada o no aprobada</t>
   </si>
   <si>
-    <t>Todas las materias al culminarse deben recaer en aprobada o no aprobada. Con esto se analiza la compleción de la materia</t>
+    <t>Todas las asignaturas al culminarse deben recaer en aprobada o no aprobada. Con esto se analiza la compleción de la asignatura</t>
   </si>
   <si>
     <t>Se observa en el recuadro "aprobada" o "no aprobada" según se guarde en el sistema</t>
   </si>
   <si>
-    <t>Se deseo mostrar el estado de la materia: si es aprobada o no</t>
+    <t>Se deseo mostrar el estado de la asignatura: si es aprobada o no</t>
   </si>
   <si>
     <t>El usuario desea ver si aprobó o no una matrícula</t>
   </si>
   <si>
-    <t>Las materias aprobadas se ven de color verde y las reprobadas de color rojo</t>
+    <t>Las asignaturas aprobadas se ven de color verde y las reprobadas de color rojo</t>
   </si>
   <si>
     <t>Visualizar la nota numérica en caso que la tenga</t>
   </si>
   <si>
-    <t>Hay materias que carecen de nota numérica. Estas no afectan los promedios</t>
+    <t>Hay asignaturas que carecen de nota numérica. Estas no afectan los promedios</t>
   </si>
   <si>
-    <t>Se observa en el recuadro un número entre 0.0 y 5.0, o un "-" en caso de que la materia carezca de nota</t>
+    <t>Se observa en el recuadro un número entre 0.0 y 5.0, o un "-" en caso de que la asignatura carezca de nota</t>
   </si>
   <si>
-    <t>Se desea mostrar la nota (si la tiene) de las materias que se han cursado</t>
+    <t>Se desea mostrar la nota (si la tiene) de las asignaturas que se han cursado</t>
   </si>
   <si>
     <t>El usuario desea ver las notas de las asignaturas cursadas</t>
@@ -431,7 +446,7 @@
     <t>Visualizar nombre de cada asignatura</t>
   </si>
   <si>
-    <t>Visualizar el nombre asociado al código de una materia</t>
+    <t>Visualizar el nombre asociado al código de una asignatura</t>
   </si>
   <si>
     <t>Se remueven las tildes y las ñ se cambia por n</t>
@@ -443,7 +458,7 @@
     <t>Se desea mostrar el nombre de la asignatura</t>
   </si>
   <si>
-    <t>El usuario desea leer el nombre de una materia cursada</t>
+    <t>El usuario desea leer el nombre de una asignatura cursada</t>
   </si>
   <si>
     <t>Cada asginatura tiene su nombre en su gráfico</t>
@@ -452,10 +467,10 @@
     <t>Visualizar prerrequisitos de cada asignatura</t>
   </si>
   <si>
-    <t>Visualizar con una conexión directa las materias relacionadas como prerrequisitos ya cursadas</t>
+    <t>Visualizar con una conexión directa las asignaturas relacionadas como prerrequisitos ya cursadas</t>
   </si>
   <si>
-    <t>El prerrequisito se maneja con el código y los prerrequisitos se deben de haber tomado para poder elegir una materia</t>
+    <t>El prerrequisito se maneja con el código y los prerrequisitos se deben de haber tomado para poder elegir una asignatura</t>
   </si>
   <si>
     <t>Se observa visualmente una flecha que une una asignatura con su prerrequisito</t>
@@ -464,7 +479,7 @@
     <t>Se desea mostrar visualmente las líneas de aprendizaje con prerrequisitos a través del uso de flechas dirigidas</t>
   </si>
   <si>
-    <t>El usuario desea analizar la línea contextual y de aprendizaje de las materias que ha visto</t>
+    <t>El usuario desea analizar la línea contextual y de aprendizaje de las asignaturas que ha visto</t>
   </si>
   <si>
     <t>Las aristas de los grafos visualizan los prerrequisitos de las asignaturas</t>
@@ -473,25 +488,46 @@
     <t>Visualizar semestre en curso</t>
   </si>
   <si>
-    <t>Visualizar las materias del semestre que se está cursando</t>
+    <t>Visualizar las asignaturas del semestre que se está cursando</t>
   </si>
   <si>
-    <t>Por obvias razones no tendrá nota, el semestre saldrá como "en curso" y las materias aparecerán como inscritas</t>
+    <t>Por obvias razones no tendrá nota, el semestre saldrá como "en curso" y las asignaturas aparecerán como inscritas</t>
   </si>
   <si>
-    <t>Se observa un recuadro con las materias del semestre en curso</t>
+    <t>Se observa un recuadro con las asignaturas del semestre en curso</t>
   </si>
   <si>
-    <t>Se muestra por semestre las materias que se están cursando</t>
+    <t>Se muestra por semestre las asignaturas que se están cursando</t>
   </si>
   <si>
     <t>El usuario desea ver su semestre en curso</t>
   </si>
   <si>
-    <t>hay un semestre que se denota como (Actual), que contiene las materias en curso</t>
+    <t>hay un semestre que se denota como (Actual), que contiene las asignaturas en curso</t>
   </si>
   <si>
-    <t>Visualizar materias a cursar los siguientes semestres</t>
+    <t>Visualizar asignaturas a cursar los siguientes semestres</t>
+  </si>
+  <si>
+    <t>Mostrar asignaturas cursables</t>
+  </si>
+  <si>
+    <t>Se muestran solo las asignaturas que se deben cursar en modalidad no libre elección</t>
+  </si>
+  <si>
+    <t>se observa un recuadro con las asignaturas cursables en un semestre entrante</t>
+  </si>
+  <si>
+    <t>Se muestra por semestre las asignaturas que se podrán inscribir el semestre entrante</t>
+  </si>
+  <si>
+    <t>Visualizar asginaturas cursables</t>
+  </si>
+  <si>
+    <t>El usuario desea saber qué asignaturas cursar en el semestre entrante</t>
+  </si>
+  <si>
+    <t>Hay un PDF con todas las asignaturas que puede cursar y le sirvan para su avance en la carrera</t>
   </si>
   <si>
     <t>Fernan Alonso Villa Garzón</t>
@@ -563,10 +599,10 @@
     <t>Tutor Estudiantil</t>
   </si>
   <si>
-    <t>Consultar Avance Academico y Materias cursadas</t>
+    <t>Consultar Avance Academico y asignaturas cursadas</t>
   </si>
   <si>
-    <t>Planificar los semestres restantes para repartir las materias de la manera mas optima</t>
+    <t>Planificar los semestres restantes para repartir las asignaturas de la manera mas optima</t>
   </si>
   <si>
     <t>Ver Avance</t>
@@ -578,46 +614,46 @@
     <t>Fin de semestre</t>
   </si>
   <si>
-    <t>Visualizacion de el avance y las materias de manera exitosa</t>
+    <t>Visualizacion de el avance y las asignaturas de manera exitosa</t>
   </si>
   <si>
     <t>Esteban Garcia Carmona</t>
   </si>
   <si>
-    <t>Visualizar las materias perdidas y a repetir por ser obligatorias</t>
+    <t>Visualizar las asignaturas perdidas y a repetir por ser obligatorias</t>
   </si>
   <si>
-    <t>Planificar siguiente semestre con las materias a repetir y tener una idea del avance de los siguientes semestres</t>
+    <t>Planificar siguiente semestre con las asignaturas a repetir y tener una idea del avance de los siguientes semestres</t>
   </si>
   <si>
-    <t>Ver materias perdidas</t>
+    <t>Ver asignaturas perdidas</t>
   </si>
   <si>
-    <t>Un estudiante quiere planificar su siguiente semestre teniendo en cuenta las materias que perdió y debe repetir</t>
+    <t>Un estudiante quiere planificar su siguiente semestre teniendo en cuenta las asignaturas que perdió y debe repetir</t>
   </si>
   <si>
     <t>Fin de semestre actual</t>
   </si>
   <si>
-    <t>Se visualizan las materias perdidas en todos los semestres y las materias a repetir por ser obligatorias perdidas en el semestre actual</t>
+    <t>Se visualizan las asignaturas perdidas en todos los semestres y las asignaturas a repetir por ser obligatorias perdidas en el semestre actual</t>
   </si>
   <si>
     <t>Daniel Santiago Cadavid Montoya</t>
   </si>
   <si>
-    <t>Ver el contenido de las materias</t>
+    <t>Ver el contenido de las asignaturas</t>
   </si>
   <si>
     <t>Saber que temas se tratarán en el curso para ver si este es de mi interés</t>
   </si>
   <si>
-    <t>Ver temas de la materia</t>
+    <t>Ver temas de la asignatura</t>
   </si>
   <si>
-    <t>Un estudiante quiere conocer el temario de una materia antes de inscribirla</t>
+    <t>Un estudiante quiere conocer el temario de una asignatura antes de inscribirla</t>
   </si>
   <si>
-    <t>Cuando el estudiante selecciona una materia</t>
+    <t>Cuando el estudiante selecciona una asignatura</t>
   </si>
   <si>
     <t>Se muestra en pantalla el contenido de la asignatura que el estudiante elige</t>
@@ -626,22 +662,22 @@
     <t>Catherin Patino Restrepo</t>
   </si>
   <si>
-    <t>Visualizar graficamente las materias perdidas y ganas por semestre</t>
+    <t>Visualizar graficamente las asignaturas perdidas y ganas por semestre</t>
   </si>
   <si>
-    <t>Planificar materias a tomar para el próximo semestre</t>
+    <t>Planificar asignaturas a tomar para el próximo semestre</t>
   </si>
   <si>
     <t>Insumo para la planificación del semestre</t>
   </si>
   <si>
-    <t>Un estudiante quiere conocer las materias ganadas y perdidas antes de considerar las próximas materias a cursar</t>
+    <t>Un estudiante quiere conocer las asignaturas ganadas y perdidas antes de considerar las próximas asignaturas a cursar</t>
   </si>
   <si>
     <t>Días antes de la fecha de inscripción de asignaturas</t>
   </si>
   <si>
-    <t>Se muestan las materias elegidas por semestras con distinción entre las ganadas y perdidas.</t>
+    <t>Se muestan las asignaturas elegidas por semestras con distinción entre las ganadas y perdidas.</t>
   </si>
   <si>
     <t>Visualizar métricas de desempeño académico</t>
@@ -689,24 +725,24 @@
     <t>Eladio Salazar Suarez</t>
   </si>
   <si>
-    <t>Vizualizar los prerequisitos que tiene una materia</t>
+    <t>Vizualizar los prerequisitos que tiene una asignatura</t>
   </si>
   <si>
-    <t>Saber si puedo matricularla o no y que materias debo cursar con anterioridad</t>
+    <t>Saber si puedo matricularla o no y que asignaturas debo cursar con anterioridad</t>
   </si>
   <si>
     <t>Ver prerequisitos</t>
   </si>
   <si>
-    <t>Un estudiante desea planear con  anterioridad las materias a matricular de 
-modo que pueda tomar una materia especifica</t>
+    <t>Un estudiante desea planear con  anterioridad las asignaturas a matricular de 
+modo que pueda tomar una asignatura especifica</t>
   </si>
   <si>
     <t>En cualquier momento durante su 
 estado activo en la universidad</t>
   </si>
   <si>
-    <t>Se muestra la lista de materias que debe cursar desde la materia de 
+    <t>Se muestra la lista de asignaturas que debe cursar desde la asignatura de 
 interes hacia atras hasta las que desbloqueo tras culminar su ultimo 
 semestre.</t>
   </si>
@@ -726,10 +762,10 @@
     <t xml:space="preserve">Un estudiando ha elegido seguir cierta ruta en su plan de estudios con el objetivo de adquirir un diploma o certificado </t>
   </si>
   <si>
-    <t>Cuando vea cierta lista de materias</t>
+    <t>Cuando vea cierta lista de asignaturas</t>
   </si>
   <si>
-    <t>Se le mostrará al estudiante que si decide ver cierta combinación de materias se le otorgará un certificado o diploma relacionado a estas.</t>
+    <t>Se le mostrará al estudiante que si decide ver cierta combinación de asignaturas se le otorgará un certificado o diploma relacionado a estas.</t>
   </si>
   <si>
     <t xml:space="preserve">Entregar un certificado o diploma virtual </t>
@@ -777,22 +813,22 @@
     <t>Profesor</t>
   </si>
   <si>
-    <t>Escribir microcurrículos de las materias ofertadas</t>
+    <t>Escribir microcurrículos de las asignaturas ofertadas</t>
   </si>
   <si>
-    <t>Informar a los estudiantes sobre el temario de las materias</t>
+    <t>Informar a los estudiantes sobre el temario de las asignaturas</t>
   </si>
   <si>
     <t>Mostrar microcurrículos</t>
   </si>
   <si>
-    <t>Un profesor desea mostrar al estudiante el temario de las materias que este ofrecerá</t>
+    <t>Un profesor desea mostrar al estudiante el temario de las asignaturas que este ofrecerá</t>
   </si>
   <si>
     <t>Cuando se de inicio a la planeación del semestre</t>
   </si>
   <si>
-    <t>Las materias mostradas en el plan tendrán un temario escrito.</t>
+    <t>Las asignaturas mostradas en el plan tendrán un temario escrito.</t>
   </si>
   <si>
     <t>Mateo Rincon Arias</t>
@@ -828,7 +864,7 @@
     <t>Ceriticado notas</t>
   </si>
   <si>
-    <t>El estudiante desea obtener un documento con las notas de las materias que cursado hasta el momento</t>
+    <t>El estudiante desea obtener un documento con las notas de las asignaturas que cursado hasta el momento</t>
   </si>
   <si>
     <t>Se generara documento con las asignaturas y su respectivas notas, correspondients al estudiante interesado</t>
@@ -837,22 +873,22 @@
     <t>Edgar Alexis Garcia Camuan</t>
   </si>
   <si>
-    <t>Visualizar el promedio de nota de una materia desde que se lleva cursando al momento de querer inscribirla.</t>
+    <t>Visualizar el promedio de nota de una asignatura desde que se lleva cursando al momento de querer inscribirla.</t>
   </si>
   <si>
-    <t>Permitir al estudiante escoger una materia para inscribir si está indeciso entre inscribir una u otra.</t>
+    <t>Permitir al estudiante escoger una asignatura para inscribir si está indeciso entre inscribir una u otra.</t>
   </si>
   <si>
-    <t>Promedio materia</t>
+    <t>Promedio asignatura</t>
   </si>
   <si>
-    <t>El estudiante está indeciso entre inscribir una materia u otra ya que hay muchas similitudes como horario,cantidad de creditos,etc.</t>
+    <t>El estudiante está indeciso entre inscribir una asignatura u otra ya que hay muchas similitudes como horario,cantidad de creditos,etc.</t>
   </si>
   <si>
-    <t>Al momento de ver información de una materia</t>
+    <t>Al momento de ver información de una asignatura</t>
   </si>
   <si>
-    <t>PA de la materia en pantalla</t>
+    <t>PA de la asignatura en pantalla</t>
   </si>
   <si>
     <t>Kevin Jay Herrera</t>
@@ -876,7 +912,7 @@
     <t>Visualizar notas de asignaturas del semestre vigente</t>
   </si>
   <si>
-    <t>Esto le permite al estudiante visualizar sus notas, del semestre y asi saber como va en cada materia, y de ser encesario calcular cuanto necesita para aprobarla.</t>
+    <t>Esto le permite al estudiante visualizar sus notas, del semestre y asi saber como va en cada asignatura, y de ser encesario calcular cuanto necesita para aprobarla.</t>
   </si>
   <si>
     <t>Ver Notas</t>
@@ -918,43 +954,43 @@
     <t>Jose Daniel Bustamante Arango</t>
   </si>
   <si>
-    <t>Visualizar salón donde se cursa la materia</t>
+    <t>Visualizar salón donde se cursa la asignatura</t>
   </si>
   <si>
-    <t>Permite al estudiante saber en que salón se va a dictar la materia</t>
+    <t>Permite al estudiante saber en que salón se va a dictar la asignatura</t>
   </si>
   <si>
     <t>Consultar salón</t>
   </si>
   <si>
-    <t>El estudiantes desea saber en que salón se va a dictar la materia</t>
+    <t>El estudiantes desea saber en que salón se va a dictar la asignatura</t>
   </si>
   <si>
     <t>Durante el semestre</t>
   </si>
   <si>
-    <t>Se muestra el bloque de la universidad y el salón de cada materia</t>
+    <t>Se muestra el bloque de la universidad y el salón de cada asignatura</t>
   </si>
   <si>
     <t>Sebastian Rendon Arteaga</t>
   </si>
   <si>
-    <t>Visualizar e interactuar con materias y conjunto de materias sugeridas para el proximo semestre</t>
+    <t>Visualizar e interactuar con asignaturas y conjunto de asignaturas sugeridas para el proximo semestre</t>
   </si>
   <si>
-    <t>Informar al estudiante un conjunto de materias sugeridas a cursas el próximo semestre, con tips y sugerencias dadas por el sistema</t>
+    <t>Informar al estudiante un conjunto de asignaturas sugeridas a cursas el próximo semestre, con tips y sugerencias dadas por el sistema</t>
   </si>
   <si>
     <t>Asignaturas por cursar</t>
   </si>
   <si>
-    <t>Un estudiante desea planear su siguiente semestre, pero este no tiene muy claro las materias de su malla curricular, los prerrequisitos que hay, ni las libre eleccion que puede ver</t>
+    <t>Un estudiante desea planear su siguiente semestre, pero este no tiene muy claro las asignaturas de su malla curricular, los prerrequisitos que hay, ni las libre eleccion que puede ver</t>
   </si>
   <si>
     <t>En cualquier momento durante su estado activo en la universidad</t>
   </si>
   <si>
-    <t>Se muestra una serie de sugerencias que la IA nos arroja de cual seria el mejor conjunto de materias que puede ver el siguiente semestre con posibilidad de editar las sugerencias y armar su proximo horario a medida</t>
+    <t>Se muestra una serie de sugerencias que la IA nos arroja de cual seria el mejor conjunto de asignaturas que puede ver el siguiente semestre con posibilidad de editar las sugerencias y armar su proximo horario a medida</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +1061,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1048,12 +1084,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -1137,7 +1167,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1178,7 +1208,12 @@
     <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -1209,12 +1244,6 @@
     <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -1243,11 +1272,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
@@ -1912,30 +1939,32 @@
       <c r="C11" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="9"/>
+      <c r="D11" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="E11" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H11" s="10">
         <v>1.0</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
@@ -1958,9 +1987,14 @@
     <row r="12">
       <c r="A12" s="11"/>
       <c r="B12" s="7"/>
-      <c r="D12" s="16"/>
+      <c r="C12" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>50</v>
+      </c>
       <c r="E12" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -1989,34 +2023,38 @@
     </row>
     <row r="13">
       <c r="A13" s="11"/>
-      <c r="B13" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
+      <c r="B13" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="E13" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H13" s="9">
         <v>1.0</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -2038,34 +2076,38 @@
     </row>
     <row r="14">
       <c r="A14" s="11"/>
-      <c r="B14" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+      <c r="B14" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="E14" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H14" s="9">
         <v>1.0</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
@@ -2087,34 +2129,38 @@
     </row>
     <row r="15">
       <c r="A15" s="7"/>
-      <c r="B15" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
+      <c r="B15" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="E15" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H15" s="13">
         <v>1.0</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="L15" s="13" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
@@ -2135,41 +2181,41 @@
       <c r="AC15" s="6"/>
     </row>
     <row r="16" ht="53.25" customHeight="1">
-      <c r="A16" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="21" t="s">
+      <c r="A16" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>74</v>
+      <c r="F16" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>79</v>
       </c>
       <c r="H16" s="9">
         <v>1.0</v>
       </c>
-      <c r="I16" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="J16" s="22" t="s">
-        <v>75</v>
+      <c r="I16" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>80</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="L16" s="21" t="s">
-        <v>77</v>
+        <v>81</v>
+      </c>
+      <c r="L16" s="22" t="s">
+        <v>82</v>
       </c>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
@@ -2192,29 +2238,29 @@
     <row r="17" ht="53.25" customHeight="1">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
-      <c r="C17" s="21" t="s">
-        <v>78</v>
+      <c r="C17" s="22" t="s">
+        <v>83</v>
       </c>
       <c r="D17" s="7"/>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="22" t="s">
         <v>79</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>74</v>
       </c>
       <c r="H17" s="9">
         <v>2.0</v>
       </c>
-      <c r="I17" s="21" t="s">
-        <v>80</v>
+      <c r="I17" s="22" t="s">
+        <v>85</v>
       </c>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
-      <c r="L17" s="21" t="s">
-        <v>77</v>
+      <c r="L17" s="22" t="s">
+        <v>82</v>
       </c>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
@@ -2237,31 +2283,31 @@
     <row r="18" ht="57.0" customHeight="1">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
-      <c r="C18" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="E18" s="21" t="s">
+      <c r="C18" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>84</v>
+      <c r="F18" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>89</v>
       </c>
       <c r="H18" s="9">
         <v>1.0</v>
       </c>
-      <c r="I18" s="21" t="s">
-        <v>81</v>
+      <c r="I18" s="22" t="s">
+        <v>86</v>
       </c>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
-      <c r="L18" s="21" t="s">
-        <v>77</v>
+      <c r="L18" s="22" t="s">
+        <v>82</v>
       </c>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
@@ -2284,29 +2330,29 @@
     <row r="19" ht="57.0" customHeight="1">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
-      <c r="C19" s="21" t="s">
-        <v>85</v>
+      <c r="C19" s="22" t="s">
+        <v>90</v>
       </c>
       <c r="D19" s="7"/>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>84</v>
+      <c r="F19" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>89</v>
       </c>
       <c r="H19" s="9">
         <v>2.0</v>
       </c>
-      <c r="I19" s="21" t="s">
-        <v>87</v>
+      <c r="I19" s="22" t="s">
+        <v>92</v>
       </c>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
-      <c r="L19" s="21" t="s">
-        <v>77</v>
+      <c r="L19" s="22" t="s">
+        <v>82</v>
       </c>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
@@ -2329,31 +2375,31 @@
     <row r="20" ht="64.5" customHeight="1">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
-      <c r="C20" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="E20" s="21" t="s">
+      <c r="C20" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>91</v>
+      <c r="F20" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>96</v>
       </c>
       <c r="H20" s="9">
         <v>1.0</v>
       </c>
-      <c r="I20" s="21" t="s">
-        <v>88</v>
+      <c r="I20" s="22" t="s">
+        <v>93</v>
       </c>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
-      <c r="L20" s="21" t="s">
-        <v>92</v>
+      <c r="L20" s="22" t="s">
+        <v>97</v>
       </c>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
@@ -2376,27 +2422,27 @@
     <row r="21" ht="78.75" customHeight="1">
       <c r="A21" s="11"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="23" t="s">
-        <v>93</v>
+      <c r="C21" s="24" t="s">
+        <v>98</v>
       </c>
       <c r="D21" s="7"/>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="21" t="s">
-        <v>94</v>
+      <c r="F21" s="22" t="s">
+        <v>99</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="9">
         <v>2.0</v>
       </c>
-      <c r="I21" s="21" t="s">
-        <v>88</v>
+      <c r="I21" s="22" t="s">
+        <v>93</v>
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
-      <c r="L21" s="21" t="s">
-        <v>92</v>
+      <c r="L21" s="22" t="s">
+        <v>97</v>
       </c>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
@@ -2418,38 +2464,38 @@
     </row>
     <row r="22">
       <c r="A22" s="11"/>
-      <c r="B22" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="E22" s="21" t="s">
+      <c r="B22" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>99</v>
+      <c r="F22" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>104</v>
       </c>
       <c r="H22" s="9">
         <v>1.0</v>
       </c>
-      <c r="I22" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="J22" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="K22" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="L22" s="21" t="s">
-        <v>103</v>
+      <c r="I22" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="K22" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="L22" s="22" t="s">
+        <v>108</v>
       </c>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
@@ -2471,36 +2517,36 @@
     </row>
     <row r="23" ht="67.5" customHeight="1">
       <c r="A23" s="11"/>
-      <c r="B23" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="E23" s="21" t="s">
+      <c r="B23" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>108</v>
+      <c r="F23" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>113</v>
       </c>
       <c r="H23" s="9">
         <v>1.0</v>
       </c>
-      <c r="I23" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="J23" s="21" t="s">
-        <v>110</v>
+      <c r="I23" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="J23" s="22" t="s">
+        <v>115</v>
       </c>
       <c r="K23" s="7"/>
-      <c r="L23" s="21" t="s">
-        <v>111</v>
+      <c r="L23" s="22" t="s">
+        <v>116</v>
       </c>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
@@ -2522,38 +2568,38 @@
     </row>
     <row r="24" ht="103.5" customHeight="1">
       <c r="A24" s="11"/>
-      <c r="B24" s="25" t="s">
-        <v>112</v>
+      <c r="B24" s="26" t="s">
+        <v>117</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="E24" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E24" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="21" t="s">
-        <v>115</v>
+      <c r="F24" s="22" t="s">
+        <v>120</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="H24" s="9">
         <v>1.0</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="K24" s="26" t="s">
-        <v>102</v>
+        <v>122</v>
+      </c>
+      <c r="K24" s="27" t="s">
+        <v>107</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
@@ -2575,38 +2621,38 @@
     </row>
     <row r="25" ht="87.0" customHeight="1">
       <c r="A25" s="11"/>
-      <c r="B25" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>119</v>
+      <c r="B25" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>124</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E25" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="E25" s="22" t="s">
         <v>18</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H25" s="9">
         <v>1.0</v>
       </c>
-      <c r="I25" s="25" t="s">
-        <v>119</v>
+      <c r="I25" s="26" t="s">
+        <v>124</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="K25" s="26" t="s">
-        <v>102</v>
+        <v>128</v>
+      </c>
+      <c r="K25" s="27" t="s">
+        <v>107</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
@@ -2628,38 +2674,38 @@
     </row>
     <row r="26" ht="87.0" customHeight="1">
       <c r="A26" s="11"/>
-      <c r="B26" s="20" t="s">
-        <v>125</v>
+      <c r="B26" s="21" t="s">
+        <v>130</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E26" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" s="22" t="s">
         <v>18</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H26" s="9">
         <v>1.0</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="K26" s="26" t="s">
-        <v>102</v>
+        <v>135</v>
+      </c>
+      <c r="K26" s="27" t="s">
+        <v>107</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
@@ -2683,34 +2729,34 @@
       <c r="A27" s="11"/>
       <c r="B27" s="7"/>
       <c r="C27" s="9" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E27" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="E27" s="22" t="s">
         <v>18</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H27" s="9">
         <v>1.0</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="K27" s="26" t="s">
-        <v>102</v>
+        <v>141</v>
+      </c>
+      <c r="K27" s="27" t="s">
+        <v>107</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
@@ -2732,38 +2778,38 @@
     </row>
     <row r="28">
       <c r="A28" s="11"/>
-      <c r="B28" s="24" t="s">
-        <v>138</v>
+      <c r="B28" s="25" t="s">
+        <v>143</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E28" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="E28" s="22" t="s">
         <v>18</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="H28" s="9">
         <v>1.0</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="K28" s="26" t="s">
-        <v>102</v>
+        <v>148</v>
+      </c>
+      <c r="K28" s="27" t="s">
+        <v>107</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
@@ -2785,38 +2831,38 @@
     </row>
     <row r="29">
       <c r="A29" s="11"/>
-      <c r="B29" s="24" t="s">
-        <v>145</v>
+      <c r="B29" s="25" t="s">
+        <v>150</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>18</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="H29" s="9">
         <v>1.0</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="K29" s="26" t="s">
-        <v>102</v>
+        <v>155</v>
+      </c>
+      <c r="K29" s="27" t="s">
+        <v>107</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
@@ -2838,38 +2884,38 @@
     </row>
     <row r="30">
       <c r="A30" s="11"/>
-      <c r="B30" s="24" t="s">
-        <v>152</v>
+      <c r="B30" s="25" t="s">
+        <v>157</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>18</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="H30" s="9">
         <v>1.0</v>
       </c>
-      <c r="I30" s="24" t="s">
-        <v>152</v>
+      <c r="I30" s="25" t="s">
+        <v>157</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="K30" s="26" t="s">
-        <v>102</v>
+        <v>162</v>
+      </c>
+      <c r="K30" s="27" t="s">
+        <v>107</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
@@ -2891,19 +2937,39 @@
     </row>
     <row r="31">
       <c r="A31" s="7"/>
-      <c r="B31" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
+      <c r="B31" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="H31" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="K31" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>171</v>
+      </c>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
@@ -2964,8 +3030,8 @@
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
       <c r="O33" s="6"/>
@@ -3026,7 +3092,7 @@
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
-      <c r="K35" s="25"/>
+      <c r="K35" s="26"/>
       <c r="L35" s="9"/>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
@@ -3056,9 +3122,9 @@
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
       <c r="O36" s="6"/>
@@ -3084,7 +3150,7 @@
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
-      <c r="G37" s="31"/>
+      <c r="G37" s="30"/>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -3117,10 +3183,10 @@
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
@@ -3233,18 +3299,18 @@
       <c r="AC41" s="6"/>
     </row>
     <row r="42">
-      <c r="A42" s="30"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
       <c r="O42" s="6"/>
@@ -3264,18 +3330,18 @@
       <c r="AC42" s="6"/>
     </row>
     <row r="43">
-      <c r="A43" s="30"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
       <c r="O43" s="6"/>
@@ -3295,18 +3361,18 @@
       <c r="AC43" s="6"/>
     </row>
     <row r="44">
-      <c r="A44" s="30"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
       <c r="O44" s="6"/>
@@ -3326,18 +3392,18 @@
       <c r="AC44" s="6"/>
     </row>
     <row r="45">
-      <c r="A45" s="30"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="30"/>
+      <c r="A45" s="29"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
       <c r="O45" s="6"/>
@@ -3357,18 +3423,18 @@
       <c r="AC45" s="6"/>
     </row>
     <row r="46">
-      <c r="A46" s="30"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="30"/>
+      <c r="A46" s="29"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
       <c r="O46" s="6"/>
@@ -3388,18 +3454,18 @@
       <c r="AC46" s="6"/>
     </row>
     <row r="47">
-      <c r="A47" s="30"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
       <c r="O47" s="6"/>
@@ -3419,18 +3485,18 @@
       <c r="AC47" s="6"/>
     </row>
     <row r="48">
-      <c r="A48" s="30"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
       <c r="O48" s="6"/>
@@ -3450,18 +3516,18 @@
       <c r="AC48" s="6"/>
     </row>
     <row r="49">
-      <c r="A49" s="30"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="30"/>
+      <c r="A49" s="29"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="29"/>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
       <c r="O49" s="6"/>
@@ -3481,18 +3547,18 @@
       <c r="AC49" s="6"/>
     </row>
     <row r="50">
-      <c r="A50" s="30"/>
-      <c r="B50" s="30"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
+      <c r="A50" s="29"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
       <c r="O50" s="6"/>
@@ -3512,18 +3578,18 @@
       <c r="AC50" s="6"/>
     </row>
     <row r="51">
-      <c r="A51" s="30"/>
-      <c r="B51" s="30"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
+      <c r="A51" s="29"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="29"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="29"/>
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
       <c r="O51" s="6"/>
@@ -3543,18 +3609,18 @@
       <c r="AC51" s="6"/>
     </row>
     <row r="52">
-      <c r="A52" s="30"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="30"/>
-      <c r="L52" s="30"/>
+      <c r="A52" s="29"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="29"/>
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
       <c r="O52" s="6"/>
@@ -31353,16 +31419,16 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="33" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="4"/>
@@ -31371,4462 +31437,4462 @@
     </row>
     <row r="2">
       <c r="A2" s="7"/>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="E3" s="38">
+      <c r="A3" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3" s="17">
         <v>1.0</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
     </row>
     <row r="4">
-      <c r="A4" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>164</v>
-      </c>
-      <c r="E4" s="38">
+      <c r="A4" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="E4" s="17">
         <v>2.0</v>
       </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
     </row>
     <row r="5">
-      <c r="A5" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>166</v>
-      </c>
-      <c r="E5" s="38">
+      <c r="A5" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="E5" s="17">
         <v>1.0</v>
       </c>
-      <c r="F5" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="I5" s="38" t="s">
-        <v>170</v>
+      <c r="F5" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="E6" s="38">
+      <c r="A6" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="E6" s="17">
         <v>2.0</v>
       </c>
-      <c r="F6" s="39"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
     </row>
     <row r="7">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
     </row>
     <row r="8">
-      <c r="A8" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
+      <c r="A8" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
     </row>
     <row r="9">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="E9" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="I10" s="39" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="C11" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="E11" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="E12" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="I12" s="27" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="E13" s="41">
+        <v>1.0</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="H13" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="I13" s="40" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="E14" s="38"/>
+      <c r="F14" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="44" t="s">
         <v>174</v>
       </c>
-      <c r="C9" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="E9" s="38">
+      <c r="D15" s="43"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="E16" s="38"/>
+      <c r="F16" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="G16" s="44" t="s">
+        <v>233</v>
+      </c>
+      <c r="H16" s="44" t="s">
+        <v>234</v>
+      </c>
+      <c r="I16" s="44" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="E17" s="17">
         <v>1.0</v>
       </c>
-      <c r="F9" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="G9" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="H9" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="I9" s="38" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>184</v>
-      </c>
-      <c r="E10" s="38">
+      <c r="F17" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="E18" s="17">
         <v>1.0</v>
       </c>
-      <c r="F10" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="G10" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="H10" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="I10" s="40" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="E11" s="38">
+      <c r="F18" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="I18" s="27" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="E19" s="17">
+        <v>2.0</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="I19" s="27" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="E20" s="17">
         <v>1.0</v>
       </c>
-      <c r="F11" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="H11" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="I11" s="26" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="E12" s="38">
+      <c r="F20" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="E22" s="17">
         <v>1.0</v>
       </c>
-      <c r="F12" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="G12" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="H12" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="I12" s="26" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="37" t="s">
-        <v>203</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="E13" s="42">
+      <c r="F22" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="E23" s="17">
         <v>1.0</v>
       </c>
-      <c r="F13" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="G13" s="41" t="s">
-        <v>207</v>
-      </c>
-      <c r="H13" s="41" t="s">
-        <v>208</v>
-      </c>
-      <c r="I13" s="41" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="37" t="s">
-        <v>203</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="C14" s="41" t="s">
-        <v>210</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>211</v>
-      </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="H14" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="I14" s="38" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="43" t="s">
-        <v>216</v>
-      </c>
-      <c r="B15" s="44" t="s">
-        <v>161</v>
-      </c>
-      <c r="C15" s="45" t="s">
-        <v>162</v>
-      </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="B16" s="44" t="s">
-        <v>161</v>
-      </c>
-      <c r="C16" s="45" t="s">
-        <v>218</v>
-      </c>
-      <c r="D16" s="44" t="s">
-        <v>219</v>
-      </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="45" t="s">
-        <v>220</v>
-      </c>
-      <c r="G16" s="45" t="s">
-        <v>221</v>
-      </c>
-      <c r="H16" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="I16" s="45" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D17" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="E17" s="38">
+      <c r="F23" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="H23" s="45" t="s">
+        <v>276</v>
+      </c>
+      <c r="I23" s="45" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>279</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="E24" s="17">
+        <v>2.0</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="27" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="25" ht="26.25" customHeight="1">
+      <c r="A25" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="E25" s="17">
         <v>1.0</v>
       </c>
-      <c r="F17" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="G17" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="H17" s="38" t="s">
-        <v>229</v>
-      </c>
-      <c r="I17" s="38" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="37" t="s">
-        <v>231</v>
-      </c>
-      <c r="B18" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>232</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="E18" s="38">
+      <c r="F25" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="H25" s="46" t="s">
+        <v>289</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="36" t="s">
+        <v>291</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="E26" s="17">
         <v>1.0</v>
       </c>
-      <c r="F18" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="H18" s="38" t="s">
-        <v>236</v>
-      </c>
-      <c r="I18" s="26" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="37" t="s">
-        <v>231</v>
-      </c>
-      <c r="B19" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="D19" s="38" t="s">
-        <v>239</v>
-      </c>
-      <c r="E19" s="38">
-        <v>2.0</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="G19" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="H19" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="I19" s="26" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="B20" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>246</v>
-      </c>
-      <c r="E20" s="38">
+      <c r="F26" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+    </row>
+    <row r="27" ht="27.75" customHeight="1">
+      <c r="A27" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="D27" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="E27" s="17">
         <v>1.0</v>
       </c>
-      <c r="F20" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="G20" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="H20" s="38" t="s">
-        <v>249</v>
-      </c>
-      <c r="I20" s="38" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="37" t="s">
-        <v>251</v>
-      </c>
-      <c r="B22" s="38" t="s">
-        <v>252</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>254</v>
-      </c>
-      <c r="E22" s="38">
+      <c r="F27" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="H27" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="I27" s="27" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="36" t="s">
+        <v>303</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="E28" s="17">
         <v>1.0</v>
       </c>
-      <c r="F22" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="G22" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="H22" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="I22" s="38" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="37" t="s">
-        <v>259</v>
-      </c>
-      <c r="B23" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>260</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>261</v>
-      </c>
-      <c r="E23" s="38">
+      <c r="F28" s="37"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+    </row>
+    <row r="29" ht="24.75" customHeight="1">
+      <c r="A29" s="36" t="s">
+        <v>305</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="E29" s="17">
         <v>1.0</v>
       </c>
-      <c r="F23" s="26" t="s">
-        <v>262</v>
-      </c>
-      <c r="G23" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="H23" s="46" t="s">
-        <v>264</v>
-      </c>
-      <c r="I23" s="46" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="37" t="s">
-        <v>266</v>
-      </c>
-      <c r="B24" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>267</v>
-      </c>
-      <c r="D24" s="38" t="s">
-        <v>268</v>
-      </c>
-      <c r="E24" s="38">
-        <v>2.0</v>
-      </c>
-      <c r="F24" s="26" t="s">
-        <v>269</v>
-      </c>
-      <c r="G24" s="26" t="s">
-        <v>270</v>
-      </c>
-      <c r="H24" s="38" t="s">
+      <c r="F29" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="H29" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="I24" s="26" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="25" ht="26.25" customHeight="1">
-      <c r="A25" s="37" t="s">
-        <v>272</v>
-      </c>
-      <c r="B25" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>273</v>
-      </c>
-      <c r="D25" s="38" t="s">
-        <v>274</v>
-      </c>
-      <c r="E25" s="38">
+      <c r="I29" s="27" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="36" t="s">
+        <v>311</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="E30" s="17">
         <v>1.0</v>
       </c>
-      <c r="F25" s="26" t="s">
-        <v>275</v>
-      </c>
-      <c r="G25" s="38" t="s">
-        <v>276</v>
-      </c>
-      <c r="H25" s="47" t="s">
-        <v>277</v>
-      </c>
-      <c r="I25" s="38" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="37" t="s">
-        <v>279</v>
-      </c>
-      <c r="B26" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>280</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>281</v>
-      </c>
-      <c r="E26" s="38">
+      <c r="F30" s="27" t="s">
+        <v>314</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="E31" s="17">
         <v>1.0</v>
       </c>
-      <c r="F26" s="26" t="s">
-        <v>282</v>
-      </c>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-    </row>
-    <row r="27" ht="27.75" customHeight="1">
-      <c r="A27" s="38" t="s">
-        <v>283</v>
-      </c>
-      <c r="B27" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>285</v>
-      </c>
-      <c r="D27" s="48" t="s">
-        <v>286</v>
-      </c>
-      <c r="E27" s="38">
-        <v>1.0</v>
-      </c>
-      <c r="F27" s="26" t="s">
-        <v>287</v>
-      </c>
-      <c r="G27" s="26" t="s">
-        <v>288</v>
-      </c>
-      <c r="H27" s="26" t="s">
-        <v>289</v>
-      </c>
-      <c r="I27" s="26" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="37" t="s">
-        <v>291</v>
-      </c>
-      <c r="B28" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="D28" s="38" t="s">
-        <v>292</v>
-      </c>
-      <c r="E28" s="38">
-        <v>1.0</v>
-      </c>
-      <c r="F28" s="39"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-    </row>
-    <row r="29" ht="24.75" customHeight="1">
-      <c r="A29" s="37" t="s">
-        <v>293</v>
-      </c>
-      <c r="B29" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>294</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>295</v>
-      </c>
-      <c r="E29" s="38">
-        <v>1.0</v>
-      </c>
-      <c r="F29" s="26" t="s">
-        <v>296</v>
-      </c>
-      <c r="G29" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="H29" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="I29" s="26" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="B30" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>300</v>
-      </c>
-      <c r="D30" s="38" t="s">
-        <v>301</v>
-      </c>
-      <c r="E30" s="38">
-        <v>1.0</v>
-      </c>
-      <c r="F30" s="26" t="s">
-        <v>302</v>
-      </c>
-      <c r="G30" s="38" t="s">
-        <v>303</v>
-      </c>
-      <c r="H30" s="38" t="s">
-        <v>304</v>
-      </c>
-      <c r="I30" s="38" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="37" t="s">
-        <v>306</v>
-      </c>
-      <c r="B31" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>307</v>
-      </c>
-      <c r="D31" s="38" t="s">
-        <v>308</v>
-      </c>
-      <c r="E31" s="38">
-        <v>1.0</v>
-      </c>
-      <c r="F31" s="26" t="s">
-        <v>309</v>
-      </c>
-      <c r="G31" s="38" t="s">
-        <v>310</v>
-      </c>
-      <c r="H31" s="38" t="s">
-        <v>311</v>
-      </c>
-      <c r="I31" s="26" t="s">
-        <v>312</v>
+      <c r="F31" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="I31" s="27" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
     </row>
     <row r="33">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
     </row>
     <row r="34">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
     </row>
     <row r="35">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
     </row>
     <row r="36">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
     </row>
     <row r="37">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
     </row>
     <row r="38">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
     </row>
     <row r="39">
-      <c r="A39" s="16"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
+      <c r="A39" s="38"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
     </row>
     <row r="40">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
     </row>
     <row r="41">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
+      <c r="A41" s="38"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
     </row>
     <row r="42">
-      <c r="A42" s="16"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
+      <c r="A42" s="38"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
     </row>
     <row r="43">
-      <c r="C43" s="49"/>
-      <c r="F43" s="49"/>
+      <c r="C43" s="48"/>
+      <c r="F43" s="48"/>
     </row>
     <row r="44">
-      <c r="C44" s="49"/>
-      <c r="F44" s="49"/>
+      <c r="C44" s="48"/>
+      <c r="F44" s="48"/>
     </row>
     <row r="45">
-      <c r="C45" s="49"/>
-      <c r="F45" s="49"/>
+      <c r="C45" s="48"/>
+      <c r="F45" s="48"/>
     </row>
     <row r="46">
-      <c r="C46" s="49"/>
-      <c r="F46" s="49"/>
+      <c r="C46" s="48"/>
+      <c r="F46" s="48"/>
     </row>
     <row r="47">
-      <c r="C47" s="49"/>
-      <c r="F47" s="49"/>
+      <c r="C47" s="48"/>
+      <c r="F47" s="48"/>
     </row>
     <row r="48">
-      <c r="C48" s="49"/>
-      <c r="F48" s="49"/>
+      <c r="C48" s="48"/>
+      <c r="F48" s="48"/>
     </row>
     <row r="49">
-      <c r="C49" s="49"/>
-      <c r="F49" s="49"/>
+      <c r="C49" s="48"/>
+      <c r="F49" s="48"/>
     </row>
     <row r="50">
-      <c r="C50" s="49"/>
-      <c r="F50" s="49"/>
+      <c r="C50" s="48"/>
+      <c r="F50" s="48"/>
     </row>
     <row r="51">
-      <c r="C51" s="49"/>
-      <c r="F51" s="49"/>
+      <c r="C51" s="48"/>
+      <c r="F51" s="48"/>
     </row>
     <row r="52">
-      <c r="C52" s="49"/>
-      <c r="F52" s="49"/>
+      <c r="C52" s="48"/>
+      <c r="F52" s="48"/>
     </row>
     <row r="53">
-      <c r="C53" s="49"/>
-      <c r="F53" s="49"/>
+      <c r="C53" s="48"/>
+      <c r="F53" s="48"/>
     </row>
     <row r="54">
-      <c r="C54" s="49"/>
-      <c r="F54" s="49"/>
+      <c r="C54" s="48"/>
+      <c r="F54" s="48"/>
     </row>
     <row r="55">
-      <c r="C55" s="49"/>
-      <c r="F55" s="49"/>
+      <c r="C55" s="48"/>
+      <c r="F55" s="48"/>
     </row>
     <row r="56">
-      <c r="C56" s="49"/>
-      <c r="F56" s="49"/>
+      <c r="C56" s="48"/>
+      <c r="F56" s="48"/>
     </row>
     <row r="57">
-      <c r="C57" s="49"/>
-      <c r="F57" s="49"/>
+      <c r="C57" s="48"/>
+      <c r="F57" s="48"/>
     </row>
     <row r="58">
-      <c r="C58" s="49"/>
-      <c r="F58" s="49"/>
+      <c r="C58" s="48"/>
+      <c r="F58" s="48"/>
     </row>
     <row r="59">
-      <c r="C59" s="49"/>
-      <c r="F59" s="49"/>
+      <c r="C59" s="48"/>
+      <c r="F59" s="48"/>
     </row>
     <row r="60">
-      <c r="C60" s="49"/>
-      <c r="F60" s="49"/>
+      <c r="C60" s="48"/>
+      <c r="F60" s="48"/>
     </row>
     <row r="61">
-      <c r="C61" s="49"/>
-      <c r="F61" s="49"/>
+      <c r="C61" s="48"/>
+      <c r="F61" s="48"/>
     </row>
     <row r="62">
-      <c r="C62" s="49"/>
-      <c r="F62" s="49"/>
+      <c r="C62" s="48"/>
+      <c r="F62" s="48"/>
     </row>
     <row r="63">
-      <c r="C63" s="49"/>
-      <c r="F63" s="49"/>
+      <c r="C63" s="48"/>
+      <c r="F63" s="48"/>
     </row>
     <row r="64">
-      <c r="C64" s="49"/>
-      <c r="F64" s="49"/>
+      <c r="C64" s="48"/>
+      <c r="F64" s="48"/>
     </row>
     <row r="65">
-      <c r="C65" s="49"/>
-      <c r="F65" s="49"/>
+      <c r="C65" s="48"/>
+      <c r="F65" s="48"/>
     </row>
     <row r="66">
-      <c r="C66" s="49"/>
-      <c r="F66" s="49"/>
+      <c r="C66" s="48"/>
+      <c r="F66" s="48"/>
     </row>
     <row r="67">
-      <c r="C67" s="49"/>
-      <c r="F67" s="49"/>
+      <c r="C67" s="48"/>
+      <c r="F67" s="48"/>
     </row>
     <row r="68">
-      <c r="C68" s="49"/>
-      <c r="F68" s="49"/>
+      <c r="C68" s="48"/>
+      <c r="F68" s="48"/>
     </row>
     <row r="69">
-      <c r="C69" s="49"/>
-      <c r="F69" s="49"/>
+      <c r="C69" s="48"/>
+      <c r="F69" s="48"/>
     </row>
     <row r="70">
-      <c r="C70" s="49"/>
-      <c r="F70" s="49"/>
+      <c r="C70" s="48"/>
+      <c r="F70" s="48"/>
     </row>
     <row r="71">
-      <c r="C71" s="49"/>
-      <c r="F71" s="49"/>
+      <c r="C71" s="48"/>
+      <c r="F71" s="48"/>
     </row>
     <row r="72">
-      <c r="C72" s="49"/>
-      <c r="F72" s="49"/>
+      <c r="C72" s="48"/>
+      <c r="F72" s="48"/>
     </row>
     <row r="73">
-      <c r="C73" s="49"/>
-      <c r="F73" s="49"/>
+      <c r="C73" s="48"/>
+      <c r="F73" s="48"/>
     </row>
     <row r="74">
-      <c r="C74" s="49"/>
-      <c r="F74" s="49"/>
+      <c r="C74" s="48"/>
+      <c r="F74" s="48"/>
     </row>
     <row r="75">
-      <c r="C75" s="49"/>
-      <c r="F75" s="49"/>
+      <c r="C75" s="48"/>
+      <c r="F75" s="48"/>
     </row>
     <row r="76">
-      <c r="C76" s="49"/>
-      <c r="F76" s="49"/>
+      <c r="C76" s="48"/>
+      <c r="F76" s="48"/>
     </row>
     <row r="77">
-      <c r="C77" s="49"/>
-      <c r="F77" s="49"/>
+      <c r="C77" s="48"/>
+      <c r="F77" s="48"/>
     </row>
     <row r="78">
-      <c r="C78" s="49"/>
-      <c r="F78" s="49"/>
+      <c r="C78" s="48"/>
+      <c r="F78" s="48"/>
     </row>
     <row r="79">
-      <c r="C79" s="49"/>
-      <c r="F79" s="49"/>
+      <c r="C79" s="48"/>
+      <c r="F79" s="48"/>
     </row>
     <row r="80">
-      <c r="C80" s="49"/>
-      <c r="F80" s="49"/>
+      <c r="C80" s="48"/>
+      <c r="F80" s="48"/>
     </row>
     <row r="81">
-      <c r="C81" s="49"/>
-      <c r="F81" s="49"/>
+      <c r="C81" s="48"/>
+      <c r="F81" s="48"/>
     </row>
     <row r="82">
-      <c r="C82" s="49"/>
-      <c r="F82" s="49"/>
+      <c r="C82" s="48"/>
+      <c r="F82" s="48"/>
     </row>
     <row r="83">
-      <c r="C83" s="49"/>
-      <c r="F83" s="49"/>
+      <c r="C83" s="48"/>
+      <c r="F83" s="48"/>
     </row>
     <row r="84">
-      <c r="C84" s="49"/>
-      <c r="F84" s="49"/>
+      <c r="C84" s="48"/>
+      <c r="F84" s="48"/>
     </row>
     <row r="85">
-      <c r="C85" s="49"/>
-      <c r="F85" s="49"/>
+      <c r="C85" s="48"/>
+      <c r="F85" s="48"/>
     </row>
     <row r="86">
-      <c r="C86" s="49"/>
-      <c r="F86" s="49"/>
+      <c r="C86" s="48"/>
+      <c r="F86" s="48"/>
     </row>
     <row r="87">
-      <c r="C87" s="49"/>
-      <c r="F87" s="49"/>
+      <c r="C87" s="48"/>
+      <c r="F87" s="48"/>
     </row>
     <row r="88">
-      <c r="C88" s="49"/>
-      <c r="F88" s="49"/>
+      <c r="C88" s="48"/>
+      <c r="F88" s="48"/>
     </row>
     <row r="89">
-      <c r="C89" s="49"/>
-      <c r="F89" s="49"/>
+      <c r="C89" s="48"/>
+      <c r="F89" s="48"/>
     </row>
     <row r="90">
-      <c r="C90" s="49"/>
-      <c r="F90" s="49"/>
+      <c r="C90" s="48"/>
+      <c r="F90" s="48"/>
     </row>
     <row r="91">
-      <c r="C91" s="49"/>
-      <c r="F91" s="49"/>
+      <c r="C91" s="48"/>
+      <c r="F91" s="48"/>
     </row>
     <row r="92">
-      <c r="C92" s="49"/>
-      <c r="F92" s="49"/>
+      <c r="C92" s="48"/>
+      <c r="F92" s="48"/>
     </row>
     <row r="93">
-      <c r="C93" s="49"/>
-      <c r="F93" s="49"/>
+      <c r="C93" s="48"/>
+      <c r="F93" s="48"/>
     </row>
     <row r="94">
-      <c r="C94" s="49"/>
-      <c r="F94" s="49"/>
+      <c r="C94" s="48"/>
+      <c r="F94" s="48"/>
     </row>
     <row r="95">
-      <c r="C95" s="49"/>
-      <c r="F95" s="49"/>
+      <c r="C95" s="48"/>
+      <c r="F95" s="48"/>
     </row>
     <row r="96">
-      <c r="C96" s="49"/>
-      <c r="F96" s="49"/>
+      <c r="C96" s="48"/>
+      <c r="F96" s="48"/>
     </row>
     <row r="97">
-      <c r="C97" s="49"/>
-      <c r="F97" s="49"/>
+      <c r="C97" s="48"/>
+      <c r="F97" s="48"/>
     </row>
     <row r="98">
-      <c r="C98" s="49"/>
-      <c r="F98" s="49"/>
+      <c r="C98" s="48"/>
+      <c r="F98" s="48"/>
     </row>
     <row r="99">
-      <c r="C99" s="49"/>
-      <c r="F99" s="49"/>
+      <c r="C99" s="48"/>
+      <c r="F99" s="48"/>
     </row>
     <row r="100">
-      <c r="C100" s="49"/>
-      <c r="F100" s="49"/>
+      <c r="C100" s="48"/>
+      <c r="F100" s="48"/>
     </row>
     <row r="101">
-      <c r="C101" s="49"/>
-      <c r="F101" s="49"/>
+      <c r="C101" s="48"/>
+      <c r="F101" s="48"/>
     </row>
     <row r="102">
-      <c r="C102" s="49"/>
-      <c r="F102" s="49"/>
+      <c r="C102" s="48"/>
+      <c r="F102" s="48"/>
     </row>
     <row r="103">
-      <c r="C103" s="49"/>
-      <c r="F103" s="49"/>
+      <c r="C103" s="48"/>
+      <c r="F103" s="48"/>
     </row>
     <row r="104">
-      <c r="C104" s="49"/>
-      <c r="F104" s="49"/>
+      <c r="C104" s="48"/>
+      <c r="F104" s="48"/>
     </row>
     <row r="105">
-      <c r="C105" s="49"/>
-      <c r="F105" s="49"/>
+      <c r="C105" s="48"/>
+      <c r="F105" s="48"/>
     </row>
     <row r="106">
-      <c r="C106" s="49"/>
-      <c r="F106" s="49"/>
+      <c r="C106" s="48"/>
+      <c r="F106" s="48"/>
     </row>
     <row r="107">
-      <c r="C107" s="49"/>
-      <c r="F107" s="49"/>
+      <c r="C107" s="48"/>
+      <c r="F107" s="48"/>
     </row>
     <row r="108">
-      <c r="C108" s="49"/>
-      <c r="F108" s="49"/>
+      <c r="C108" s="48"/>
+      <c r="F108" s="48"/>
     </row>
     <row r="109">
-      <c r="C109" s="49"/>
-      <c r="F109" s="49"/>
+      <c r="C109" s="48"/>
+      <c r="F109" s="48"/>
     </row>
     <row r="110">
-      <c r="C110" s="49"/>
-      <c r="F110" s="49"/>
+      <c r="C110" s="48"/>
+      <c r="F110" s="48"/>
     </row>
     <row r="111">
-      <c r="C111" s="49"/>
-      <c r="F111" s="49"/>
+      <c r="C111" s="48"/>
+      <c r="F111" s="48"/>
     </row>
     <row r="112">
-      <c r="C112" s="49"/>
-      <c r="F112" s="49"/>
+      <c r="C112" s="48"/>
+      <c r="F112" s="48"/>
     </row>
     <row r="113">
-      <c r="C113" s="49"/>
-      <c r="F113" s="49"/>
+      <c r="C113" s="48"/>
+      <c r="F113" s="48"/>
     </row>
     <row r="114">
-      <c r="C114" s="49"/>
-      <c r="F114" s="49"/>
+      <c r="C114" s="48"/>
+      <c r="F114" s="48"/>
     </row>
     <row r="115">
-      <c r="C115" s="49"/>
-      <c r="F115" s="49"/>
+      <c r="C115" s="48"/>
+      <c r="F115" s="48"/>
     </row>
     <row r="116">
-      <c r="C116" s="49"/>
-      <c r="F116" s="49"/>
+      <c r="C116" s="48"/>
+      <c r="F116" s="48"/>
     </row>
     <row r="117">
-      <c r="C117" s="49"/>
-      <c r="F117" s="49"/>
+      <c r="C117" s="48"/>
+      <c r="F117" s="48"/>
     </row>
     <row r="118">
-      <c r="C118" s="49"/>
-      <c r="F118" s="49"/>
+      <c r="C118" s="48"/>
+      <c r="F118" s="48"/>
     </row>
     <row r="119">
-      <c r="C119" s="49"/>
-      <c r="F119" s="49"/>
+      <c r="C119" s="48"/>
+      <c r="F119" s="48"/>
     </row>
     <row r="120">
-      <c r="C120" s="49"/>
-      <c r="F120" s="49"/>
+      <c r="C120" s="48"/>
+      <c r="F120" s="48"/>
     </row>
     <row r="121">
-      <c r="C121" s="49"/>
-      <c r="F121" s="49"/>
+      <c r="C121" s="48"/>
+      <c r="F121" s="48"/>
     </row>
     <row r="122">
-      <c r="C122" s="49"/>
-      <c r="F122" s="49"/>
+      <c r="C122" s="48"/>
+      <c r="F122" s="48"/>
     </row>
     <row r="123">
-      <c r="C123" s="49"/>
-      <c r="F123" s="49"/>
+      <c r="C123" s="48"/>
+      <c r="F123" s="48"/>
     </row>
     <row r="124">
-      <c r="C124" s="49"/>
-      <c r="F124" s="49"/>
+      <c r="C124" s="48"/>
+      <c r="F124" s="48"/>
     </row>
     <row r="125">
-      <c r="C125" s="49"/>
-      <c r="F125" s="49"/>
+      <c r="C125" s="48"/>
+      <c r="F125" s="48"/>
     </row>
     <row r="126">
-      <c r="C126" s="49"/>
-      <c r="F126" s="49"/>
+      <c r="C126" s="48"/>
+      <c r="F126" s="48"/>
     </row>
     <row r="127">
-      <c r="C127" s="49"/>
-      <c r="F127" s="49"/>
+      <c r="C127" s="48"/>
+      <c r="F127" s="48"/>
     </row>
     <row r="128">
-      <c r="C128" s="49"/>
-      <c r="F128" s="49"/>
+      <c r="C128" s="48"/>
+      <c r="F128" s="48"/>
     </row>
     <row r="129">
-      <c r="C129" s="49"/>
-      <c r="F129" s="49"/>
+      <c r="C129" s="48"/>
+      <c r="F129" s="48"/>
     </row>
     <row r="130">
-      <c r="C130" s="49"/>
-      <c r="F130" s="49"/>
+      <c r="C130" s="48"/>
+      <c r="F130" s="48"/>
     </row>
     <row r="131">
-      <c r="C131" s="49"/>
-      <c r="F131" s="49"/>
+      <c r="C131" s="48"/>
+      <c r="F131" s="48"/>
     </row>
     <row r="132">
-      <c r="C132" s="49"/>
-      <c r="F132" s="49"/>
+      <c r="C132" s="48"/>
+      <c r="F132" s="48"/>
     </row>
     <row r="133">
-      <c r="C133" s="49"/>
-      <c r="F133" s="49"/>
+      <c r="C133" s="48"/>
+      <c r="F133" s="48"/>
     </row>
     <row r="134">
-      <c r="C134" s="49"/>
-      <c r="F134" s="49"/>
+      <c r="C134" s="48"/>
+      <c r="F134" s="48"/>
     </row>
     <row r="135">
-      <c r="C135" s="49"/>
-      <c r="F135" s="49"/>
+      <c r="C135" s="48"/>
+      <c r="F135" s="48"/>
     </row>
     <row r="136">
-      <c r="C136" s="49"/>
-      <c r="F136" s="49"/>
+      <c r="C136" s="48"/>
+      <c r="F136" s="48"/>
     </row>
     <row r="137">
-      <c r="C137" s="49"/>
-      <c r="F137" s="49"/>
+      <c r="C137" s="48"/>
+      <c r="F137" s="48"/>
     </row>
     <row r="138">
-      <c r="C138" s="49"/>
-      <c r="F138" s="49"/>
+      <c r="C138" s="48"/>
+      <c r="F138" s="48"/>
     </row>
     <row r="139">
-      <c r="C139" s="49"/>
-      <c r="F139" s="49"/>
+      <c r="C139" s="48"/>
+      <c r="F139" s="48"/>
     </row>
     <row r="140">
-      <c r="C140" s="49"/>
-      <c r="F140" s="49"/>
+      <c r="C140" s="48"/>
+      <c r="F140" s="48"/>
     </row>
     <row r="141">
-      <c r="C141" s="49"/>
-      <c r="F141" s="49"/>
+      <c r="C141" s="48"/>
+      <c r="F141" s="48"/>
     </row>
     <row r="142">
-      <c r="C142" s="49"/>
-      <c r="F142" s="49"/>
+      <c r="C142" s="48"/>
+      <c r="F142" s="48"/>
     </row>
     <row r="143">
-      <c r="C143" s="49"/>
-      <c r="F143" s="49"/>
+      <c r="C143" s="48"/>
+      <c r="F143" s="48"/>
     </row>
     <row r="144">
-      <c r="C144" s="49"/>
-      <c r="F144" s="49"/>
+      <c r="C144" s="48"/>
+      <c r="F144" s="48"/>
     </row>
     <row r="145">
-      <c r="C145" s="49"/>
-      <c r="F145" s="49"/>
+      <c r="C145" s="48"/>
+      <c r="F145" s="48"/>
     </row>
     <row r="146">
-      <c r="C146" s="49"/>
-      <c r="F146" s="49"/>
+      <c r="C146" s="48"/>
+      <c r="F146" s="48"/>
     </row>
     <row r="147">
-      <c r="C147" s="49"/>
-      <c r="F147" s="49"/>
+      <c r="C147" s="48"/>
+      <c r="F147" s="48"/>
     </row>
     <row r="148">
-      <c r="C148" s="49"/>
-      <c r="F148" s="49"/>
+      <c r="C148" s="48"/>
+      <c r="F148" s="48"/>
     </row>
     <row r="149">
-      <c r="C149" s="49"/>
-      <c r="F149" s="49"/>
+      <c r="C149" s="48"/>
+      <c r="F149" s="48"/>
     </row>
     <row r="150">
-      <c r="C150" s="49"/>
-      <c r="F150" s="49"/>
+      <c r="C150" s="48"/>
+      <c r="F150" s="48"/>
     </row>
     <row r="151">
-      <c r="C151" s="49"/>
-      <c r="F151" s="49"/>
+      <c r="C151" s="48"/>
+      <c r="F151" s="48"/>
     </row>
     <row r="152">
-      <c r="C152" s="49"/>
-      <c r="F152" s="49"/>
+      <c r="C152" s="48"/>
+      <c r="F152" s="48"/>
     </row>
     <row r="153">
-      <c r="C153" s="49"/>
-      <c r="F153" s="49"/>
+      <c r="C153" s="48"/>
+      <c r="F153" s="48"/>
     </row>
     <row r="154">
-      <c r="C154" s="49"/>
-      <c r="F154" s="49"/>
+      <c r="C154" s="48"/>
+      <c r="F154" s="48"/>
     </row>
     <row r="155">
-      <c r="C155" s="49"/>
-      <c r="F155" s="49"/>
+      <c r="C155" s="48"/>
+      <c r="F155" s="48"/>
     </row>
     <row r="156">
-      <c r="C156" s="49"/>
-      <c r="F156" s="49"/>
+      <c r="C156" s="48"/>
+      <c r="F156" s="48"/>
     </row>
     <row r="157">
-      <c r="C157" s="49"/>
-      <c r="F157" s="49"/>
+      <c r="C157" s="48"/>
+      <c r="F157" s="48"/>
     </row>
     <row r="158">
-      <c r="C158" s="49"/>
-      <c r="F158" s="49"/>
+      <c r="C158" s="48"/>
+      <c r="F158" s="48"/>
     </row>
     <row r="159">
-      <c r="C159" s="49"/>
-      <c r="F159" s="49"/>
+      <c r="C159" s="48"/>
+      <c r="F159" s="48"/>
     </row>
     <row r="160">
-      <c r="C160" s="49"/>
-      <c r="F160" s="49"/>
+      <c r="C160" s="48"/>
+      <c r="F160" s="48"/>
     </row>
     <row r="161">
-      <c r="C161" s="49"/>
-      <c r="F161" s="49"/>
+      <c r="C161" s="48"/>
+      <c r="F161" s="48"/>
     </row>
     <row r="162">
-      <c r="C162" s="49"/>
-      <c r="F162" s="49"/>
+      <c r="C162" s="48"/>
+      <c r="F162" s="48"/>
     </row>
     <row r="163">
-      <c r="C163" s="49"/>
-      <c r="F163" s="49"/>
+      <c r="C163" s="48"/>
+      <c r="F163" s="48"/>
     </row>
     <row r="164">
-      <c r="C164" s="49"/>
-      <c r="F164" s="49"/>
+      <c r="C164" s="48"/>
+      <c r="F164" s="48"/>
     </row>
     <row r="165">
-      <c r="C165" s="49"/>
-      <c r="F165" s="49"/>
+      <c r="C165" s="48"/>
+      <c r="F165" s="48"/>
     </row>
     <row r="166">
-      <c r="C166" s="49"/>
-      <c r="F166" s="49"/>
+      <c r="C166" s="48"/>
+      <c r="F166" s="48"/>
     </row>
     <row r="167">
-      <c r="C167" s="49"/>
-      <c r="F167" s="49"/>
+      <c r="C167" s="48"/>
+      <c r="F167" s="48"/>
     </row>
     <row r="168">
-      <c r="C168" s="49"/>
-      <c r="F168" s="49"/>
+      <c r="C168" s="48"/>
+      <c r="F168" s="48"/>
     </row>
     <row r="169">
-      <c r="C169" s="49"/>
-      <c r="F169" s="49"/>
+      <c r="C169" s="48"/>
+      <c r="F169" s="48"/>
     </row>
     <row r="170">
-      <c r="C170" s="49"/>
-      <c r="F170" s="49"/>
+      <c r="C170" s="48"/>
+      <c r="F170" s="48"/>
     </row>
     <row r="171">
-      <c r="C171" s="49"/>
-      <c r="F171" s="49"/>
+      <c r="C171" s="48"/>
+      <c r="F171" s="48"/>
     </row>
     <row r="172">
-      <c r="C172" s="49"/>
-      <c r="F172" s="49"/>
+      <c r="C172" s="48"/>
+      <c r="F172" s="48"/>
     </row>
     <row r="173">
-      <c r="C173" s="49"/>
-      <c r="F173" s="49"/>
+      <c r="C173" s="48"/>
+      <c r="F173" s="48"/>
     </row>
     <row r="174">
-      <c r="C174" s="49"/>
-      <c r="F174" s="49"/>
+      <c r="C174" s="48"/>
+      <c r="F174" s="48"/>
     </row>
     <row r="175">
-      <c r="C175" s="49"/>
-      <c r="F175" s="49"/>
+      <c r="C175" s="48"/>
+      <c r="F175" s="48"/>
     </row>
     <row r="176">
-      <c r="C176" s="49"/>
-      <c r="F176" s="49"/>
+      <c r="C176" s="48"/>
+      <c r="F176" s="48"/>
     </row>
     <row r="177">
-      <c r="C177" s="49"/>
-      <c r="F177" s="49"/>
+      <c r="C177" s="48"/>
+      <c r="F177" s="48"/>
     </row>
     <row r="178">
-      <c r="C178" s="49"/>
-      <c r="F178" s="49"/>
+      <c r="C178" s="48"/>
+      <c r="F178" s="48"/>
     </row>
     <row r="179">
-      <c r="C179" s="49"/>
-      <c r="F179" s="49"/>
+      <c r="C179" s="48"/>
+      <c r="F179" s="48"/>
     </row>
     <row r="180">
-      <c r="C180" s="49"/>
-      <c r="F180" s="49"/>
+      <c r="C180" s="48"/>
+      <c r="F180" s="48"/>
     </row>
     <row r="181">
-      <c r="C181" s="49"/>
-      <c r="F181" s="49"/>
+      <c r="C181" s="48"/>
+      <c r="F181" s="48"/>
     </row>
     <row r="182">
-      <c r="C182" s="49"/>
-      <c r="F182" s="49"/>
+      <c r="C182" s="48"/>
+      <c r="F182" s="48"/>
     </row>
     <row r="183">
-      <c r="C183" s="49"/>
-      <c r="F183" s="49"/>
+      <c r="C183" s="48"/>
+      <c r="F183" s="48"/>
     </row>
     <row r="184">
-      <c r="C184" s="49"/>
-      <c r="F184" s="49"/>
+      <c r="C184" s="48"/>
+      <c r="F184" s="48"/>
     </row>
     <row r="185">
-      <c r="C185" s="49"/>
-      <c r="F185" s="49"/>
+      <c r="C185" s="48"/>
+      <c r="F185" s="48"/>
     </row>
     <row r="186">
-      <c r="C186" s="49"/>
-      <c r="F186" s="49"/>
+      <c r="C186" s="48"/>
+      <c r="F186" s="48"/>
     </row>
     <row r="187">
-      <c r="C187" s="49"/>
-      <c r="F187" s="49"/>
+      <c r="C187" s="48"/>
+      <c r="F187" s="48"/>
     </row>
     <row r="188">
-      <c r="C188" s="49"/>
-      <c r="F188" s="49"/>
+      <c r="C188" s="48"/>
+      <c r="F188" s="48"/>
     </row>
     <row r="189">
-      <c r="C189" s="49"/>
-      <c r="F189" s="49"/>
+      <c r="C189" s="48"/>
+      <c r="F189" s="48"/>
     </row>
     <row r="190">
-      <c r="C190" s="49"/>
-      <c r="F190" s="49"/>
+      <c r="C190" s="48"/>
+      <c r="F190" s="48"/>
     </row>
     <row r="191">
-      <c r="C191" s="49"/>
-      <c r="F191" s="49"/>
+      <c r="C191" s="48"/>
+      <c r="F191" s="48"/>
     </row>
     <row r="192">
-      <c r="C192" s="49"/>
-      <c r="F192" s="49"/>
+      <c r="C192" s="48"/>
+      <c r="F192" s="48"/>
     </row>
     <row r="193">
-      <c r="C193" s="49"/>
-      <c r="F193" s="49"/>
+      <c r="C193" s="48"/>
+      <c r="F193" s="48"/>
     </row>
     <row r="194">
-      <c r="C194" s="49"/>
-      <c r="F194" s="49"/>
+      <c r="C194" s="48"/>
+      <c r="F194" s="48"/>
     </row>
     <row r="195">
-      <c r="C195" s="49"/>
-      <c r="F195" s="49"/>
+      <c r="C195" s="48"/>
+      <c r="F195" s="48"/>
     </row>
     <row r="196">
-      <c r="C196" s="49"/>
-      <c r="F196" s="49"/>
+      <c r="C196" s="48"/>
+      <c r="F196" s="48"/>
     </row>
     <row r="197">
-      <c r="C197" s="49"/>
-      <c r="F197" s="49"/>
+      <c r="C197" s="48"/>
+      <c r="F197" s="48"/>
     </row>
     <row r="198">
-      <c r="C198" s="49"/>
-      <c r="F198" s="49"/>
+      <c r="C198" s="48"/>
+      <c r="F198" s="48"/>
     </row>
     <row r="199">
-      <c r="C199" s="49"/>
-      <c r="F199" s="49"/>
+      <c r="C199" s="48"/>
+      <c r="F199" s="48"/>
     </row>
     <row r="200">
-      <c r="C200" s="49"/>
-      <c r="F200" s="49"/>
+      <c r="C200" s="48"/>
+      <c r="F200" s="48"/>
     </row>
     <row r="201">
-      <c r="C201" s="49"/>
-      <c r="F201" s="49"/>
+      <c r="C201" s="48"/>
+      <c r="F201" s="48"/>
     </row>
     <row r="202">
-      <c r="C202" s="49"/>
-      <c r="F202" s="49"/>
+      <c r="C202" s="48"/>
+      <c r="F202" s="48"/>
     </row>
     <row r="203">
-      <c r="C203" s="49"/>
-      <c r="F203" s="49"/>
+      <c r="C203" s="48"/>
+      <c r="F203" s="48"/>
     </row>
     <row r="204">
-      <c r="C204" s="49"/>
-      <c r="F204" s="49"/>
+      <c r="C204" s="48"/>
+      <c r="F204" s="48"/>
     </row>
     <row r="205">
-      <c r="C205" s="49"/>
-      <c r="F205" s="49"/>
+      <c r="C205" s="48"/>
+      <c r="F205" s="48"/>
     </row>
     <row r="206">
-      <c r="C206" s="49"/>
-      <c r="F206" s="49"/>
+      <c r="C206" s="48"/>
+      <c r="F206" s="48"/>
     </row>
     <row r="207">
-      <c r="C207" s="49"/>
-      <c r="F207" s="49"/>
+      <c r="C207" s="48"/>
+      <c r="F207" s="48"/>
     </row>
     <row r="208">
-      <c r="C208" s="49"/>
-      <c r="F208" s="49"/>
+      <c r="C208" s="48"/>
+      <c r="F208" s="48"/>
     </row>
     <row r="209">
-      <c r="C209" s="49"/>
-      <c r="F209" s="49"/>
+      <c r="C209" s="48"/>
+      <c r="F209" s="48"/>
     </row>
     <row r="210">
-      <c r="C210" s="49"/>
-      <c r="F210" s="49"/>
+      <c r="C210" s="48"/>
+      <c r="F210" s="48"/>
     </row>
     <row r="211">
-      <c r="C211" s="49"/>
-      <c r="F211" s="49"/>
+      <c r="C211" s="48"/>
+      <c r="F211" s="48"/>
     </row>
     <row r="212">
-      <c r="C212" s="49"/>
-      <c r="F212" s="49"/>
+      <c r="C212" s="48"/>
+      <c r="F212" s="48"/>
     </row>
     <row r="213">
-      <c r="C213" s="49"/>
-      <c r="F213" s="49"/>
+      <c r="C213" s="48"/>
+      <c r="F213" s="48"/>
     </row>
     <row r="214">
-      <c r="C214" s="49"/>
-      <c r="F214" s="49"/>
+      <c r="C214" s="48"/>
+      <c r="F214" s="48"/>
     </row>
     <row r="215">
-      <c r="C215" s="49"/>
-      <c r="F215" s="49"/>
+      <c r="C215" s="48"/>
+      <c r="F215" s="48"/>
     </row>
     <row r="216">
-      <c r="C216" s="49"/>
-      <c r="F216" s="49"/>
+      <c r="C216" s="48"/>
+      <c r="F216" s="48"/>
     </row>
     <row r="217">
-      <c r="C217" s="49"/>
-      <c r="F217" s="49"/>
+      <c r="C217" s="48"/>
+      <c r="F217" s="48"/>
     </row>
     <row r="218">
-      <c r="C218" s="49"/>
-      <c r="F218" s="49"/>
+      <c r="C218" s="48"/>
+      <c r="F218" s="48"/>
     </row>
     <row r="219">
-      <c r="C219" s="49"/>
-      <c r="F219" s="49"/>
+      <c r="C219" s="48"/>
+      <c r="F219" s="48"/>
     </row>
     <row r="220">
-      <c r="C220" s="49"/>
-      <c r="F220" s="49"/>
+      <c r="C220" s="48"/>
+      <c r="F220" s="48"/>
     </row>
     <row r="221">
-      <c r="C221" s="49"/>
-      <c r="F221" s="49"/>
+      <c r="C221" s="48"/>
+      <c r="F221" s="48"/>
     </row>
     <row r="222">
-      <c r="C222" s="49"/>
-      <c r="F222" s="49"/>
+      <c r="C222" s="48"/>
+      <c r="F222" s="48"/>
     </row>
     <row r="223">
-      <c r="C223" s="49"/>
-      <c r="F223" s="49"/>
+      <c r="C223" s="48"/>
+      <c r="F223" s="48"/>
     </row>
     <row r="224">
-      <c r="C224" s="49"/>
-      <c r="F224" s="49"/>
+      <c r="C224" s="48"/>
+      <c r="F224" s="48"/>
     </row>
     <row r="225">
-      <c r="C225" s="49"/>
-      <c r="F225" s="49"/>
+      <c r="C225" s="48"/>
+      <c r="F225" s="48"/>
     </row>
     <row r="226">
-      <c r="C226" s="49"/>
-      <c r="F226" s="49"/>
+      <c r="C226" s="48"/>
+      <c r="F226" s="48"/>
     </row>
     <row r="227">
-      <c r="C227" s="49"/>
-      <c r="F227" s="49"/>
+      <c r="C227" s="48"/>
+      <c r="F227" s="48"/>
     </row>
     <row r="228">
-      <c r="C228" s="49"/>
-      <c r="F228" s="49"/>
+      <c r="C228" s="48"/>
+      <c r="F228" s="48"/>
     </row>
     <row r="229">
-      <c r="C229" s="49"/>
-      <c r="F229" s="49"/>
+      <c r="C229" s="48"/>
+      <c r="F229" s="48"/>
     </row>
     <row r="230">
-      <c r="C230" s="49"/>
-      <c r="F230" s="49"/>
+      <c r="C230" s="48"/>
+      <c r="F230" s="48"/>
     </row>
     <row r="231">
-      <c r="C231" s="49"/>
-      <c r="F231" s="49"/>
+      <c r="C231" s="48"/>
+      <c r="F231" s="48"/>
     </row>
     <row r="232">
-      <c r="C232" s="49"/>
-      <c r="F232" s="49"/>
+      <c r="C232" s="48"/>
+      <c r="F232" s="48"/>
     </row>
     <row r="233">
-      <c r="C233" s="49"/>
-      <c r="F233" s="49"/>
+      <c r="C233" s="48"/>
+      <c r="F233" s="48"/>
     </row>
     <row r="234">
-      <c r="C234" s="49"/>
-      <c r="F234" s="49"/>
+      <c r="C234" s="48"/>
+      <c r="F234" s="48"/>
     </row>
     <row r="235">
-      <c r="C235" s="49"/>
-      <c r="F235" s="49"/>
+      <c r="C235" s="48"/>
+      <c r="F235" s="48"/>
     </row>
     <row r="236">
-      <c r="C236" s="49"/>
-      <c r="F236" s="49"/>
+      <c r="C236" s="48"/>
+      <c r="F236" s="48"/>
     </row>
     <row r="237">
-      <c r="C237" s="49"/>
-      <c r="F237" s="49"/>
+      <c r="C237" s="48"/>
+      <c r="F237" s="48"/>
     </row>
     <row r="238">
-      <c r="C238" s="49"/>
-      <c r="F238" s="49"/>
+      <c r="C238" s="48"/>
+      <c r="F238" s="48"/>
     </row>
     <row r="239">
-      <c r="C239" s="49"/>
-      <c r="F239" s="49"/>
+      <c r="C239" s="48"/>
+      <c r="F239" s="48"/>
     </row>
     <row r="240">
-      <c r="C240" s="49"/>
-      <c r="F240" s="49"/>
+      <c r="C240" s="48"/>
+      <c r="F240" s="48"/>
     </row>
     <row r="241">
-      <c r="C241" s="49"/>
-      <c r="F241" s="49"/>
+      <c r="C241" s="48"/>
+      <c r="F241" s="48"/>
     </row>
     <row r="242">
-      <c r="C242" s="49"/>
-      <c r="F242" s="49"/>
+      <c r="C242" s="48"/>
+      <c r="F242" s="48"/>
     </row>
     <row r="243">
-      <c r="C243" s="49"/>
-      <c r="F243" s="49"/>
+      <c r="C243" s="48"/>
+      <c r="F243" s="48"/>
     </row>
     <row r="244">
-      <c r="C244" s="49"/>
-      <c r="F244" s="49"/>
+      <c r="C244" s="48"/>
+      <c r="F244" s="48"/>
     </row>
     <row r="245">
-      <c r="C245" s="49"/>
-      <c r="F245" s="49"/>
+      <c r="C245" s="48"/>
+      <c r="F245" s="48"/>
     </row>
     <row r="246">
-      <c r="C246" s="49"/>
-      <c r="F246" s="49"/>
+      <c r="C246" s="48"/>
+      <c r="F246" s="48"/>
     </row>
     <row r="247">
-      <c r="C247" s="49"/>
-      <c r="F247" s="49"/>
+      <c r="C247" s="48"/>
+      <c r="F247" s="48"/>
     </row>
     <row r="248">
-      <c r="C248" s="49"/>
-      <c r="F248" s="49"/>
+      <c r="C248" s="48"/>
+      <c r="F248" s="48"/>
     </row>
     <row r="249">
-      <c r="C249" s="49"/>
-      <c r="F249" s="49"/>
+      <c r="C249" s="48"/>
+      <c r="F249" s="48"/>
     </row>
     <row r="250">
-      <c r="C250" s="49"/>
-      <c r="F250" s="49"/>
+      <c r="C250" s="48"/>
+      <c r="F250" s="48"/>
     </row>
     <row r="251">
-      <c r="C251" s="49"/>
-      <c r="F251" s="49"/>
+      <c r="C251" s="48"/>
+      <c r="F251" s="48"/>
     </row>
     <row r="252">
-      <c r="C252" s="49"/>
-      <c r="F252" s="49"/>
+      <c r="C252" s="48"/>
+      <c r="F252" s="48"/>
     </row>
     <row r="253">
-      <c r="C253" s="49"/>
-      <c r="F253" s="49"/>
+      <c r="C253" s="48"/>
+      <c r="F253" s="48"/>
     </row>
     <row r="254">
-      <c r="C254" s="49"/>
-      <c r="F254" s="49"/>
+      <c r="C254" s="48"/>
+      <c r="F254" s="48"/>
     </row>
     <row r="255">
-      <c r="C255" s="49"/>
-      <c r="F255" s="49"/>
+      <c r="C255" s="48"/>
+      <c r="F255" s="48"/>
     </row>
     <row r="256">
-      <c r="C256" s="49"/>
-      <c r="F256" s="49"/>
+      <c r="C256" s="48"/>
+      <c r="F256" s="48"/>
     </row>
     <row r="257">
-      <c r="C257" s="49"/>
-      <c r="F257" s="49"/>
+      <c r="C257" s="48"/>
+      <c r="F257" s="48"/>
     </row>
     <row r="258">
-      <c r="C258" s="49"/>
-      <c r="F258" s="49"/>
+      <c r="C258" s="48"/>
+      <c r="F258" s="48"/>
     </row>
     <row r="259">
-      <c r="C259" s="49"/>
-      <c r="F259" s="49"/>
+      <c r="C259" s="48"/>
+      <c r="F259" s="48"/>
     </row>
     <row r="260">
-      <c r="C260" s="49"/>
-      <c r="F260" s="49"/>
+      <c r="C260" s="48"/>
+      <c r="F260" s="48"/>
     </row>
     <row r="261">
-      <c r="C261" s="49"/>
-      <c r="F261" s="49"/>
+      <c r="C261" s="48"/>
+      <c r="F261" s="48"/>
     </row>
     <row r="262">
-      <c r="C262" s="49"/>
-      <c r="F262" s="49"/>
+      <c r="C262" s="48"/>
+      <c r="F262" s="48"/>
     </row>
     <row r="263">
-      <c r="C263" s="49"/>
-      <c r="F263" s="49"/>
+      <c r="C263" s="48"/>
+      <c r="F263" s="48"/>
     </row>
     <row r="264">
-      <c r="C264" s="49"/>
-      <c r="F264" s="49"/>
+      <c r="C264" s="48"/>
+      <c r="F264" s="48"/>
     </row>
     <row r="265">
-      <c r="C265" s="49"/>
-      <c r="F265" s="49"/>
+      <c r="C265" s="48"/>
+      <c r="F265" s="48"/>
     </row>
     <row r="266">
-      <c r="C266" s="49"/>
-      <c r="F266" s="49"/>
+      <c r="C266" s="48"/>
+      <c r="F266" s="48"/>
     </row>
     <row r="267">
-      <c r="C267" s="49"/>
-      <c r="F267" s="49"/>
+      <c r="C267" s="48"/>
+      <c r="F267" s="48"/>
     </row>
     <row r="268">
-      <c r="C268" s="49"/>
-      <c r="F268" s="49"/>
+      <c r="C268" s="48"/>
+      <c r="F268" s="48"/>
     </row>
     <row r="269">
-      <c r="C269" s="49"/>
-      <c r="F269" s="49"/>
+      <c r="C269" s="48"/>
+      <c r="F269" s="48"/>
     </row>
     <row r="270">
-      <c r="C270" s="49"/>
-      <c r="F270" s="49"/>
+      <c r="C270" s="48"/>
+      <c r="F270" s="48"/>
     </row>
     <row r="271">
-      <c r="C271" s="49"/>
-      <c r="F271" s="49"/>
+      <c r="C271" s="48"/>
+      <c r="F271" s="48"/>
     </row>
     <row r="272">
-      <c r="C272" s="49"/>
-      <c r="F272" s="49"/>
+      <c r="C272" s="48"/>
+      <c r="F272" s="48"/>
     </row>
     <row r="273">
-      <c r="C273" s="49"/>
-      <c r="F273" s="49"/>
+      <c r="C273" s="48"/>
+      <c r="F273" s="48"/>
     </row>
     <row r="274">
-      <c r="C274" s="49"/>
-      <c r="F274" s="49"/>
+      <c r="C274" s="48"/>
+      <c r="F274" s="48"/>
     </row>
     <row r="275">
-      <c r="C275" s="49"/>
-      <c r="F275" s="49"/>
+      <c r="C275" s="48"/>
+      <c r="F275" s="48"/>
     </row>
     <row r="276">
-      <c r="C276" s="49"/>
-      <c r="F276" s="49"/>
+      <c r="C276" s="48"/>
+      <c r="F276" s="48"/>
     </row>
     <row r="277">
-      <c r="C277" s="49"/>
-      <c r="F277" s="49"/>
+      <c r="C277" s="48"/>
+      <c r="F277" s="48"/>
     </row>
     <row r="278">
-      <c r="C278" s="49"/>
-      <c r="F278" s="49"/>
+      <c r="C278" s="48"/>
+      <c r="F278" s="48"/>
     </row>
     <row r="279">
-      <c r="C279" s="49"/>
-      <c r="F279" s="49"/>
+      <c r="C279" s="48"/>
+      <c r="F279" s="48"/>
     </row>
     <row r="280">
-      <c r="C280" s="49"/>
-      <c r="F280" s="49"/>
+      <c r="C280" s="48"/>
+      <c r="F280" s="48"/>
     </row>
     <row r="281">
-      <c r="C281" s="49"/>
-      <c r="F281" s="49"/>
+      <c r="C281" s="48"/>
+      <c r="F281" s="48"/>
     </row>
     <row r="282">
-      <c r="C282" s="49"/>
-      <c r="F282" s="49"/>
+      <c r="C282" s="48"/>
+      <c r="F282" s="48"/>
     </row>
     <row r="283">
-      <c r="C283" s="49"/>
-      <c r="F283" s="49"/>
+      <c r="C283" s="48"/>
+      <c r="F283" s="48"/>
     </row>
     <row r="284">
-      <c r="C284" s="49"/>
-      <c r="F284" s="49"/>
+      <c r="C284" s="48"/>
+      <c r="F284" s="48"/>
     </row>
     <row r="285">
-      <c r="C285" s="49"/>
-      <c r="F285" s="49"/>
+      <c r="C285" s="48"/>
+      <c r="F285" s="48"/>
     </row>
     <row r="286">
-      <c r="C286" s="49"/>
-      <c r="F286" s="49"/>
+      <c r="C286" s="48"/>
+      <c r="F286" s="48"/>
     </row>
     <row r="287">
-      <c r="C287" s="49"/>
-      <c r="F287" s="49"/>
+      <c r="C287" s="48"/>
+      <c r="F287" s="48"/>
     </row>
     <row r="288">
-      <c r="C288" s="49"/>
-      <c r="F288" s="49"/>
+      <c r="C288" s="48"/>
+      <c r="F288" s="48"/>
     </row>
     <row r="289">
-      <c r="C289" s="49"/>
-      <c r="F289" s="49"/>
+      <c r="C289" s="48"/>
+      <c r="F289" s="48"/>
     </row>
     <row r="290">
-      <c r="C290" s="49"/>
-      <c r="F290" s="49"/>
+      <c r="C290" s="48"/>
+      <c r="F290" s="48"/>
     </row>
     <row r="291">
-      <c r="C291" s="49"/>
-      <c r="F291" s="49"/>
+      <c r="C291" s="48"/>
+      <c r="F291" s="48"/>
     </row>
     <row r="292">
-      <c r="C292" s="49"/>
-      <c r="F292" s="49"/>
+      <c r="C292" s="48"/>
+      <c r="F292" s="48"/>
     </row>
     <row r="293">
-      <c r="C293" s="49"/>
-      <c r="F293" s="49"/>
+      <c r="C293" s="48"/>
+      <c r="F293" s="48"/>
     </row>
     <row r="294">
-      <c r="C294" s="49"/>
-      <c r="F294" s="49"/>
+      <c r="C294" s="48"/>
+      <c r="F294" s="48"/>
     </row>
     <row r="295">
-      <c r="C295" s="49"/>
-      <c r="F295" s="49"/>
+      <c r="C295" s="48"/>
+      <c r="F295" s="48"/>
     </row>
     <row r="296">
-      <c r="C296" s="49"/>
-      <c r="F296" s="49"/>
+      <c r="C296" s="48"/>
+      <c r="F296" s="48"/>
     </row>
     <row r="297">
-      <c r="C297" s="49"/>
-      <c r="F297" s="49"/>
+      <c r="C297" s="48"/>
+      <c r="F297" s="48"/>
     </row>
     <row r="298">
-      <c r="C298" s="49"/>
-      <c r="F298" s="49"/>
+      <c r="C298" s="48"/>
+      <c r="F298" s="48"/>
     </row>
     <row r="299">
-      <c r="C299" s="49"/>
-      <c r="F299" s="49"/>
+      <c r="C299" s="48"/>
+      <c r="F299" s="48"/>
     </row>
     <row r="300">
-      <c r="C300" s="49"/>
-      <c r="F300" s="49"/>
+      <c r="C300" s="48"/>
+      <c r="F300" s="48"/>
     </row>
     <row r="301">
-      <c r="C301" s="49"/>
-      <c r="F301" s="49"/>
+      <c r="C301" s="48"/>
+      <c r="F301" s="48"/>
     </row>
     <row r="302">
-      <c r="C302" s="49"/>
-      <c r="F302" s="49"/>
+      <c r="C302" s="48"/>
+      <c r="F302" s="48"/>
     </row>
     <row r="303">
-      <c r="C303" s="49"/>
-      <c r="F303" s="49"/>
+      <c r="C303" s="48"/>
+      <c r="F303" s="48"/>
     </row>
     <row r="304">
-      <c r="C304" s="49"/>
-      <c r="F304" s="49"/>
+      <c r="C304" s="48"/>
+      <c r="F304" s="48"/>
     </row>
     <row r="305">
-      <c r="C305" s="49"/>
-      <c r="F305" s="49"/>
+      <c r="C305" s="48"/>
+      <c r="F305" s="48"/>
     </row>
     <row r="306">
-      <c r="C306" s="49"/>
-      <c r="F306" s="49"/>
+      <c r="C306" s="48"/>
+      <c r="F306" s="48"/>
     </row>
     <row r="307">
-      <c r="C307" s="49"/>
-      <c r="F307" s="49"/>
+      <c r="C307" s="48"/>
+      <c r="F307" s="48"/>
     </row>
     <row r="308">
-      <c r="C308" s="49"/>
-      <c r="F308" s="49"/>
+      <c r="C308" s="48"/>
+      <c r="F308" s="48"/>
     </row>
     <row r="309">
-      <c r="C309" s="49"/>
-      <c r="F309" s="49"/>
+      <c r="C309" s="48"/>
+      <c r="F309" s="48"/>
     </row>
     <row r="310">
-      <c r="C310" s="49"/>
-      <c r="F310" s="49"/>
+      <c r="C310" s="48"/>
+      <c r="F310" s="48"/>
     </row>
     <row r="311">
-      <c r="C311" s="49"/>
-      <c r="F311" s="49"/>
+      <c r="C311" s="48"/>
+      <c r="F311" s="48"/>
     </row>
     <row r="312">
-      <c r="C312" s="49"/>
-      <c r="F312" s="49"/>
+      <c r="C312" s="48"/>
+      <c r="F312" s="48"/>
     </row>
     <row r="313">
-      <c r="C313" s="49"/>
-      <c r="F313" s="49"/>
+      <c r="C313" s="48"/>
+      <c r="F313" s="48"/>
     </row>
     <row r="314">
-      <c r="C314" s="49"/>
-      <c r="F314" s="49"/>
+      <c r="C314" s="48"/>
+      <c r="F314" s="48"/>
     </row>
     <row r="315">
-      <c r="C315" s="49"/>
-      <c r="F315" s="49"/>
+      <c r="C315" s="48"/>
+      <c r="F315" s="48"/>
     </row>
     <row r="316">
-      <c r="C316" s="49"/>
-      <c r="F316" s="49"/>
+      <c r="C316" s="48"/>
+      <c r="F316" s="48"/>
     </row>
     <row r="317">
-      <c r="C317" s="49"/>
-      <c r="F317" s="49"/>
+      <c r="C317" s="48"/>
+      <c r="F317" s="48"/>
     </row>
     <row r="318">
-      <c r="C318" s="49"/>
-      <c r="F318" s="49"/>
+      <c r="C318" s="48"/>
+      <c r="F318" s="48"/>
     </row>
     <row r="319">
-      <c r="C319" s="49"/>
-      <c r="F319" s="49"/>
+      <c r="C319" s="48"/>
+      <c r="F319" s="48"/>
     </row>
     <row r="320">
-      <c r="C320" s="49"/>
-      <c r="F320" s="49"/>
+      <c r="C320" s="48"/>
+      <c r="F320" s="48"/>
     </row>
     <row r="321">
-      <c r="C321" s="49"/>
-      <c r="F321" s="49"/>
+      <c r="C321" s="48"/>
+      <c r="F321" s="48"/>
     </row>
     <row r="322">
-      <c r="C322" s="49"/>
-      <c r="F322" s="49"/>
+      <c r="C322" s="48"/>
+      <c r="F322" s="48"/>
     </row>
     <row r="323">
-      <c r="C323" s="49"/>
-      <c r="F323" s="49"/>
+      <c r="C323" s="48"/>
+      <c r="F323" s="48"/>
     </row>
     <row r="324">
-      <c r="C324" s="49"/>
-      <c r="F324" s="49"/>
+      <c r="C324" s="48"/>
+      <c r="F324" s="48"/>
     </row>
     <row r="325">
-      <c r="C325" s="49"/>
-      <c r="F325" s="49"/>
+      <c r="C325" s="48"/>
+      <c r="F325" s="48"/>
     </row>
     <row r="326">
-      <c r="C326" s="49"/>
-      <c r="F326" s="49"/>
+      <c r="C326" s="48"/>
+      <c r="F326" s="48"/>
     </row>
     <row r="327">
-      <c r="C327" s="49"/>
-      <c r="F327" s="49"/>
+      <c r="C327" s="48"/>
+      <c r="F327" s="48"/>
     </row>
     <row r="328">
-      <c r="C328" s="49"/>
-      <c r="F328" s="49"/>
+      <c r="C328" s="48"/>
+      <c r="F328" s="48"/>
     </row>
     <row r="329">
-      <c r="C329" s="49"/>
-      <c r="F329" s="49"/>
+      <c r="C329" s="48"/>
+      <c r="F329" s="48"/>
     </row>
     <row r="330">
-      <c r="C330" s="49"/>
-      <c r="F330" s="49"/>
+      <c r="C330" s="48"/>
+      <c r="F330" s="48"/>
     </row>
     <row r="331">
-      <c r="C331" s="49"/>
-      <c r="F331" s="49"/>
+      <c r="C331" s="48"/>
+      <c r="F331" s="48"/>
     </row>
     <row r="332">
-      <c r="C332" s="49"/>
-      <c r="F332" s="49"/>
+      <c r="C332" s="48"/>
+      <c r="F332" s="48"/>
     </row>
     <row r="333">
-      <c r="C333" s="49"/>
-      <c r="F333" s="49"/>
+      <c r="C333" s="48"/>
+      <c r="F333" s="48"/>
     </row>
     <row r="334">
-      <c r="C334" s="49"/>
-      <c r="F334" s="49"/>
+      <c r="C334" s="48"/>
+      <c r="F334" s="48"/>
     </row>
     <row r="335">
-      <c r="C335" s="49"/>
-      <c r="F335" s="49"/>
+      <c r="C335" s="48"/>
+      <c r="F335" s="48"/>
     </row>
     <row r="336">
-      <c r="C336" s="49"/>
-      <c r="F336" s="49"/>
+      <c r="C336" s="48"/>
+      <c r="F336" s="48"/>
     </row>
     <row r="337">
-      <c r="C337" s="49"/>
-      <c r="F337" s="49"/>
+      <c r="C337" s="48"/>
+      <c r="F337" s="48"/>
     </row>
     <row r="338">
-      <c r="C338" s="49"/>
-      <c r="F338" s="49"/>
+      <c r="C338" s="48"/>
+      <c r="F338" s="48"/>
     </row>
     <row r="339">
-      <c r="C339" s="49"/>
-      <c r="F339" s="49"/>
+      <c r="C339" s="48"/>
+      <c r="F339" s="48"/>
     </row>
     <row r="340">
-      <c r="C340" s="49"/>
-      <c r="F340" s="49"/>
+      <c r="C340" s="48"/>
+      <c r="F340" s="48"/>
     </row>
     <row r="341">
-      <c r="C341" s="49"/>
-      <c r="F341" s="49"/>
+      <c r="C341" s="48"/>
+      <c r="F341" s="48"/>
     </row>
     <row r="342">
-      <c r="C342" s="49"/>
-      <c r="F342" s="49"/>
+      <c r="C342" s="48"/>
+      <c r="F342" s="48"/>
     </row>
     <row r="343">
-      <c r="C343" s="49"/>
-      <c r="F343" s="49"/>
+      <c r="C343" s="48"/>
+      <c r="F343" s="48"/>
     </row>
     <row r="344">
-      <c r="C344" s="49"/>
-      <c r="F344" s="49"/>
+      <c r="C344" s="48"/>
+      <c r="F344" s="48"/>
     </row>
     <row r="345">
-      <c r="C345" s="49"/>
-      <c r="F345" s="49"/>
+      <c r="C345" s="48"/>
+      <c r="F345" s="48"/>
     </row>
     <row r="346">
-      <c r="C346" s="49"/>
-      <c r="F346" s="49"/>
+      <c r="C346" s="48"/>
+      <c r="F346" s="48"/>
     </row>
     <row r="347">
-      <c r="C347" s="49"/>
-      <c r="F347" s="49"/>
+      <c r="C347" s="48"/>
+      <c r="F347" s="48"/>
     </row>
     <row r="348">
-      <c r="C348" s="49"/>
-      <c r="F348" s="49"/>
+      <c r="C348" s="48"/>
+      <c r="F348" s="48"/>
     </row>
     <row r="349">
-      <c r="C349" s="49"/>
-      <c r="F349" s="49"/>
+      <c r="C349" s="48"/>
+      <c r="F349" s="48"/>
     </row>
     <row r="350">
-      <c r="C350" s="49"/>
-      <c r="F350" s="49"/>
+      <c r="C350" s="48"/>
+      <c r="F350" s="48"/>
     </row>
     <row r="351">
-      <c r="C351" s="49"/>
-      <c r="F351" s="49"/>
+      <c r="C351" s="48"/>
+      <c r="F351" s="48"/>
     </row>
     <row r="352">
-      <c r="C352" s="49"/>
-      <c r="F352" s="49"/>
+      <c r="C352" s="48"/>
+      <c r="F352" s="48"/>
     </row>
     <row r="353">
-      <c r="C353" s="49"/>
-      <c r="F353" s="49"/>
+      <c r="C353" s="48"/>
+      <c r="F353" s="48"/>
     </row>
     <row r="354">
-      <c r="C354" s="49"/>
-      <c r="F354" s="49"/>
+      <c r="C354" s="48"/>
+      <c r="F354" s="48"/>
     </row>
     <row r="355">
-      <c r="C355" s="49"/>
-      <c r="F355" s="49"/>
+      <c r="C355" s="48"/>
+      <c r="F355" s="48"/>
     </row>
     <row r="356">
-      <c r="C356" s="49"/>
-      <c r="F356" s="49"/>
+      <c r="C356" s="48"/>
+      <c r="F356" s="48"/>
     </row>
     <row r="357">
-      <c r="C357" s="49"/>
-      <c r="F357" s="49"/>
+      <c r="C357" s="48"/>
+      <c r="F357" s="48"/>
     </row>
     <row r="358">
-      <c r="C358" s="49"/>
-      <c r="F358" s="49"/>
+      <c r="C358" s="48"/>
+      <c r="F358" s="48"/>
     </row>
     <row r="359">
-      <c r="C359" s="49"/>
-      <c r="F359" s="49"/>
+      <c r="C359" s="48"/>
+      <c r="F359" s="48"/>
     </row>
     <row r="360">
-      <c r="C360" s="49"/>
-      <c r="F360" s="49"/>
+      <c r="C360" s="48"/>
+      <c r="F360" s="48"/>
     </row>
     <row r="361">
-      <c r="C361" s="49"/>
-      <c r="F361" s="49"/>
+      <c r="C361" s="48"/>
+      <c r="F361" s="48"/>
     </row>
     <row r="362">
-      <c r="C362" s="49"/>
-      <c r="F362" s="49"/>
+      <c r="C362" s="48"/>
+      <c r="F362" s="48"/>
     </row>
     <row r="363">
-      <c r="C363" s="49"/>
-      <c r="F363" s="49"/>
+      <c r="C363" s="48"/>
+      <c r="F363" s="48"/>
     </row>
     <row r="364">
-      <c r="C364" s="49"/>
-      <c r="F364" s="49"/>
+      <c r="C364" s="48"/>
+      <c r="F364" s="48"/>
     </row>
     <row r="365">
-      <c r="C365" s="49"/>
-      <c r="F365" s="49"/>
+      <c r="C365" s="48"/>
+      <c r="F365" s="48"/>
     </row>
     <row r="366">
-      <c r="C366" s="49"/>
-      <c r="F366" s="49"/>
+      <c r="C366" s="48"/>
+      <c r="F366" s="48"/>
     </row>
     <row r="367">
-      <c r="C367" s="49"/>
-      <c r="F367" s="49"/>
+      <c r="C367" s="48"/>
+      <c r="F367" s="48"/>
     </row>
     <row r="368">
-      <c r="C368" s="49"/>
-      <c r="F368" s="49"/>
+      <c r="C368" s="48"/>
+      <c r="F368" s="48"/>
     </row>
     <row r="369">
-      <c r="C369" s="49"/>
-      <c r="F369" s="49"/>
+      <c r="C369" s="48"/>
+      <c r="F369" s="48"/>
     </row>
     <row r="370">
-      <c r="C370" s="49"/>
-      <c r="F370" s="49"/>
+      <c r="C370" s="48"/>
+      <c r="F370" s="48"/>
     </row>
     <row r="371">
-      <c r="C371" s="49"/>
-      <c r="F371" s="49"/>
+      <c r="C371" s="48"/>
+      <c r="F371" s="48"/>
     </row>
     <row r="372">
-      <c r="C372" s="49"/>
-      <c r="F372" s="49"/>
+      <c r="C372" s="48"/>
+      <c r="F372" s="48"/>
     </row>
     <row r="373">
-      <c r="C373" s="49"/>
-      <c r="F373" s="49"/>
+      <c r="C373" s="48"/>
+      <c r="F373" s="48"/>
     </row>
     <row r="374">
-      <c r="C374" s="49"/>
-      <c r="F374" s="49"/>
+      <c r="C374" s="48"/>
+      <c r="F374" s="48"/>
     </row>
     <row r="375">
-      <c r="C375" s="49"/>
-      <c r="F375" s="49"/>
+      <c r="C375" s="48"/>
+      <c r="F375" s="48"/>
     </row>
     <row r="376">
-      <c r="C376" s="49"/>
-      <c r="F376" s="49"/>
+      <c r="C376" s="48"/>
+      <c r="F376" s="48"/>
     </row>
     <row r="377">
-      <c r="C377" s="49"/>
-      <c r="F377" s="49"/>
+      <c r="C377" s="48"/>
+      <c r="F377" s="48"/>
     </row>
     <row r="378">
-      <c r="C378" s="49"/>
-      <c r="F378" s="49"/>
+      <c r="C378" s="48"/>
+      <c r="F378" s="48"/>
     </row>
     <row r="379">
-      <c r="C379" s="49"/>
-      <c r="F379" s="49"/>
+      <c r="C379" s="48"/>
+      <c r="F379" s="48"/>
     </row>
     <row r="380">
-      <c r="C380" s="49"/>
-      <c r="F380" s="49"/>
+      <c r="C380" s="48"/>
+      <c r="F380" s="48"/>
     </row>
     <row r="381">
-      <c r="C381" s="49"/>
-      <c r="F381" s="49"/>
+      <c r="C381" s="48"/>
+      <c r="F381" s="48"/>
     </row>
     <row r="382">
-      <c r="C382" s="49"/>
-      <c r="F382" s="49"/>
+      <c r="C382" s="48"/>
+      <c r="F382" s="48"/>
     </row>
     <row r="383">
-      <c r="C383" s="49"/>
-      <c r="F383" s="49"/>
+      <c r="C383" s="48"/>
+      <c r="F383" s="48"/>
     </row>
     <row r="384">
-      <c r="C384" s="49"/>
-      <c r="F384" s="49"/>
+      <c r="C384" s="48"/>
+      <c r="F384" s="48"/>
     </row>
     <row r="385">
-      <c r="C385" s="49"/>
-      <c r="F385" s="49"/>
+      <c r="C385" s="48"/>
+      <c r="F385" s="48"/>
     </row>
     <row r="386">
-      <c r="C386" s="49"/>
-      <c r="F386" s="49"/>
+      <c r="C386" s="48"/>
+      <c r="F386" s="48"/>
     </row>
     <row r="387">
-      <c r="C387" s="49"/>
-      <c r="F387" s="49"/>
+      <c r="C387" s="48"/>
+      <c r="F387" s="48"/>
     </row>
     <row r="388">
-      <c r="C388" s="49"/>
-      <c r="F388" s="49"/>
+      <c r="C388" s="48"/>
+      <c r="F388" s="48"/>
     </row>
     <row r="389">
-      <c r="C389" s="49"/>
-      <c r="F389" s="49"/>
+      <c r="C389" s="48"/>
+      <c r="F389" s="48"/>
     </row>
     <row r="390">
-      <c r="C390" s="49"/>
-      <c r="F390" s="49"/>
+      <c r="C390" s="48"/>
+      <c r="F390" s="48"/>
     </row>
     <row r="391">
-      <c r="C391" s="49"/>
-      <c r="F391" s="49"/>
+      <c r="C391" s="48"/>
+      <c r="F391" s="48"/>
     </row>
     <row r="392">
-      <c r="C392" s="49"/>
-      <c r="F392" s="49"/>
+      <c r="C392" s="48"/>
+      <c r="F392" s="48"/>
     </row>
     <row r="393">
-      <c r="C393" s="49"/>
-      <c r="F393" s="49"/>
+      <c r="C393" s="48"/>
+      <c r="F393" s="48"/>
     </row>
     <row r="394">
-      <c r="C394" s="49"/>
-      <c r="F394" s="49"/>
+      <c r="C394" s="48"/>
+      <c r="F394" s="48"/>
     </row>
     <row r="395">
-      <c r="C395" s="49"/>
-      <c r="F395" s="49"/>
+      <c r="C395" s="48"/>
+      <c r="F395" s="48"/>
     </row>
     <row r="396">
-      <c r="C396" s="49"/>
-      <c r="F396" s="49"/>
+      <c r="C396" s="48"/>
+      <c r="F396" s="48"/>
     </row>
     <row r="397">
-      <c r="C397" s="49"/>
-      <c r="F397" s="49"/>
+      <c r="C397" s="48"/>
+      <c r="F397" s="48"/>
     </row>
     <row r="398">
-      <c r="C398" s="49"/>
-      <c r="F398" s="49"/>
+      <c r="C398" s="48"/>
+      <c r="F398" s="48"/>
     </row>
     <row r="399">
-      <c r="C399" s="49"/>
-      <c r="F399" s="49"/>
+      <c r="C399" s="48"/>
+      <c r="F399" s="48"/>
     </row>
     <row r="400">
-      <c r="C400" s="49"/>
-      <c r="F400" s="49"/>
+      <c r="C400" s="48"/>
+      <c r="F400" s="48"/>
     </row>
     <row r="401">
-      <c r="C401" s="49"/>
-      <c r="F401" s="49"/>
+      <c r="C401" s="48"/>
+      <c r="F401" s="48"/>
     </row>
     <row r="402">
-      <c r="C402" s="49"/>
-      <c r="F402" s="49"/>
+      <c r="C402" s="48"/>
+      <c r="F402" s="48"/>
     </row>
     <row r="403">
-      <c r="C403" s="49"/>
-      <c r="F403" s="49"/>
+      <c r="C403" s="48"/>
+      <c r="F403" s="48"/>
     </row>
     <row r="404">
-      <c r="C404" s="49"/>
-      <c r="F404" s="49"/>
+      <c r="C404" s="48"/>
+      <c r="F404" s="48"/>
     </row>
     <row r="405">
-      <c r="C405" s="49"/>
-      <c r="F405" s="49"/>
+      <c r="C405" s="48"/>
+      <c r="F405" s="48"/>
     </row>
     <row r="406">
-      <c r="C406" s="49"/>
-      <c r="F406" s="49"/>
+      <c r="C406" s="48"/>
+      <c r="F406" s="48"/>
     </row>
     <row r="407">
-      <c r="C407" s="49"/>
-      <c r="F407" s="49"/>
+      <c r="C407" s="48"/>
+      <c r="F407" s="48"/>
     </row>
     <row r="408">
-      <c r="C408" s="49"/>
-      <c r="F408" s="49"/>
+      <c r="C408" s="48"/>
+      <c r="F408" s="48"/>
     </row>
     <row r="409">
-      <c r="C409" s="49"/>
-      <c r="F409" s="49"/>
+      <c r="C409" s="48"/>
+      <c r="F409" s="48"/>
     </row>
     <row r="410">
-      <c r="C410" s="49"/>
-      <c r="F410" s="49"/>
+      <c r="C410" s="48"/>
+      <c r="F410" s="48"/>
     </row>
     <row r="411">
-      <c r="C411" s="49"/>
-      <c r="F411" s="49"/>
+      <c r="C411" s="48"/>
+      <c r="F411" s="48"/>
     </row>
     <row r="412">
-      <c r="C412" s="49"/>
-      <c r="F412" s="49"/>
+      <c r="C412" s="48"/>
+      <c r="F412" s="48"/>
     </row>
     <row r="413">
-      <c r="C413" s="49"/>
-      <c r="F413" s="49"/>
+      <c r="C413" s="48"/>
+      <c r="F413" s="48"/>
     </row>
     <row r="414">
-      <c r="C414" s="49"/>
-      <c r="F414" s="49"/>
+      <c r="C414" s="48"/>
+      <c r="F414" s="48"/>
     </row>
     <row r="415">
-      <c r="C415" s="49"/>
-      <c r="F415" s="49"/>
+      <c r="C415" s="48"/>
+      <c r="F415" s="48"/>
     </row>
     <row r="416">
-      <c r="C416" s="49"/>
-      <c r="F416" s="49"/>
+      <c r="C416" s="48"/>
+      <c r="F416" s="48"/>
     </row>
     <row r="417">
-      <c r="C417" s="49"/>
-      <c r="F417" s="49"/>
+      <c r="C417" s="48"/>
+      <c r="F417" s="48"/>
     </row>
     <row r="418">
-      <c r="C418" s="49"/>
-      <c r="F418" s="49"/>
+      <c r="C418" s="48"/>
+      <c r="F418" s="48"/>
     </row>
     <row r="419">
-      <c r="C419" s="49"/>
-      <c r="F419" s="49"/>
+      <c r="C419" s="48"/>
+      <c r="F419" s="48"/>
     </row>
     <row r="420">
-      <c r="C420" s="49"/>
-      <c r="F420" s="49"/>
+      <c r="C420" s="48"/>
+      <c r="F420" s="48"/>
     </row>
     <row r="421">
-      <c r="C421" s="49"/>
-      <c r="F421" s="49"/>
+      <c r="C421" s="48"/>
+      <c r="F421" s="48"/>
     </row>
     <row r="422">
-      <c r="C422" s="49"/>
-      <c r="F422" s="49"/>
+      <c r="C422" s="48"/>
+      <c r="F422" s="48"/>
     </row>
     <row r="423">
-      <c r="C423" s="49"/>
-      <c r="F423" s="49"/>
+      <c r="C423" s="48"/>
+      <c r="F423" s="48"/>
     </row>
     <row r="424">
-      <c r="C424" s="49"/>
-      <c r="F424" s="49"/>
+      <c r="C424" s="48"/>
+      <c r="F424" s="48"/>
     </row>
     <row r="425">
-      <c r="C425" s="49"/>
-      <c r="F425" s="49"/>
+      <c r="C425" s="48"/>
+      <c r="F425" s="48"/>
     </row>
     <row r="426">
-      <c r="C426" s="49"/>
-      <c r="F426" s="49"/>
+      <c r="C426" s="48"/>
+      <c r="F426" s="48"/>
     </row>
     <row r="427">
-      <c r="C427" s="49"/>
-      <c r="F427" s="49"/>
+      <c r="C427" s="48"/>
+      <c r="F427" s="48"/>
     </row>
     <row r="428">
-      <c r="C428" s="49"/>
-      <c r="F428" s="49"/>
+      <c r="C428" s="48"/>
+      <c r="F428" s="48"/>
     </row>
     <row r="429">
-      <c r="C429" s="49"/>
-      <c r="F429" s="49"/>
+      <c r="C429" s="48"/>
+      <c r="F429" s="48"/>
     </row>
     <row r="430">
-      <c r="C430" s="49"/>
-      <c r="F430" s="49"/>
+      <c r="C430" s="48"/>
+      <c r="F430" s="48"/>
     </row>
     <row r="431">
-      <c r="C431" s="49"/>
-      <c r="F431" s="49"/>
+      <c r="C431" s="48"/>
+      <c r="F431" s="48"/>
     </row>
     <row r="432">
-      <c r="C432" s="49"/>
-      <c r="F432" s="49"/>
+      <c r="C432" s="48"/>
+      <c r="F432" s="48"/>
     </row>
     <row r="433">
-      <c r="C433" s="49"/>
-      <c r="F433" s="49"/>
+      <c r="C433" s="48"/>
+      <c r="F433" s="48"/>
     </row>
     <row r="434">
-      <c r="C434" s="49"/>
-      <c r="F434" s="49"/>
+      <c r="C434" s="48"/>
+      <c r="F434" s="48"/>
     </row>
     <row r="435">
-      <c r="C435" s="49"/>
-      <c r="F435" s="49"/>
+      <c r="C435" s="48"/>
+      <c r="F435" s="48"/>
     </row>
     <row r="436">
-      <c r="C436" s="49"/>
-      <c r="F436" s="49"/>
+      <c r="C436" s="48"/>
+      <c r="F436" s="48"/>
     </row>
     <row r="437">
-      <c r="C437" s="49"/>
-      <c r="F437" s="49"/>
+      <c r="C437" s="48"/>
+      <c r="F437" s="48"/>
     </row>
     <row r="438">
-      <c r="C438" s="49"/>
-      <c r="F438" s="49"/>
+      <c r="C438" s="48"/>
+      <c r="F438" s="48"/>
     </row>
     <row r="439">
-      <c r="C439" s="49"/>
-      <c r="F439" s="49"/>
+      <c r="C439" s="48"/>
+      <c r="F439" s="48"/>
     </row>
     <row r="440">
-      <c r="C440" s="49"/>
-      <c r="F440" s="49"/>
+      <c r="C440" s="48"/>
+      <c r="F440" s="48"/>
     </row>
     <row r="441">
-      <c r="C441" s="49"/>
-      <c r="F441" s="49"/>
+      <c r="C441" s="48"/>
+      <c r="F441" s="48"/>
     </row>
     <row r="442">
-      <c r="C442" s="49"/>
-      <c r="F442" s="49"/>
+      <c r="C442" s="48"/>
+      <c r="F442" s="48"/>
     </row>
     <row r="443">
-      <c r="C443" s="49"/>
-      <c r="F443" s="49"/>
+      <c r="C443" s="48"/>
+      <c r="F443" s="48"/>
     </row>
     <row r="444">
-      <c r="C444" s="49"/>
-      <c r="F444" s="49"/>
+      <c r="C444" s="48"/>
+      <c r="F444" s="48"/>
     </row>
     <row r="445">
-      <c r="C445" s="49"/>
-      <c r="F445" s="49"/>
+      <c r="C445" s="48"/>
+      <c r="F445" s="48"/>
     </row>
     <row r="446">
-      <c r="C446" s="49"/>
-      <c r="F446" s="49"/>
+      <c r="C446" s="48"/>
+      <c r="F446" s="48"/>
     </row>
     <row r="447">
-      <c r="C447" s="49"/>
-      <c r="F447" s="49"/>
+      <c r="C447" s="48"/>
+      <c r="F447" s="48"/>
     </row>
     <row r="448">
-      <c r="C448" s="49"/>
-      <c r="F448" s="49"/>
+      <c r="C448" s="48"/>
+      <c r="F448" s="48"/>
     </row>
     <row r="449">
-      <c r="C449" s="49"/>
-      <c r="F449" s="49"/>
+      <c r="C449" s="48"/>
+      <c r="F449" s="48"/>
     </row>
     <row r="450">
-      <c r="C450" s="49"/>
-      <c r="F450" s="49"/>
+      <c r="C450" s="48"/>
+      <c r="F450" s="48"/>
     </row>
     <row r="451">
-      <c r="C451" s="49"/>
-      <c r="F451" s="49"/>
+      <c r="C451" s="48"/>
+      <c r="F451" s="48"/>
     </row>
     <row r="452">
-      <c r="C452" s="49"/>
-      <c r="F452" s="49"/>
+      <c r="C452" s="48"/>
+      <c r="F452" s="48"/>
     </row>
     <row r="453">
-      <c r="C453" s="49"/>
-      <c r="F453" s="49"/>
+      <c r="C453" s="48"/>
+      <c r="F453" s="48"/>
     </row>
     <row r="454">
-      <c r="C454" s="49"/>
-      <c r="F454" s="49"/>
+      <c r="C454" s="48"/>
+      <c r="F454" s="48"/>
     </row>
     <row r="455">
-      <c r="C455" s="49"/>
-      <c r="F455" s="49"/>
+      <c r="C455" s="48"/>
+      <c r="F455" s="48"/>
     </row>
     <row r="456">
-      <c r="C456" s="49"/>
-      <c r="F456" s="49"/>
+      <c r="C456" s="48"/>
+      <c r="F456" s="48"/>
     </row>
     <row r="457">
-      <c r="C457" s="49"/>
-      <c r="F457" s="49"/>
+      <c r="C457" s="48"/>
+      <c r="F457" s="48"/>
     </row>
     <row r="458">
-      <c r="C458" s="49"/>
-      <c r="F458" s="49"/>
+      <c r="C458" s="48"/>
+      <c r="F458" s="48"/>
     </row>
     <row r="459">
-      <c r="C459" s="49"/>
-      <c r="F459" s="49"/>
+      <c r="C459" s="48"/>
+      <c r="F459" s="48"/>
     </row>
     <row r="460">
-      <c r="C460" s="49"/>
-      <c r="F460" s="49"/>
+      <c r="C460" s="48"/>
+      <c r="F460" s="48"/>
     </row>
     <row r="461">
-      <c r="C461" s="49"/>
-      <c r="F461" s="49"/>
+      <c r="C461" s="48"/>
+      <c r="F461" s="48"/>
     </row>
     <row r="462">
-      <c r="C462" s="49"/>
-      <c r="F462" s="49"/>
+      <c r="C462" s="48"/>
+      <c r="F462" s="48"/>
     </row>
     <row r="463">
-      <c r="C463" s="49"/>
-      <c r="F463" s="49"/>
+      <c r="C463" s="48"/>
+      <c r="F463" s="48"/>
     </row>
     <row r="464">
-      <c r="C464" s="49"/>
-      <c r="F464" s="49"/>
+      <c r="C464" s="48"/>
+      <c r="F464" s="48"/>
     </row>
     <row r="465">
-      <c r="C465" s="49"/>
-      <c r="F465" s="49"/>
+      <c r="C465" s="48"/>
+      <c r="F465" s="48"/>
     </row>
     <row r="466">
-      <c r="C466" s="49"/>
-      <c r="F466" s="49"/>
+      <c r="C466" s="48"/>
+      <c r="F466" s="48"/>
     </row>
     <row r="467">
-      <c r="C467" s="49"/>
-      <c r="F467" s="49"/>
+      <c r="C467" s="48"/>
+      <c r="F467" s="48"/>
     </row>
     <row r="468">
-      <c r="C468" s="49"/>
-      <c r="F468" s="49"/>
+      <c r="C468" s="48"/>
+      <c r="F468" s="48"/>
     </row>
     <row r="469">
-      <c r="C469" s="49"/>
-      <c r="F469" s="49"/>
+      <c r="C469" s="48"/>
+      <c r="F469" s="48"/>
     </row>
     <row r="470">
-      <c r="C470" s="49"/>
-      <c r="F470" s="49"/>
+      <c r="C470" s="48"/>
+      <c r="F470" s="48"/>
     </row>
     <row r="471">
-      <c r="C471" s="49"/>
-      <c r="F471" s="49"/>
+      <c r="C471" s="48"/>
+      <c r="F471" s="48"/>
     </row>
     <row r="472">
-      <c r="C472" s="49"/>
-      <c r="F472" s="49"/>
+      <c r="C472" s="48"/>
+      <c r="F472" s="48"/>
     </row>
     <row r="473">
-      <c r="C473" s="49"/>
-      <c r="F473" s="49"/>
+      <c r="C473" s="48"/>
+      <c r="F473" s="48"/>
     </row>
     <row r="474">
-      <c r="C474" s="49"/>
-      <c r="F474" s="49"/>
+      <c r="C474" s="48"/>
+      <c r="F474" s="48"/>
     </row>
     <row r="475">
-      <c r="C475" s="49"/>
-      <c r="F475" s="49"/>
+      <c r="C475" s="48"/>
+      <c r="F475" s="48"/>
     </row>
     <row r="476">
-      <c r="C476" s="49"/>
-      <c r="F476" s="49"/>
+      <c r="C476" s="48"/>
+      <c r="F476" s="48"/>
     </row>
     <row r="477">
-      <c r="C477" s="49"/>
-      <c r="F477" s="49"/>
+      <c r="C477" s="48"/>
+      <c r="F477" s="48"/>
     </row>
     <row r="478">
-      <c r="C478" s="49"/>
-      <c r="F478" s="49"/>
+      <c r="C478" s="48"/>
+      <c r="F478" s="48"/>
     </row>
     <row r="479">
-      <c r="C479" s="49"/>
-      <c r="F479" s="49"/>
+      <c r="C479" s="48"/>
+      <c r="F479" s="48"/>
     </row>
     <row r="480">
-      <c r="C480" s="49"/>
-      <c r="F480" s="49"/>
+      <c r="C480" s="48"/>
+      <c r="F480" s="48"/>
     </row>
     <row r="481">
-      <c r="C481" s="49"/>
-      <c r="F481" s="49"/>
+      <c r="C481" s="48"/>
+      <c r="F481" s="48"/>
     </row>
     <row r="482">
-      <c r="C482" s="49"/>
-      <c r="F482" s="49"/>
+      <c r="C482" s="48"/>
+      <c r="F482" s="48"/>
     </row>
     <row r="483">
-      <c r="C483" s="49"/>
-      <c r="F483" s="49"/>
+      <c r="C483" s="48"/>
+      <c r="F483" s="48"/>
     </row>
     <row r="484">
-      <c r="C484" s="49"/>
-      <c r="F484" s="49"/>
+      <c r="C484" s="48"/>
+      <c r="F484" s="48"/>
     </row>
     <row r="485">
-      <c r="C485" s="49"/>
-      <c r="F485" s="49"/>
+      <c r="C485" s="48"/>
+      <c r="F485" s="48"/>
     </row>
     <row r="486">
-      <c r="C486" s="49"/>
-      <c r="F486" s="49"/>
+      <c r="C486" s="48"/>
+      <c r="F486" s="48"/>
     </row>
     <row r="487">
-      <c r="C487" s="49"/>
-      <c r="F487" s="49"/>
+      <c r="C487" s="48"/>
+      <c r="F487" s="48"/>
     </row>
     <row r="488">
-      <c r="C488" s="49"/>
-      <c r="F488" s="49"/>
+      <c r="C488" s="48"/>
+      <c r="F488" s="48"/>
     </row>
     <row r="489">
-      <c r="C489" s="49"/>
-      <c r="F489" s="49"/>
+      <c r="C489" s="48"/>
+      <c r="F489" s="48"/>
     </row>
     <row r="490">
-      <c r="C490" s="49"/>
-      <c r="F490" s="49"/>
+      <c r="C490" s="48"/>
+      <c r="F490" s="48"/>
     </row>
     <row r="491">
-      <c r="C491" s="49"/>
-      <c r="F491" s="49"/>
+      <c r="C491" s="48"/>
+      <c r="F491" s="48"/>
     </row>
     <row r="492">
-      <c r="C492" s="49"/>
-      <c r="F492" s="49"/>
+      <c r="C492" s="48"/>
+      <c r="F492" s="48"/>
     </row>
     <row r="493">
-      <c r="C493" s="49"/>
-      <c r="F493" s="49"/>
+      <c r="C493" s="48"/>
+      <c r="F493" s="48"/>
     </row>
     <row r="494">
-      <c r="C494" s="49"/>
-      <c r="F494" s="49"/>
+      <c r="C494" s="48"/>
+      <c r="F494" s="48"/>
     </row>
     <row r="495">
-      <c r="C495" s="49"/>
-      <c r="F495" s="49"/>
+      <c r="C495" s="48"/>
+      <c r="F495" s="48"/>
     </row>
     <row r="496">
-      <c r="C496" s="49"/>
-      <c r="F496" s="49"/>
+      <c r="C496" s="48"/>
+      <c r="F496" s="48"/>
     </row>
     <row r="497">
-      <c r="C497" s="49"/>
-      <c r="F497" s="49"/>
+      <c r="C497" s="48"/>
+      <c r="F497" s="48"/>
     </row>
     <row r="498">
-      <c r="C498" s="49"/>
-      <c r="F498" s="49"/>
+      <c r="C498" s="48"/>
+      <c r="F498" s="48"/>
     </row>
     <row r="499">
-      <c r="C499" s="49"/>
-      <c r="F499" s="49"/>
+      <c r="C499" s="48"/>
+      <c r="F499" s="48"/>
     </row>
     <row r="500">
-      <c r="C500" s="49"/>
-      <c r="F500" s="49"/>
+      <c r="C500" s="48"/>
+      <c r="F500" s="48"/>
     </row>
     <row r="501">
-      <c r="C501" s="49"/>
-      <c r="F501" s="49"/>
+      <c r="C501" s="48"/>
+      <c r="F501" s="48"/>
     </row>
     <row r="502">
-      <c r="C502" s="49"/>
-      <c r="F502" s="49"/>
+      <c r="C502" s="48"/>
+      <c r="F502" s="48"/>
     </row>
     <row r="503">
-      <c r="C503" s="49"/>
-      <c r="F503" s="49"/>
+      <c r="C503" s="48"/>
+      <c r="F503" s="48"/>
     </row>
     <row r="504">
-      <c r="C504" s="49"/>
-      <c r="F504" s="49"/>
+      <c r="C504" s="48"/>
+      <c r="F504" s="48"/>
     </row>
     <row r="505">
-      <c r="C505" s="49"/>
-      <c r="F505" s="49"/>
+      <c r="C505" s="48"/>
+      <c r="F505" s="48"/>
     </row>
     <row r="506">
-      <c r="C506" s="49"/>
-      <c r="F506" s="49"/>
+      <c r="C506" s="48"/>
+      <c r="F506" s="48"/>
     </row>
     <row r="507">
-      <c r="C507" s="49"/>
-      <c r="F507" s="49"/>
+      <c r="C507" s="48"/>
+      <c r="F507" s="48"/>
     </row>
     <row r="508">
-      <c r="C508" s="49"/>
-      <c r="F508" s="49"/>
+      <c r="C508" s="48"/>
+      <c r="F508" s="48"/>
     </row>
     <row r="509">
-      <c r="C509" s="49"/>
-      <c r="F509" s="49"/>
+      <c r="C509" s="48"/>
+      <c r="F509" s="48"/>
     </row>
     <row r="510">
-      <c r="C510" s="49"/>
-      <c r="F510" s="49"/>
+      <c r="C510" s="48"/>
+      <c r="F510" s="48"/>
     </row>
     <row r="511">
-      <c r="C511" s="49"/>
-      <c r="F511" s="49"/>
+      <c r="C511" s="48"/>
+      <c r="F511" s="48"/>
     </row>
     <row r="512">
-      <c r="C512" s="49"/>
-      <c r="F512" s="49"/>
+      <c r="C512" s="48"/>
+      <c r="F512" s="48"/>
     </row>
     <row r="513">
-      <c r="C513" s="49"/>
-      <c r="F513" s="49"/>
+      <c r="C513" s="48"/>
+      <c r="F513" s="48"/>
     </row>
     <row r="514">
-      <c r="C514" s="49"/>
-      <c r="F514" s="49"/>
+      <c r="C514" s="48"/>
+      <c r="F514" s="48"/>
     </row>
     <row r="515">
-      <c r="C515" s="49"/>
-      <c r="F515" s="49"/>
+      <c r="C515" s="48"/>
+      <c r="F515" s="48"/>
     </row>
     <row r="516">
-      <c r="C516" s="49"/>
-      <c r="F516" s="49"/>
+      <c r="C516" s="48"/>
+      <c r="F516" s="48"/>
     </row>
     <row r="517">
-      <c r="C517" s="49"/>
-      <c r="F517" s="49"/>
+      <c r="C517" s="48"/>
+      <c r="F517" s="48"/>
     </row>
     <row r="518">
-      <c r="C518" s="49"/>
-      <c r="F518" s="49"/>
+      <c r="C518" s="48"/>
+      <c r="F518" s="48"/>
     </row>
     <row r="519">
-      <c r="C519" s="49"/>
-      <c r="F519" s="49"/>
+      <c r="C519" s="48"/>
+      <c r="F519" s="48"/>
     </row>
     <row r="520">
-      <c r="C520" s="49"/>
-      <c r="F520" s="49"/>
+      <c r="C520" s="48"/>
+      <c r="F520" s="48"/>
     </row>
     <row r="521">
-      <c r="C521" s="49"/>
-      <c r="F521" s="49"/>
+      <c r="C521" s="48"/>
+      <c r="F521" s="48"/>
     </row>
     <row r="522">
-      <c r="C522" s="49"/>
-      <c r="F522" s="49"/>
+      <c r="C522" s="48"/>
+      <c r="F522" s="48"/>
     </row>
     <row r="523">
-      <c r="C523" s="49"/>
-      <c r="F523" s="49"/>
+      <c r="C523" s="48"/>
+      <c r="F523" s="48"/>
     </row>
     <row r="524">
-      <c r="C524" s="49"/>
-      <c r="F524" s="49"/>
+      <c r="C524" s="48"/>
+      <c r="F524" s="48"/>
     </row>
     <row r="525">
-      <c r="C525" s="49"/>
-      <c r="F525" s="49"/>
+      <c r="C525" s="48"/>
+      <c r="F525" s="48"/>
     </row>
     <row r="526">
-      <c r="C526" s="49"/>
-      <c r="F526" s="49"/>
+      <c r="C526" s="48"/>
+      <c r="F526" s="48"/>
     </row>
     <row r="527">
-      <c r="C527" s="49"/>
-      <c r="F527" s="49"/>
+      <c r="C527" s="48"/>
+      <c r="F527" s="48"/>
     </row>
     <row r="528">
-      <c r="C528" s="49"/>
-      <c r="F528" s="49"/>
+      <c r="C528" s="48"/>
+      <c r="F528" s="48"/>
     </row>
     <row r="529">
-      <c r="C529" s="49"/>
-      <c r="F529" s="49"/>
+      <c r="C529" s="48"/>
+      <c r="F529" s="48"/>
     </row>
     <row r="530">
-      <c r="C530" s="49"/>
-      <c r="F530" s="49"/>
+      <c r="C530" s="48"/>
+      <c r="F530" s="48"/>
     </row>
     <row r="531">
-      <c r="C531" s="49"/>
-      <c r="F531" s="49"/>
+      <c r="C531" s="48"/>
+      <c r="F531" s="48"/>
     </row>
     <row r="532">
-      <c r="C532" s="49"/>
-      <c r="F532" s="49"/>
+      <c r="C532" s="48"/>
+      <c r="F532" s="48"/>
     </row>
     <row r="533">
-      <c r="C533" s="49"/>
-      <c r="F533" s="49"/>
+      <c r="C533" s="48"/>
+      <c r="F533" s="48"/>
     </row>
     <row r="534">
-      <c r="C534" s="49"/>
-      <c r="F534" s="49"/>
+      <c r="C534" s="48"/>
+      <c r="F534" s="48"/>
     </row>
     <row r="535">
-      <c r="C535" s="49"/>
-      <c r="F535" s="49"/>
+      <c r="C535" s="48"/>
+      <c r="F535" s="48"/>
     </row>
     <row r="536">
-      <c r="C536" s="49"/>
-      <c r="F536" s="49"/>
+      <c r="C536" s="48"/>
+      <c r="F536" s="48"/>
     </row>
     <row r="537">
-      <c r="C537" s="49"/>
-      <c r="F537" s="49"/>
+      <c r="C537" s="48"/>
+      <c r="F537" s="48"/>
     </row>
     <row r="538">
-      <c r="C538" s="49"/>
-      <c r="F538" s="49"/>
+      <c r="C538" s="48"/>
+      <c r="F538" s="48"/>
     </row>
     <row r="539">
-      <c r="C539" s="49"/>
-      <c r="F539" s="49"/>
+      <c r="C539" s="48"/>
+      <c r="F539" s="48"/>
     </row>
     <row r="540">
-      <c r="C540" s="49"/>
-      <c r="F540" s="49"/>
+      <c r="C540" s="48"/>
+      <c r="F540" s="48"/>
     </row>
     <row r="541">
-      <c r="C541" s="49"/>
-      <c r="F541" s="49"/>
+      <c r="C541" s="48"/>
+      <c r="F541" s="48"/>
     </row>
     <row r="542">
-      <c r="C542" s="49"/>
-      <c r="F542" s="49"/>
+      <c r="C542" s="48"/>
+      <c r="F542" s="48"/>
     </row>
     <row r="543">
-      <c r="C543" s="49"/>
-      <c r="F543" s="49"/>
+      <c r="C543" s="48"/>
+      <c r="F543" s="48"/>
     </row>
     <row r="544">
-      <c r="C544" s="49"/>
-      <c r="F544" s="49"/>
+      <c r="C544" s="48"/>
+      <c r="F544" s="48"/>
     </row>
     <row r="545">
-      <c r="C545" s="49"/>
-      <c r="F545" s="49"/>
+      <c r="C545" s="48"/>
+      <c r="F545" s="48"/>
     </row>
     <row r="546">
-      <c r="C546" s="49"/>
-      <c r="F546" s="49"/>
+      <c r="C546" s="48"/>
+      <c r="F546" s="48"/>
     </row>
     <row r="547">
-      <c r="C547" s="49"/>
-      <c r="F547" s="49"/>
+      <c r="C547" s="48"/>
+      <c r="F547" s="48"/>
     </row>
     <row r="548">
-      <c r="C548" s="49"/>
-      <c r="F548" s="49"/>
+      <c r="C548" s="48"/>
+      <c r="F548" s="48"/>
     </row>
     <row r="549">
-      <c r="C549" s="49"/>
-      <c r="F549" s="49"/>
+      <c r="C549" s="48"/>
+      <c r="F549" s="48"/>
     </row>
     <row r="550">
-      <c r="C550" s="49"/>
-      <c r="F550" s="49"/>
+      <c r="C550" s="48"/>
+      <c r="F550" s="48"/>
     </row>
     <row r="551">
-      <c r="C551" s="49"/>
-      <c r="F551" s="49"/>
+      <c r="C551" s="48"/>
+      <c r="F551" s="48"/>
     </row>
     <row r="552">
-      <c r="C552" s="49"/>
-      <c r="F552" s="49"/>
+      <c r="C552" s="48"/>
+      <c r="F552" s="48"/>
     </row>
     <row r="553">
-      <c r="C553" s="49"/>
-      <c r="F553" s="49"/>
+      <c r="C553" s="48"/>
+      <c r="F553" s="48"/>
     </row>
     <row r="554">
-      <c r="C554" s="49"/>
-      <c r="F554" s="49"/>
+      <c r="C554" s="48"/>
+      <c r="F554" s="48"/>
     </row>
     <row r="555">
-      <c r="C555" s="49"/>
-      <c r="F555" s="49"/>
+      <c r="C555" s="48"/>
+      <c r="F555" s="48"/>
     </row>
     <row r="556">
-      <c r="C556" s="49"/>
-      <c r="F556" s="49"/>
+      <c r="C556" s="48"/>
+      <c r="F556" s="48"/>
     </row>
     <row r="557">
-      <c r="C557" s="49"/>
-      <c r="F557" s="49"/>
+      <c r="C557" s="48"/>
+      <c r="F557" s="48"/>
     </row>
     <row r="558">
-      <c r="C558" s="49"/>
-      <c r="F558" s="49"/>
+      <c r="C558" s="48"/>
+      <c r="F558" s="48"/>
     </row>
     <row r="559">
-      <c r="C559" s="49"/>
-      <c r="F559" s="49"/>
+      <c r="C559" s="48"/>
+      <c r="F559" s="48"/>
     </row>
     <row r="560">
-      <c r="C560" s="49"/>
-      <c r="F560" s="49"/>
+      <c r="C560" s="48"/>
+      <c r="F560" s="48"/>
     </row>
     <row r="561">
-      <c r="C561" s="49"/>
-      <c r="F561" s="49"/>
+      <c r="C561" s="48"/>
+      <c r="F561" s="48"/>
     </row>
     <row r="562">
-      <c r="C562" s="49"/>
-      <c r="F562" s="49"/>
+      <c r="C562" s="48"/>
+      <c r="F562" s="48"/>
     </row>
     <row r="563">
-      <c r="C563" s="49"/>
-      <c r="F563" s="49"/>
+      <c r="C563" s="48"/>
+      <c r="F563" s="48"/>
     </row>
     <row r="564">
-      <c r="C564" s="49"/>
-      <c r="F564" s="49"/>
+      <c r="C564" s="48"/>
+      <c r="F564" s="48"/>
     </row>
     <row r="565">
-      <c r="C565" s="49"/>
-      <c r="F565" s="49"/>
+      <c r="C565" s="48"/>
+      <c r="F565" s="48"/>
     </row>
     <row r="566">
-      <c r="C566" s="49"/>
-      <c r="F566" s="49"/>
+      <c r="C566" s="48"/>
+      <c r="F566" s="48"/>
     </row>
     <row r="567">
-      <c r="C567" s="49"/>
-      <c r="F567" s="49"/>
+      <c r="C567" s="48"/>
+      <c r="F567" s="48"/>
     </row>
     <row r="568">
-      <c r="C568" s="49"/>
-      <c r="F568" s="49"/>
+      <c r="C568" s="48"/>
+      <c r="F568" s="48"/>
     </row>
     <row r="569">
-      <c r="C569" s="49"/>
-      <c r="F569" s="49"/>
+      <c r="C569" s="48"/>
+      <c r="F569" s="48"/>
     </row>
     <row r="570">
-      <c r="C570" s="49"/>
-      <c r="F570" s="49"/>
+      <c r="C570" s="48"/>
+      <c r="F570" s="48"/>
     </row>
     <row r="571">
-      <c r="C571" s="49"/>
-      <c r="F571" s="49"/>
+      <c r="C571" s="48"/>
+      <c r="F571" s="48"/>
     </row>
     <row r="572">
-      <c r="C572" s="49"/>
-      <c r="F572" s="49"/>
+      <c r="C572" s="48"/>
+      <c r="F572" s="48"/>
     </row>
     <row r="573">
-      <c r="C573" s="49"/>
-      <c r="F573" s="49"/>
+      <c r="C573" s="48"/>
+      <c r="F573" s="48"/>
     </row>
     <row r="574">
-      <c r="C574" s="49"/>
-      <c r="F574" s="49"/>
+      <c r="C574" s="48"/>
+      <c r="F574" s="48"/>
     </row>
     <row r="575">
-      <c r="C575" s="49"/>
-      <c r="F575" s="49"/>
+      <c r="C575" s="48"/>
+      <c r="F575" s="48"/>
     </row>
     <row r="576">
-      <c r="C576" s="49"/>
-      <c r="F576" s="49"/>
+      <c r="C576" s="48"/>
+      <c r="F576" s="48"/>
     </row>
     <row r="577">
-      <c r="C577" s="49"/>
-      <c r="F577" s="49"/>
+      <c r="C577" s="48"/>
+      <c r="F577" s="48"/>
     </row>
     <row r="578">
-      <c r="C578" s="49"/>
-      <c r="F578" s="49"/>
+      <c r="C578" s="48"/>
+      <c r="F578" s="48"/>
     </row>
     <row r="579">
-      <c r="C579" s="49"/>
-      <c r="F579" s="49"/>
+      <c r="C579" s="48"/>
+      <c r="F579" s="48"/>
     </row>
     <row r="580">
-      <c r="C580" s="49"/>
-      <c r="F580" s="49"/>
+      <c r="C580" s="48"/>
+      <c r="F580" s="48"/>
     </row>
     <row r="581">
-      <c r="C581" s="49"/>
-      <c r="F581" s="49"/>
+      <c r="C581" s="48"/>
+      <c r="F581" s="48"/>
     </row>
     <row r="582">
-      <c r="C582" s="49"/>
-      <c r="F582" s="49"/>
+      <c r="C582" s="48"/>
+      <c r="F582" s="48"/>
     </row>
     <row r="583">
-      <c r="C583" s="49"/>
-      <c r="F583" s="49"/>
+      <c r="C583" s="48"/>
+      <c r="F583" s="48"/>
     </row>
     <row r="584">
-      <c r="C584" s="49"/>
-      <c r="F584" s="49"/>
+      <c r="C584" s="48"/>
+      <c r="F584" s="48"/>
     </row>
     <row r="585">
-      <c r="C585" s="49"/>
-      <c r="F585" s="49"/>
+      <c r="C585" s="48"/>
+      <c r="F585" s="48"/>
     </row>
     <row r="586">
-      <c r="C586" s="49"/>
-      <c r="F586" s="49"/>
+      <c r="C586" s="48"/>
+      <c r="F586" s="48"/>
     </row>
     <row r="587">
-      <c r="C587" s="49"/>
-      <c r="F587" s="49"/>
+      <c r="C587" s="48"/>
+      <c r="F587" s="48"/>
     </row>
     <row r="588">
-      <c r="C588" s="49"/>
-      <c r="F588" s="49"/>
+      <c r="C588" s="48"/>
+      <c r="F588" s="48"/>
     </row>
     <row r="589">
-      <c r="C589" s="49"/>
-      <c r="F589" s="49"/>
+      <c r="C589" s="48"/>
+      <c r="F589" s="48"/>
     </row>
     <row r="590">
-      <c r="C590" s="49"/>
-      <c r="F590" s="49"/>
+      <c r="C590" s="48"/>
+      <c r="F590" s="48"/>
     </row>
     <row r="591">
-      <c r="C591" s="49"/>
-      <c r="F591" s="49"/>
+      <c r="C591" s="48"/>
+      <c r="F591" s="48"/>
     </row>
     <row r="592">
-      <c r="C592" s="49"/>
-      <c r="F592" s="49"/>
+      <c r="C592" s="48"/>
+      <c r="F592" s="48"/>
     </row>
     <row r="593">
-      <c r="C593" s="49"/>
-      <c r="F593" s="49"/>
+      <c r="C593" s="48"/>
+      <c r="F593" s="48"/>
     </row>
     <row r="594">
-      <c r="C594" s="49"/>
-      <c r="F594" s="49"/>
+      <c r="C594" s="48"/>
+      <c r="F594" s="48"/>
     </row>
     <row r="595">
-      <c r="C595" s="49"/>
-      <c r="F595" s="49"/>
+      <c r="C595" s="48"/>
+      <c r="F595" s="48"/>
     </row>
     <row r="596">
-      <c r="C596" s="49"/>
-      <c r="F596" s="49"/>
+      <c r="C596" s="48"/>
+      <c r="F596" s="48"/>
     </row>
     <row r="597">
-      <c r="C597" s="49"/>
-      <c r="F597" s="49"/>
+      <c r="C597" s="48"/>
+      <c r="F597" s="48"/>
     </row>
     <row r="598">
-      <c r="C598" s="49"/>
-      <c r="F598" s="49"/>
+      <c r="C598" s="48"/>
+      <c r="F598" s="48"/>
     </row>
     <row r="599">
-      <c r="C599" s="49"/>
-      <c r="F599" s="49"/>
+      <c r="C599" s="48"/>
+      <c r="F599" s="48"/>
     </row>
     <row r="600">
-      <c r="C600" s="49"/>
-      <c r="F600" s="49"/>
+      <c r="C600" s="48"/>
+      <c r="F600" s="48"/>
     </row>
     <row r="601">
-      <c r="C601" s="49"/>
-      <c r="F601" s="49"/>
+      <c r="C601" s="48"/>
+      <c r="F601" s="48"/>
     </row>
     <row r="602">
-      <c r="C602" s="49"/>
-      <c r="F602" s="49"/>
+      <c r="C602" s="48"/>
+      <c r="F602" s="48"/>
     </row>
     <row r="603">
-      <c r="C603" s="49"/>
-      <c r="F603" s="49"/>
+      <c r="C603" s="48"/>
+      <c r="F603" s="48"/>
     </row>
     <row r="604">
-      <c r="C604" s="49"/>
-      <c r="F604" s="49"/>
+      <c r="C604" s="48"/>
+      <c r="F604" s="48"/>
     </row>
     <row r="605">
-      <c r="C605" s="49"/>
-      <c r="F605" s="49"/>
+      <c r="C605" s="48"/>
+      <c r="F605" s="48"/>
     </row>
     <row r="606">
-      <c r="C606" s="49"/>
-      <c r="F606" s="49"/>
+      <c r="C606" s="48"/>
+      <c r="F606" s="48"/>
     </row>
     <row r="607">
-      <c r="C607" s="49"/>
-      <c r="F607" s="49"/>
+      <c r="C607" s="48"/>
+      <c r="F607" s="48"/>
     </row>
     <row r="608">
-      <c r="C608" s="49"/>
-      <c r="F608" s="49"/>
+      <c r="C608" s="48"/>
+      <c r="F608" s="48"/>
     </row>
     <row r="609">
-      <c r="C609" s="49"/>
-      <c r="F609" s="49"/>
+      <c r="C609" s="48"/>
+      <c r="F609" s="48"/>
     </row>
     <row r="610">
-      <c r="C610" s="49"/>
-      <c r="F610" s="49"/>
+      <c r="C610" s="48"/>
+      <c r="F610" s="48"/>
     </row>
     <row r="611">
-      <c r="C611" s="49"/>
-      <c r="F611" s="49"/>
+      <c r="C611" s="48"/>
+      <c r="F611" s="48"/>
     </row>
     <row r="612">
-      <c r="C612" s="49"/>
-      <c r="F612" s="49"/>
+      <c r="C612" s="48"/>
+      <c r="F612" s="48"/>
     </row>
     <row r="613">
-      <c r="C613" s="49"/>
-      <c r="F613" s="49"/>
+      <c r="C613" s="48"/>
+      <c r="F613" s="48"/>
     </row>
     <row r="614">
-      <c r="C614" s="49"/>
-      <c r="F614" s="49"/>
+      <c r="C614" s="48"/>
+      <c r="F614" s="48"/>
     </row>
     <row r="615">
-      <c r="C615" s="49"/>
-      <c r="F615" s="49"/>
+      <c r="C615" s="48"/>
+      <c r="F615" s="48"/>
     </row>
     <row r="616">
-      <c r="C616" s="49"/>
-      <c r="F616" s="49"/>
+      <c r="C616" s="48"/>
+      <c r="F616" s="48"/>
     </row>
     <row r="617">
-      <c r="C617" s="49"/>
-      <c r="F617" s="49"/>
+      <c r="C617" s="48"/>
+      <c r="F617" s="48"/>
     </row>
     <row r="618">
-      <c r="C618" s="49"/>
-      <c r="F618" s="49"/>
+      <c r="C618" s="48"/>
+      <c r="F618" s="48"/>
     </row>
     <row r="619">
-      <c r="C619" s="49"/>
-      <c r="F619" s="49"/>
+      <c r="C619" s="48"/>
+      <c r="F619" s="48"/>
     </row>
     <row r="620">
-      <c r="C620" s="49"/>
-      <c r="F620" s="49"/>
+      <c r="C620" s="48"/>
+      <c r="F620" s="48"/>
     </row>
     <row r="621">
-      <c r="C621" s="49"/>
-      <c r="F621" s="49"/>
+      <c r="C621" s="48"/>
+      <c r="F621" s="48"/>
     </row>
     <row r="622">
-      <c r="C622" s="49"/>
-      <c r="F622" s="49"/>
+      <c r="C622" s="48"/>
+      <c r="F622" s="48"/>
     </row>
     <row r="623">
-      <c r="C623" s="49"/>
-      <c r="F623" s="49"/>
+      <c r="C623" s="48"/>
+      <c r="F623" s="48"/>
     </row>
     <row r="624">
-      <c r="C624" s="49"/>
-      <c r="F624" s="49"/>
+      <c r="C624" s="48"/>
+      <c r="F624" s="48"/>
     </row>
     <row r="625">
-      <c r="C625" s="49"/>
-      <c r="F625" s="49"/>
+      <c r="C625" s="48"/>
+      <c r="F625" s="48"/>
     </row>
     <row r="626">
-      <c r="C626" s="49"/>
-      <c r="F626" s="49"/>
+      <c r="C626" s="48"/>
+      <c r="F626" s="48"/>
     </row>
     <row r="627">
-      <c r="C627" s="49"/>
-      <c r="F627" s="49"/>
+      <c r="C627" s="48"/>
+      <c r="F627" s="48"/>
     </row>
     <row r="628">
-      <c r="C628" s="49"/>
-      <c r="F628" s="49"/>
+      <c r="C628" s="48"/>
+      <c r="F628" s="48"/>
     </row>
     <row r="629">
-      <c r="C629" s="49"/>
-      <c r="F629" s="49"/>
+      <c r="C629" s="48"/>
+      <c r="F629" s="48"/>
     </row>
     <row r="630">
-      <c r="C630" s="49"/>
-      <c r="F630" s="49"/>
+      <c r="C630" s="48"/>
+      <c r="F630" s="48"/>
     </row>
     <row r="631">
-      <c r="C631" s="49"/>
-      <c r="F631" s="49"/>
+      <c r="C631" s="48"/>
+      <c r="F631" s="48"/>
     </row>
     <row r="632">
-      <c r="C632" s="49"/>
-      <c r="F632" s="49"/>
+      <c r="C632" s="48"/>
+      <c r="F632" s="48"/>
     </row>
     <row r="633">
-      <c r="C633" s="49"/>
-      <c r="F633" s="49"/>
+      <c r="C633" s="48"/>
+      <c r="F633" s="48"/>
     </row>
     <row r="634">
-      <c r="C634" s="49"/>
-      <c r="F634" s="49"/>
+      <c r="C634" s="48"/>
+      <c r="F634" s="48"/>
     </row>
     <row r="635">
-      <c r="C635" s="49"/>
-      <c r="F635" s="49"/>
+      <c r="C635" s="48"/>
+      <c r="F635" s="48"/>
     </row>
     <row r="636">
-      <c r="C636" s="49"/>
-      <c r="F636" s="49"/>
+      <c r="C636" s="48"/>
+      <c r="F636" s="48"/>
     </row>
     <row r="637">
-      <c r="C637" s="49"/>
-      <c r="F637" s="49"/>
+      <c r="C637" s="48"/>
+      <c r="F637" s="48"/>
     </row>
     <row r="638">
-      <c r="C638" s="49"/>
-      <c r="F638" s="49"/>
+      <c r="C638" s="48"/>
+      <c r="F638" s="48"/>
     </row>
     <row r="639">
-      <c r="C639" s="49"/>
-      <c r="F639" s="49"/>
+      <c r="C639" s="48"/>
+      <c r="F639" s="48"/>
     </row>
     <row r="640">
-      <c r="C640" s="49"/>
-      <c r="F640" s="49"/>
+      <c r="C640" s="48"/>
+      <c r="F640" s="48"/>
     </row>
     <row r="641">
-      <c r="C641" s="49"/>
-      <c r="F641" s="49"/>
+      <c r="C641" s="48"/>
+      <c r="F641" s="48"/>
     </row>
     <row r="642">
-      <c r="C642" s="49"/>
-      <c r="F642" s="49"/>
+      <c r="C642" s="48"/>
+      <c r="F642" s="48"/>
     </row>
     <row r="643">
-      <c r="C643" s="49"/>
-      <c r="F643" s="49"/>
+      <c r="C643" s="48"/>
+      <c r="F643" s="48"/>
     </row>
     <row r="644">
-      <c r="C644" s="49"/>
-      <c r="F644" s="49"/>
+      <c r="C644" s="48"/>
+      <c r="F644" s="48"/>
     </row>
     <row r="645">
-      <c r="C645" s="49"/>
-      <c r="F645" s="49"/>
+      <c r="C645" s="48"/>
+      <c r="F645" s="48"/>
     </row>
     <row r="646">
-      <c r="C646" s="49"/>
-      <c r="F646" s="49"/>
+      <c r="C646" s="48"/>
+      <c r="F646" s="48"/>
     </row>
     <row r="647">
-      <c r="C647" s="49"/>
-      <c r="F647" s="49"/>
+      <c r="C647" s="48"/>
+      <c r="F647" s="48"/>
     </row>
     <row r="648">
-      <c r="C648" s="49"/>
-      <c r="F648" s="49"/>
+      <c r="C648" s="48"/>
+      <c r="F648" s="48"/>
     </row>
     <row r="649">
-      <c r="C649" s="49"/>
-      <c r="F649" s="49"/>
+      <c r="C649" s="48"/>
+      <c r="F649" s="48"/>
     </row>
     <row r="650">
-      <c r="C650" s="49"/>
-      <c r="F650" s="49"/>
+      <c r="C650" s="48"/>
+      <c r="F650" s="48"/>
     </row>
     <row r="651">
-      <c r="C651" s="49"/>
-      <c r="F651" s="49"/>
+      <c r="C651" s="48"/>
+      <c r="F651" s="48"/>
     </row>
     <row r="652">
-      <c r="C652" s="49"/>
-      <c r="F652" s="49"/>
+      <c r="C652" s="48"/>
+      <c r="F652" s="48"/>
     </row>
     <row r="653">
-      <c r="C653" s="49"/>
-      <c r="F653" s="49"/>
+      <c r="C653" s="48"/>
+      <c r="F653" s="48"/>
     </row>
     <row r="654">
-      <c r="C654" s="49"/>
-      <c r="F654" s="49"/>
+      <c r="C654" s="48"/>
+      <c r="F654" s="48"/>
     </row>
     <row r="655">
-      <c r="C655" s="49"/>
-      <c r="F655" s="49"/>
+      <c r="C655" s="48"/>
+      <c r="F655" s="48"/>
     </row>
     <row r="656">
-      <c r="C656" s="49"/>
-      <c r="F656" s="49"/>
+      <c r="C656" s="48"/>
+      <c r="F656" s="48"/>
     </row>
     <row r="657">
-      <c r="C657" s="49"/>
-      <c r="F657" s="49"/>
+      <c r="C657" s="48"/>
+      <c r="F657" s="48"/>
     </row>
     <row r="658">
-      <c r="C658" s="49"/>
-      <c r="F658" s="49"/>
+      <c r="C658" s="48"/>
+      <c r="F658" s="48"/>
     </row>
     <row r="659">
-      <c r="C659" s="49"/>
-      <c r="F659" s="49"/>
+      <c r="C659" s="48"/>
+      <c r="F659" s="48"/>
     </row>
     <row r="660">
-      <c r="C660" s="49"/>
-      <c r="F660" s="49"/>
+      <c r="C660" s="48"/>
+      <c r="F660" s="48"/>
     </row>
     <row r="661">
-      <c r="C661" s="49"/>
-      <c r="F661" s="49"/>
+      <c r="C661" s="48"/>
+      <c r="F661" s="48"/>
     </row>
     <row r="662">
-      <c r="C662" s="49"/>
-      <c r="F662" s="49"/>
+      <c r="C662" s="48"/>
+      <c r="F662" s="48"/>
     </row>
     <row r="663">
-      <c r="C663" s="49"/>
-      <c r="F663" s="49"/>
+      <c r="C663" s="48"/>
+      <c r="F663" s="48"/>
     </row>
     <row r="664">
-      <c r="C664" s="49"/>
-      <c r="F664" s="49"/>
+      <c r="C664" s="48"/>
+      <c r="F664" s="48"/>
     </row>
     <row r="665">
-      <c r="C665" s="49"/>
-      <c r="F665" s="49"/>
+      <c r="C665" s="48"/>
+      <c r="F665" s="48"/>
     </row>
     <row r="666">
-      <c r="C666" s="49"/>
-      <c r="F666" s="49"/>
+      <c r="C666" s="48"/>
+      <c r="F666" s="48"/>
     </row>
     <row r="667">
-      <c r="C667" s="49"/>
-      <c r="F667" s="49"/>
+      <c r="C667" s="48"/>
+      <c r="F667" s="48"/>
     </row>
     <row r="668">
-      <c r="C668" s="49"/>
-      <c r="F668" s="49"/>
+      <c r="C668" s="48"/>
+      <c r="F668" s="48"/>
     </row>
     <row r="669">
-      <c r="C669" s="49"/>
-      <c r="F669" s="49"/>
+      <c r="C669" s="48"/>
+      <c r="F669" s="48"/>
     </row>
     <row r="670">
-      <c r="C670" s="49"/>
-      <c r="F670" s="49"/>
+      <c r="C670" s="48"/>
+      <c r="F670" s="48"/>
     </row>
     <row r="671">
-      <c r="C671" s="49"/>
-      <c r="F671" s="49"/>
+      <c r="C671" s="48"/>
+      <c r="F671" s="48"/>
     </row>
     <row r="672">
-      <c r="C672" s="49"/>
-      <c r="F672" s="49"/>
+      <c r="C672" s="48"/>
+      <c r="F672" s="48"/>
     </row>
     <row r="673">
-      <c r="C673" s="49"/>
-      <c r="F673" s="49"/>
+      <c r="C673" s="48"/>
+      <c r="F673" s="48"/>
     </row>
     <row r="674">
-      <c r="C674" s="49"/>
-      <c r="F674" s="49"/>
+      <c r="C674" s="48"/>
+      <c r="F674" s="48"/>
     </row>
     <row r="675">
-      <c r="C675" s="49"/>
-      <c r="F675" s="49"/>
+      <c r="C675" s="48"/>
+      <c r="F675" s="48"/>
     </row>
     <row r="676">
-      <c r="C676" s="49"/>
-      <c r="F676" s="49"/>
+      <c r="C676" s="48"/>
+      <c r="F676" s="48"/>
     </row>
     <row r="677">
-      <c r="C677" s="49"/>
-      <c r="F677" s="49"/>
+      <c r="C677" s="48"/>
+      <c r="F677" s="48"/>
     </row>
     <row r="678">
-      <c r="C678" s="49"/>
-      <c r="F678" s="49"/>
+      <c r="C678" s="48"/>
+      <c r="F678" s="48"/>
     </row>
     <row r="679">
-      <c r="C679" s="49"/>
-      <c r="F679" s="49"/>
+      <c r="C679" s="48"/>
+      <c r="F679" s="48"/>
     </row>
     <row r="680">
-      <c r="C680" s="49"/>
-      <c r="F680" s="49"/>
+      <c r="C680" s="48"/>
+      <c r="F680" s="48"/>
     </row>
     <row r="681">
-      <c r="C681" s="49"/>
-      <c r="F681" s="49"/>
+      <c r="C681" s="48"/>
+      <c r="F681" s="48"/>
     </row>
     <row r="682">
-      <c r="C682" s="49"/>
-      <c r="F682" s="49"/>
+      <c r="C682" s="48"/>
+      <c r="F682" s="48"/>
     </row>
     <row r="683">
-      <c r="C683" s="49"/>
-      <c r="F683" s="49"/>
+      <c r="C683" s="48"/>
+      <c r="F683" s="48"/>
     </row>
     <row r="684">
-      <c r="C684" s="49"/>
-      <c r="F684" s="49"/>
+      <c r="C684" s="48"/>
+      <c r="F684" s="48"/>
     </row>
     <row r="685">
-      <c r="C685" s="49"/>
-      <c r="F685" s="49"/>
+      <c r="C685" s="48"/>
+      <c r="F685" s="48"/>
     </row>
     <row r="686">
-      <c r="C686" s="49"/>
-      <c r="F686" s="49"/>
+      <c r="C686" s="48"/>
+      <c r="F686" s="48"/>
     </row>
     <row r="687">
-      <c r="C687" s="49"/>
-      <c r="F687" s="49"/>
+      <c r="C687" s="48"/>
+      <c r="F687" s="48"/>
     </row>
     <row r="688">
-      <c r="C688" s="49"/>
-      <c r="F688" s="49"/>
+      <c r="C688" s="48"/>
+      <c r="F688" s="48"/>
     </row>
     <row r="689">
-      <c r="C689" s="49"/>
-      <c r="F689" s="49"/>
+      <c r="C689" s="48"/>
+      <c r="F689" s="48"/>
     </row>
     <row r="690">
-      <c r="C690" s="49"/>
-      <c r="F690" s="49"/>
+      <c r="C690" s="48"/>
+      <c r="F690" s="48"/>
     </row>
     <row r="691">
-      <c r="C691" s="49"/>
-      <c r="F691" s="49"/>
+      <c r="C691" s="48"/>
+      <c r="F691" s="48"/>
     </row>
     <row r="692">
-      <c r="C692" s="49"/>
-      <c r="F692" s="49"/>
+      <c r="C692" s="48"/>
+      <c r="F692" s="48"/>
     </row>
     <row r="693">
-      <c r="C693" s="49"/>
-      <c r="F693" s="49"/>
+      <c r="C693" s="48"/>
+      <c r="F693" s="48"/>
     </row>
     <row r="694">
-      <c r="C694" s="49"/>
-      <c r="F694" s="49"/>
+      <c r="C694" s="48"/>
+      <c r="F694" s="48"/>
     </row>
     <row r="695">
-      <c r="C695" s="49"/>
-      <c r="F695" s="49"/>
+      <c r="C695" s="48"/>
+      <c r="F695" s="48"/>
     </row>
     <row r="696">
-      <c r="C696" s="49"/>
-      <c r="F696" s="49"/>
+      <c r="C696" s="48"/>
+      <c r="F696" s="48"/>
     </row>
     <row r="697">
-      <c r="C697" s="49"/>
-      <c r="F697" s="49"/>
+      <c r="C697" s="48"/>
+      <c r="F697" s="48"/>
     </row>
     <row r="698">
-      <c r="C698" s="49"/>
-      <c r="F698" s="49"/>
+      <c r="C698" s="48"/>
+      <c r="F698" s="48"/>
     </row>
     <row r="699">
-      <c r="C699" s="49"/>
-      <c r="F699" s="49"/>
+      <c r="C699" s="48"/>
+      <c r="F699" s="48"/>
     </row>
     <row r="700">
-      <c r="C700" s="49"/>
-      <c r="F700" s="49"/>
+      <c r="C700" s="48"/>
+      <c r="F700" s="48"/>
     </row>
     <row r="701">
-      <c r="C701" s="49"/>
-      <c r="F701" s="49"/>
+      <c r="C701" s="48"/>
+      <c r="F701" s="48"/>
     </row>
     <row r="702">
-      <c r="C702" s="49"/>
-      <c r="F702" s="49"/>
+      <c r="C702" s="48"/>
+      <c r="F702" s="48"/>
     </row>
     <row r="703">
-      <c r="C703" s="49"/>
-      <c r="F703" s="49"/>
+      <c r="C703" s="48"/>
+      <c r="F703" s="48"/>
     </row>
     <row r="704">
-      <c r="C704" s="49"/>
-      <c r="F704" s="49"/>
+      <c r="C704" s="48"/>
+      <c r="F704" s="48"/>
     </row>
     <row r="705">
-      <c r="C705" s="49"/>
-      <c r="F705" s="49"/>
+      <c r="C705" s="48"/>
+      <c r="F705" s="48"/>
     </row>
     <row r="706">
-      <c r="C706" s="49"/>
-      <c r="F706" s="49"/>
+      <c r="C706" s="48"/>
+      <c r="F706" s="48"/>
     </row>
     <row r="707">
-      <c r="C707" s="49"/>
-      <c r="F707" s="49"/>
+      <c r="C707" s="48"/>
+      <c r="F707" s="48"/>
     </row>
     <row r="708">
-      <c r="C708" s="49"/>
-      <c r="F708" s="49"/>
+      <c r="C708" s="48"/>
+      <c r="F708" s="48"/>
     </row>
     <row r="709">
-      <c r="C709" s="49"/>
-      <c r="F709" s="49"/>
+      <c r="C709" s="48"/>
+      <c r="F709" s="48"/>
     </row>
     <row r="710">
-      <c r="C710" s="49"/>
-      <c r="F710" s="49"/>
+      <c r="C710" s="48"/>
+      <c r="F710" s="48"/>
     </row>
     <row r="711">
-      <c r="C711" s="49"/>
-      <c r="F711" s="49"/>
+      <c r="C711" s="48"/>
+      <c r="F711" s="48"/>
     </row>
     <row r="712">
-      <c r="C712" s="49"/>
-      <c r="F712" s="49"/>
+      <c r="C712" s="48"/>
+      <c r="F712" s="48"/>
     </row>
     <row r="713">
-      <c r="C713" s="49"/>
-      <c r="F713" s="49"/>
+      <c r="C713" s="48"/>
+      <c r="F713" s="48"/>
     </row>
     <row r="714">
-      <c r="C714" s="49"/>
-      <c r="F714" s="49"/>
+      <c r="C714" s="48"/>
+      <c r="F714" s="48"/>
     </row>
     <row r="715">
-      <c r="C715" s="49"/>
-      <c r="F715" s="49"/>
+      <c r="C715" s="48"/>
+      <c r="F715" s="48"/>
     </row>
     <row r="716">
-      <c r="C716" s="49"/>
-      <c r="F716" s="49"/>
+      <c r="C716" s="48"/>
+      <c r="F716" s="48"/>
     </row>
     <row r="717">
-      <c r="C717" s="49"/>
-      <c r="F717" s="49"/>
+      <c r="C717" s="48"/>
+      <c r="F717" s="48"/>
     </row>
     <row r="718">
-      <c r="C718" s="49"/>
-      <c r="F718" s="49"/>
+      <c r="C718" s="48"/>
+      <c r="F718" s="48"/>
     </row>
     <row r="719">
-      <c r="C719" s="49"/>
-      <c r="F719" s="49"/>
+      <c r="C719" s="48"/>
+      <c r="F719" s="48"/>
     </row>
     <row r="720">
-      <c r="C720" s="49"/>
-      <c r="F720" s="49"/>
+      <c r="C720" s="48"/>
+      <c r="F720" s="48"/>
     </row>
     <row r="721">
-      <c r="C721" s="49"/>
-      <c r="F721" s="49"/>
+      <c r="C721" s="48"/>
+      <c r="F721" s="48"/>
     </row>
     <row r="722">
-      <c r="C722" s="49"/>
-      <c r="F722" s="49"/>
+      <c r="C722" s="48"/>
+      <c r="F722" s="48"/>
     </row>
     <row r="723">
-      <c r="C723" s="49"/>
-      <c r="F723" s="49"/>
+      <c r="C723" s="48"/>
+      <c r="F723" s="48"/>
     </row>
     <row r="724">
-      <c r="C724" s="49"/>
-      <c r="F724" s="49"/>
+      <c r="C724" s="48"/>
+      <c r="F724" s="48"/>
     </row>
     <row r="725">
-      <c r="C725" s="49"/>
-      <c r="F725" s="49"/>
+      <c r="C725" s="48"/>
+      <c r="F725" s="48"/>
     </row>
     <row r="726">
-      <c r="C726" s="49"/>
-      <c r="F726" s="49"/>
+      <c r="C726" s="48"/>
+      <c r="F726" s="48"/>
     </row>
     <row r="727">
-      <c r="C727" s="49"/>
-      <c r="F727" s="49"/>
+      <c r="C727" s="48"/>
+      <c r="F727" s="48"/>
     </row>
     <row r="728">
-      <c r="C728" s="49"/>
-      <c r="F728" s="49"/>
+      <c r="C728" s="48"/>
+      <c r="F728" s="48"/>
     </row>
     <row r="729">
-      <c r="C729" s="49"/>
-      <c r="F729" s="49"/>
+      <c r="C729" s="48"/>
+      <c r="F729" s="48"/>
     </row>
     <row r="730">
-      <c r="C730" s="49"/>
-      <c r="F730" s="49"/>
+      <c r="C730" s="48"/>
+      <c r="F730" s="48"/>
     </row>
     <row r="731">
-      <c r="C731" s="49"/>
-      <c r="F731" s="49"/>
+      <c r="C731" s="48"/>
+      <c r="F731" s="48"/>
     </row>
     <row r="732">
-      <c r="C732" s="49"/>
-      <c r="F732" s="49"/>
+      <c r="C732" s="48"/>
+      <c r="F732" s="48"/>
     </row>
     <row r="733">
-      <c r="C733" s="49"/>
-      <c r="F733" s="49"/>
+      <c r="C733" s="48"/>
+      <c r="F733" s="48"/>
     </row>
     <row r="734">
-      <c r="C734" s="49"/>
-      <c r="F734" s="49"/>
+      <c r="C734" s="48"/>
+      <c r="F734" s="48"/>
     </row>
     <row r="735">
-      <c r="C735" s="49"/>
-      <c r="F735" s="49"/>
+      <c r="C735" s="48"/>
+      <c r="F735" s="48"/>
     </row>
     <row r="736">
-      <c r="C736" s="49"/>
-      <c r="F736" s="49"/>
+      <c r="C736" s="48"/>
+      <c r="F736" s="48"/>
     </row>
     <row r="737">
-      <c r="C737" s="49"/>
-      <c r="F737" s="49"/>
+      <c r="C737" s="48"/>
+      <c r="F737" s="48"/>
     </row>
     <row r="738">
-      <c r="C738" s="49"/>
-      <c r="F738" s="49"/>
+      <c r="C738" s="48"/>
+      <c r="F738" s="48"/>
     </row>
     <row r="739">
-      <c r="C739" s="49"/>
-      <c r="F739" s="49"/>
+      <c r="C739" s="48"/>
+      <c r="F739" s="48"/>
     </row>
     <row r="740">
-      <c r="C740" s="49"/>
-      <c r="F740" s="49"/>
+      <c r="C740" s="48"/>
+      <c r="F740" s="48"/>
     </row>
     <row r="741">
-      <c r="C741" s="49"/>
-      <c r="F741" s="49"/>
+      <c r="C741" s="48"/>
+      <c r="F741" s="48"/>
     </row>
     <row r="742">
-      <c r="C742" s="49"/>
-      <c r="F742" s="49"/>
+      <c r="C742" s="48"/>
+      <c r="F742" s="48"/>
     </row>
     <row r="743">
-      <c r="C743" s="49"/>
-      <c r="F743" s="49"/>
+      <c r="C743" s="48"/>
+      <c r="F743" s="48"/>
     </row>
     <row r="744">
-      <c r="C744" s="49"/>
-      <c r="F744" s="49"/>
+      <c r="C744" s="48"/>
+      <c r="F744" s="48"/>
     </row>
     <row r="745">
-      <c r="C745" s="49"/>
-      <c r="F745" s="49"/>
+      <c r="C745" s="48"/>
+      <c r="F745" s="48"/>
     </row>
     <row r="746">
-      <c r="C746" s="49"/>
-      <c r="F746" s="49"/>
+      <c r="C746" s="48"/>
+      <c r="F746" s="48"/>
     </row>
     <row r="747">
-      <c r="C747" s="49"/>
-      <c r="F747" s="49"/>
+      <c r="C747" s="48"/>
+      <c r="F747" s="48"/>
     </row>
     <row r="748">
-      <c r="C748" s="49"/>
-      <c r="F748" s="49"/>
+      <c r="C748" s="48"/>
+      <c r="F748" s="48"/>
     </row>
     <row r="749">
-      <c r="C749" s="49"/>
-      <c r="F749" s="49"/>
+      <c r="C749" s="48"/>
+      <c r="F749" s="48"/>
     </row>
     <row r="750">
-      <c r="C750" s="49"/>
-      <c r="F750" s="49"/>
+      <c r="C750" s="48"/>
+      <c r="F750" s="48"/>
     </row>
     <row r="751">
-      <c r="C751" s="49"/>
-      <c r="F751" s="49"/>
+      <c r="C751" s="48"/>
+      <c r="F751" s="48"/>
     </row>
     <row r="752">
-      <c r="C752" s="49"/>
-      <c r="F752" s="49"/>
+      <c r="C752" s="48"/>
+      <c r="F752" s="48"/>
     </row>
     <row r="753">
-      <c r="C753" s="49"/>
-      <c r="F753" s="49"/>
+      <c r="C753" s="48"/>
+      <c r="F753" s="48"/>
     </row>
     <row r="754">
-      <c r="C754" s="49"/>
-      <c r="F754" s="49"/>
+      <c r="C754" s="48"/>
+      <c r="F754" s="48"/>
     </row>
     <row r="755">
-      <c r="C755" s="49"/>
-      <c r="F755" s="49"/>
+      <c r="C755" s="48"/>
+      <c r="F755" s="48"/>
     </row>
     <row r="756">
-      <c r="C756" s="49"/>
-      <c r="F756" s="49"/>
+      <c r="C756" s="48"/>
+      <c r="F756" s="48"/>
     </row>
     <row r="757">
-      <c r="C757" s="49"/>
-      <c r="F757" s="49"/>
+      <c r="C757" s="48"/>
+      <c r="F757" s="48"/>
     </row>
     <row r="758">
-      <c r="C758" s="49"/>
-      <c r="F758" s="49"/>
+      <c r="C758" s="48"/>
+      <c r="F758" s="48"/>
     </row>
     <row r="759">
-      <c r="C759" s="49"/>
-      <c r="F759" s="49"/>
+      <c r="C759" s="48"/>
+      <c r="F759" s="48"/>
     </row>
     <row r="760">
-      <c r="C760" s="49"/>
-      <c r="F760" s="49"/>
+      <c r="C760" s="48"/>
+      <c r="F760" s="48"/>
     </row>
     <row r="761">
-      <c r="C761" s="49"/>
-      <c r="F761" s="49"/>
+      <c r="C761" s="48"/>
+      <c r="F761" s="48"/>
     </row>
     <row r="762">
-      <c r="C762" s="49"/>
-      <c r="F762" s="49"/>
+      <c r="C762" s="48"/>
+      <c r="F762" s="48"/>
     </row>
     <row r="763">
-      <c r="C763" s="49"/>
-      <c r="F763" s="49"/>
+      <c r="C763" s="48"/>
+      <c r="F763" s="48"/>
     </row>
     <row r="764">
-      <c r="C764" s="49"/>
-      <c r="F764" s="49"/>
+      <c r="C764" s="48"/>
+      <c r="F764" s="48"/>
     </row>
     <row r="765">
-      <c r="C765" s="49"/>
-      <c r="F765" s="49"/>
+      <c r="C765" s="48"/>
+      <c r="F765" s="48"/>
     </row>
     <row r="766">
-      <c r="C766" s="49"/>
-      <c r="F766" s="49"/>
+      <c r="C766" s="48"/>
+      <c r="F766" s="48"/>
     </row>
     <row r="767">
-      <c r="C767" s="49"/>
-      <c r="F767" s="49"/>
+      <c r="C767" s="48"/>
+      <c r="F767" s="48"/>
     </row>
     <row r="768">
-      <c r="C768" s="49"/>
-      <c r="F768" s="49"/>
+      <c r="C768" s="48"/>
+      <c r="F768" s="48"/>
     </row>
     <row r="769">
-      <c r="C769" s="49"/>
-      <c r="F769" s="49"/>
+      <c r="C769" s="48"/>
+      <c r="F769" s="48"/>
     </row>
     <row r="770">
-      <c r="C770" s="49"/>
-      <c r="F770" s="49"/>
+      <c r="C770" s="48"/>
+      <c r="F770" s="48"/>
     </row>
     <row r="771">
-      <c r="C771" s="49"/>
-      <c r="F771" s="49"/>
+      <c r="C771" s="48"/>
+      <c r="F771" s="48"/>
     </row>
     <row r="772">
-      <c r="C772" s="49"/>
-      <c r="F772" s="49"/>
+      <c r="C772" s="48"/>
+      <c r="F772" s="48"/>
     </row>
     <row r="773">
-      <c r="C773" s="49"/>
-      <c r="F773" s="49"/>
+      <c r="C773" s="48"/>
+      <c r="F773" s="48"/>
     </row>
     <row r="774">
-      <c r="C774" s="49"/>
-      <c r="F774" s="49"/>
+      <c r="C774" s="48"/>
+      <c r="F774" s="48"/>
     </row>
     <row r="775">
-      <c r="C775" s="49"/>
-      <c r="F775" s="49"/>
+      <c r="C775" s="48"/>
+      <c r="F775" s="48"/>
     </row>
     <row r="776">
-      <c r="C776" s="49"/>
-      <c r="F776" s="49"/>
+      <c r="C776" s="48"/>
+      <c r="F776" s="48"/>
     </row>
     <row r="777">
-      <c r="C777" s="49"/>
-      <c r="F777" s="49"/>
+      <c r="C777" s="48"/>
+      <c r="F777" s="48"/>
     </row>
     <row r="778">
-      <c r="C778" s="49"/>
-      <c r="F778" s="49"/>
+      <c r="C778" s="48"/>
+      <c r="F778" s="48"/>
     </row>
     <row r="779">
-      <c r="C779" s="49"/>
-      <c r="F779" s="49"/>
+      <c r="C779" s="48"/>
+      <c r="F779" s="48"/>
     </row>
     <row r="780">
-      <c r="C780" s="49"/>
-      <c r="F780" s="49"/>
+      <c r="C780" s="48"/>
+      <c r="F780" s="48"/>
     </row>
     <row r="781">
-      <c r="C781" s="49"/>
-      <c r="F781" s="49"/>
+      <c r="C781" s="48"/>
+      <c r="F781" s="48"/>
     </row>
     <row r="782">
-      <c r="C782" s="49"/>
-      <c r="F782" s="49"/>
+      <c r="C782" s="48"/>
+      <c r="F782" s="48"/>
     </row>
     <row r="783">
-      <c r="C783" s="49"/>
-      <c r="F783" s="49"/>
+      <c r="C783" s="48"/>
+      <c r="F783" s="48"/>
     </row>
     <row r="784">
-      <c r="C784" s="49"/>
-      <c r="F784" s="49"/>
+      <c r="C784" s="48"/>
+      <c r="F784" s="48"/>
     </row>
     <row r="785">
-      <c r="C785" s="49"/>
-      <c r="F785" s="49"/>
+      <c r="C785" s="48"/>
+      <c r="F785" s="48"/>
     </row>
     <row r="786">
-      <c r="C786" s="49"/>
-      <c r="F786" s="49"/>
+      <c r="C786" s="48"/>
+      <c r="F786" s="48"/>
     </row>
     <row r="787">
-      <c r="C787" s="49"/>
-      <c r="F787" s="49"/>
+      <c r="C787" s="48"/>
+      <c r="F787" s="48"/>
     </row>
     <row r="788">
-      <c r="C788" s="49"/>
-      <c r="F788" s="49"/>
+      <c r="C788" s="48"/>
+      <c r="F788" s="48"/>
     </row>
     <row r="789">
-      <c r="C789" s="49"/>
-      <c r="F789" s="49"/>
+      <c r="C789" s="48"/>
+      <c r="F789" s="48"/>
     </row>
     <row r="790">
-      <c r="C790" s="49"/>
-      <c r="F790" s="49"/>
+      <c r="C790" s="48"/>
+      <c r="F790" s="48"/>
     </row>
     <row r="791">
-      <c r="C791" s="49"/>
-      <c r="F791" s="49"/>
+      <c r="C791" s="48"/>
+      <c r="F791" s="48"/>
     </row>
     <row r="792">
-      <c r="C792" s="49"/>
-      <c r="F792" s="49"/>
+      <c r="C792" s="48"/>
+      <c r="F792" s="48"/>
     </row>
     <row r="793">
-      <c r="C793" s="49"/>
-      <c r="F793" s="49"/>
+      <c r="C793" s="48"/>
+      <c r="F793" s="48"/>
     </row>
     <row r="794">
-      <c r="C794" s="49"/>
-      <c r="F794" s="49"/>
+      <c r="C794" s="48"/>
+      <c r="F794" s="48"/>
     </row>
     <row r="795">
-      <c r="C795" s="49"/>
-      <c r="F795" s="49"/>
+      <c r="C795" s="48"/>
+      <c r="F795" s="48"/>
     </row>
     <row r="796">
-      <c r="C796" s="49"/>
-      <c r="F796" s="49"/>
+      <c r="C796" s="48"/>
+      <c r="F796" s="48"/>
     </row>
     <row r="797">
-      <c r="C797" s="49"/>
-      <c r="F797" s="49"/>
+      <c r="C797" s="48"/>
+      <c r="F797" s="48"/>
     </row>
     <row r="798">
-      <c r="C798" s="49"/>
-      <c r="F798" s="49"/>
+      <c r="C798" s="48"/>
+      <c r="F798" s="48"/>
     </row>
     <row r="799">
-      <c r="C799" s="49"/>
-      <c r="F799" s="49"/>
+      <c r="C799" s="48"/>
+      <c r="F799" s="48"/>
     </row>
     <row r="800">
-      <c r="C800" s="49"/>
-      <c r="F800" s="49"/>
+      <c r="C800" s="48"/>
+      <c r="F800" s="48"/>
     </row>
     <row r="801">
-      <c r="C801" s="49"/>
-      <c r="F801" s="49"/>
+      <c r="C801" s="48"/>
+      <c r="F801" s="48"/>
     </row>
     <row r="802">
-      <c r="C802" s="49"/>
-      <c r="F802" s="49"/>
+      <c r="C802" s="48"/>
+      <c r="F802" s="48"/>
     </row>
     <row r="803">
-      <c r="C803" s="49"/>
-      <c r="F803" s="49"/>
+      <c r="C803" s="48"/>
+      <c r="F803" s="48"/>
     </row>
     <row r="804">
-      <c r="C804" s="49"/>
-      <c r="F804" s="49"/>
+      <c r="C804" s="48"/>
+      <c r="F804" s="48"/>
     </row>
     <row r="805">
-      <c r="C805" s="49"/>
-      <c r="F805" s="49"/>
+      <c r="C805" s="48"/>
+      <c r="F805" s="48"/>
     </row>
     <row r="806">
-      <c r="C806" s="49"/>
-      <c r="F806" s="49"/>
+      <c r="C806" s="48"/>
+      <c r="F806" s="48"/>
     </row>
     <row r="807">
-      <c r="C807" s="49"/>
-      <c r="F807" s="49"/>
+      <c r="C807" s="48"/>
+      <c r="F807" s="48"/>
     </row>
     <row r="808">
-      <c r="C808" s="49"/>
-      <c r="F808" s="49"/>
+      <c r="C808" s="48"/>
+      <c r="F808" s="48"/>
     </row>
     <row r="809">
-      <c r="C809" s="49"/>
-      <c r="F809" s="49"/>
+      <c r="C809" s="48"/>
+      <c r="F809" s="48"/>
     </row>
     <row r="810">
-      <c r="C810" s="49"/>
-      <c r="F810" s="49"/>
+      <c r="C810" s="48"/>
+      <c r="F810" s="48"/>
     </row>
     <row r="811">
-      <c r="C811" s="49"/>
-      <c r="F811" s="49"/>
+      <c r="C811" s="48"/>
+      <c r="F811" s="48"/>
     </row>
     <row r="812">
-      <c r="C812" s="49"/>
-      <c r="F812" s="49"/>
+      <c r="C812" s="48"/>
+      <c r="F812" s="48"/>
     </row>
     <row r="813">
-      <c r="C813" s="49"/>
-      <c r="F813" s="49"/>
+      <c r="C813" s="48"/>
+      <c r="F813" s="48"/>
     </row>
     <row r="814">
-      <c r="C814" s="49"/>
-      <c r="F814" s="49"/>
+      <c r="C814" s="48"/>
+      <c r="F814" s="48"/>
     </row>
     <row r="815">
-      <c r="C815" s="49"/>
-      <c r="F815" s="49"/>
+      <c r="C815" s="48"/>
+      <c r="F815" s="48"/>
     </row>
     <row r="816">
-      <c r="C816" s="49"/>
-      <c r="F816" s="49"/>
+      <c r="C816" s="48"/>
+      <c r="F816" s="48"/>
     </row>
     <row r="817">
-      <c r="C817" s="49"/>
-      <c r="F817" s="49"/>
+      <c r="C817" s="48"/>
+      <c r="F817" s="48"/>
     </row>
     <row r="818">
-      <c r="C818" s="49"/>
-      <c r="F818" s="49"/>
+      <c r="C818" s="48"/>
+      <c r="F818" s="48"/>
     </row>
     <row r="819">
-      <c r="C819" s="49"/>
-      <c r="F819" s="49"/>
+      <c r="C819" s="48"/>
+      <c r="F819" s="48"/>
     </row>
     <row r="820">
-      <c r="C820" s="49"/>
-      <c r="F820" s="49"/>
+      <c r="C820" s="48"/>
+      <c r="F820" s="48"/>
     </row>
     <row r="821">
-      <c r="C821" s="49"/>
-      <c r="F821" s="49"/>
+      <c r="C821" s="48"/>
+      <c r="F821" s="48"/>
     </row>
     <row r="822">
-      <c r="C822" s="49"/>
-      <c r="F822" s="49"/>
+      <c r="C822" s="48"/>
+      <c r="F822" s="48"/>
     </row>
     <row r="823">
-      <c r="C823" s="49"/>
-      <c r="F823" s="49"/>
+      <c r="C823" s="48"/>
+      <c r="F823" s="48"/>
     </row>
     <row r="824">
-      <c r="C824" s="49"/>
-      <c r="F824" s="49"/>
+      <c r="C824" s="48"/>
+      <c r="F824" s="48"/>
     </row>
     <row r="825">
-      <c r="C825" s="49"/>
-      <c r="F825" s="49"/>
+      <c r="C825" s="48"/>
+      <c r="F825" s="48"/>
     </row>
     <row r="826">
-      <c r="C826" s="49"/>
-      <c r="F826" s="49"/>
+      <c r="C826" s="48"/>
+      <c r="F826" s="48"/>
     </row>
     <row r="827">
-      <c r="C827" s="49"/>
-      <c r="F827" s="49"/>
+      <c r="C827" s="48"/>
+      <c r="F827" s="48"/>
     </row>
     <row r="828">
-      <c r="C828" s="49"/>
-      <c r="F828" s="49"/>
+      <c r="C828" s="48"/>
+      <c r="F828" s="48"/>
     </row>
     <row r="829">
-      <c r="C829" s="49"/>
-      <c r="F829" s="49"/>
+      <c r="C829" s="48"/>
+      <c r="F829" s="48"/>
     </row>
     <row r="830">
-      <c r="C830" s="49"/>
-      <c r="F830" s="49"/>
+      <c r="C830" s="48"/>
+      <c r="F830" s="48"/>
     </row>
     <row r="831">
-      <c r="C831" s="49"/>
-      <c r="F831" s="49"/>
+      <c r="C831" s="48"/>
+      <c r="F831" s="48"/>
     </row>
     <row r="832">
-      <c r="C832" s="49"/>
-      <c r="F832" s="49"/>
+      <c r="C832" s="48"/>
+      <c r="F832" s="48"/>
     </row>
     <row r="833">
-      <c r="C833" s="49"/>
-      <c r="F833" s="49"/>
+      <c r="C833" s="48"/>
+      <c r="F833" s="48"/>
     </row>
     <row r="834">
-      <c r="C834" s="49"/>
-      <c r="F834" s="49"/>
+      <c r="C834" s="48"/>
+      <c r="F834" s="48"/>
     </row>
     <row r="835">
-      <c r="C835" s="49"/>
-      <c r="F835" s="49"/>
+      <c r="C835" s="48"/>
+      <c r="F835" s="48"/>
     </row>
     <row r="836">
-      <c r="C836" s="49"/>
-      <c r="F836" s="49"/>
+      <c r="C836" s="48"/>
+      <c r="F836" s="48"/>
     </row>
     <row r="837">
-      <c r="C837" s="49"/>
-      <c r="F837" s="49"/>
+      <c r="C837" s="48"/>
+      <c r="F837" s="48"/>
     </row>
     <row r="838">
-      <c r="C838" s="49"/>
-      <c r="F838" s="49"/>
+      <c r="C838" s="48"/>
+      <c r="F838" s="48"/>
     </row>
     <row r="839">
-      <c r="C839" s="49"/>
-      <c r="F839" s="49"/>
+      <c r="C839" s="48"/>
+      <c r="F839" s="48"/>
     </row>
     <row r="840">
-      <c r="C840" s="49"/>
-      <c r="F840" s="49"/>
+      <c r="C840" s="48"/>
+      <c r="F840" s="48"/>
     </row>
     <row r="841">
-      <c r="C841" s="49"/>
-      <c r="F841" s="49"/>
+      <c r="C841" s="48"/>
+      <c r="F841" s="48"/>
     </row>
     <row r="842">
-      <c r="C842" s="49"/>
-      <c r="F842" s="49"/>
+      <c r="C842" s="48"/>
+      <c r="F842" s="48"/>
     </row>
     <row r="843">
-      <c r="C843" s="49"/>
-      <c r="F843" s="49"/>
+      <c r="C843" s="48"/>
+      <c r="F843" s="48"/>
     </row>
     <row r="844">
-      <c r="C844" s="49"/>
-      <c r="F844" s="49"/>
+      <c r="C844" s="48"/>
+      <c r="F844" s="48"/>
     </row>
     <row r="845">
-      <c r="C845" s="49"/>
-      <c r="F845" s="49"/>
+      <c r="C845" s="48"/>
+      <c r="F845" s="48"/>
     </row>
     <row r="846">
-      <c r="C846" s="49"/>
-      <c r="F846" s="49"/>
+      <c r="C846" s="48"/>
+      <c r="F846" s="48"/>
     </row>
     <row r="847">
-      <c r="C847" s="49"/>
-      <c r="F847" s="49"/>
+      <c r="C847" s="48"/>
+      <c r="F847" s="48"/>
     </row>
     <row r="848">
-      <c r="C848" s="49"/>
-      <c r="F848" s="49"/>
+      <c r="C848" s="48"/>
+      <c r="F848" s="48"/>
     </row>
     <row r="849">
-      <c r="C849" s="49"/>
-      <c r="F849" s="49"/>
+      <c r="C849" s="48"/>
+      <c r="F849" s="48"/>
     </row>
     <row r="850">
-      <c r="C850" s="49"/>
-      <c r="F850" s="49"/>
+      <c r="C850" s="48"/>
+      <c r="F850" s="48"/>
     </row>
     <row r="851">
-      <c r="C851" s="49"/>
-      <c r="F851" s="49"/>
+      <c r="C851" s="48"/>
+      <c r="F851" s="48"/>
     </row>
     <row r="852">
-      <c r="C852" s="49"/>
-      <c r="F852" s="49"/>
+      <c r="C852" s="48"/>
+      <c r="F852" s="48"/>
     </row>
     <row r="853">
-      <c r="C853" s="49"/>
-      <c r="F853" s="49"/>
+      <c r="C853" s="48"/>
+      <c r="F853" s="48"/>
     </row>
     <row r="854">
-      <c r="C854" s="49"/>
-      <c r="F854" s="49"/>
+      <c r="C854" s="48"/>
+      <c r="F854" s="48"/>
     </row>
     <row r="855">
-      <c r="C855" s="49"/>
-      <c r="F855" s="49"/>
+      <c r="C855" s="48"/>
+      <c r="F855" s="48"/>
     </row>
     <row r="856">
-      <c r="C856" s="49"/>
-      <c r="F856" s="49"/>
+      <c r="C856" s="48"/>
+      <c r="F856" s="48"/>
     </row>
     <row r="857">
-      <c r="C857" s="49"/>
-      <c r="F857" s="49"/>
+      <c r="C857" s="48"/>
+      <c r="F857" s="48"/>
     </row>
     <row r="858">
-      <c r="C858" s="49"/>
-      <c r="F858" s="49"/>
+      <c r="C858" s="48"/>
+      <c r="F858" s="48"/>
     </row>
     <row r="859">
-      <c r="C859" s="49"/>
-      <c r="F859" s="49"/>
+      <c r="C859" s="48"/>
+      <c r="F859" s="48"/>
     </row>
     <row r="860">
-      <c r="C860" s="49"/>
-      <c r="F860" s="49"/>
+      <c r="C860" s="48"/>
+      <c r="F860" s="48"/>
     </row>
     <row r="861">
-      <c r="C861" s="49"/>
-      <c r="F861" s="49"/>
+      <c r="C861" s="48"/>
+      <c r="F861" s="48"/>
     </row>
     <row r="862">
-      <c r="C862" s="49"/>
-      <c r="F862" s="49"/>
+      <c r="C862" s="48"/>
+      <c r="F862" s="48"/>
     </row>
     <row r="863">
-      <c r="C863" s="49"/>
-      <c r="F863" s="49"/>
+      <c r="C863" s="48"/>
+      <c r="F863" s="48"/>
     </row>
     <row r="864">
-      <c r="C864" s="49"/>
-      <c r="F864" s="49"/>
+      <c r="C864" s="48"/>
+      <c r="F864" s="48"/>
     </row>
     <row r="865">
-      <c r="C865" s="49"/>
-      <c r="F865" s="49"/>
+      <c r="C865" s="48"/>
+      <c r="F865" s="48"/>
     </row>
     <row r="866">
-      <c r="C866" s="49"/>
-      <c r="F866" s="49"/>
+      <c r="C866" s="48"/>
+      <c r="F866" s="48"/>
     </row>
     <row r="867">
-      <c r="C867" s="49"/>
-      <c r="F867" s="49"/>
+      <c r="C867" s="48"/>
+      <c r="F867" s="48"/>
     </row>
     <row r="868">
-      <c r="C868" s="49"/>
-      <c r="F868" s="49"/>
+      <c r="C868" s="48"/>
+      <c r="F868" s="48"/>
     </row>
     <row r="869">
-      <c r="C869" s="49"/>
-      <c r="F869" s="49"/>
+      <c r="C869" s="48"/>
+      <c r="F869" s="48"/>
     </row>
     <row r="870">
-      <c r="C870" s="49"/>
-      <c r="F870" s="49"/>
+      <c r="C870" s="48"/>
+      <c r="F870" s="48"/>
     </row>
     <row r="871">
-      <c r="C871" s="49"/>
-      <c r="F871" s="49"/>
+      <c r="C871" s="48"/>
+      <c r="F871" s="48"/>
     </row>
     <row r="872">
-      <c r="C872" s="49"/>
-      <c r="F872" s="49"/>
+      <c r="C872" s="48"/>
+      <c r="F872" s="48"/>
     </row>
     <row r="873">
-      <c r="C873" s="49"/>
-      <c r="F873" s="49"/>
+      <c r="C873" s="48"/>
+      <c r="F873" s="48"/>
     </row>
     <row r="874">
-      <c r="C874" s="49"/>
-      <c r="F874" s="49"/>
+      <c r="C874" s="48"/>
+      <c r="F874" s="48"/>
     </row>
     <row r="875">
-      <c r="C875" s="49"/>
-      <c r="F875" s="49"/>
+      <c r="C875" s="48"/>
+      <c r="F875" s="48"/>
     </row>
     <row r="876">
-      <c r="C876" s="49"/>
-      <c r="F876" s="49"/>
+      <c r="C876" s="48"/>
+      <c r="F876" s="48"/>
     </row>
     <row r="877">
-      <c r="C877" s="49"/>
-      <c r="F877" s="49"/>
+      <c r="C877" s="48"/>
+      <c r="F877" s="48"/>
     </row>
     <row r="878">
-      <c r="C878" s="49"/>
-      <c r="F878" s="49"/>
+      <c r="C878" s="48"/>
+      <c r="F878" s="48"/>
     </row>
     <row r="879">
-      <c r="C879" s="49"/>
-      <c r="F879" s="49"/>
+      <c r="C879" s="48"/>
+      <c r="F879" s="48"/>
     </row>
     <row r="880">
-      <c r="C880" s="49"/>
-      <c r="F880" s="49"/>
+      <c r="C880" s="48"/>
+      <c r="F880" s="48"/>
     </row>
     <row r="881">
-      <c r="C881" s="49"/>
-      <c r="F881" s="49"/>
+      <c r="C881" s="48"/>
+      <c r="F881" s="48"/>
     </row>
     <row r="882">
-      <c r="C882" s="49"/>
-      <c r="F882" s="49"/>
+      <c r="C882" s="48"/>
+      <c r="F882" s="48"/>
     </row>
     <row r="883">
-      <c r="C883" s="49"/>
-      <c r="F883" s="49"/>
+      <c r="C883" s="48"/>
+      <c r="F883" s="48"/>
     </row>
     <row r="884">
-      <c r="C884" s="49"/>
-      <c r="F884" s="49"/>
+      <c r="C884" s="48"/>
+      <c r="F884" s="48"/>
     </row>
     <row r="885">
-      <c r="C885" s="49"/>
-      <c r="F885" s="49"/>
+      <c r="C885" s="48"/>
+      <c r="F885" s="48"/>
     </row>
     <row r="886">
-      <c r="C886" s="49"/>
-      <c r="F886" s="49"/>
+      <c r="C886" s="48"/>
+      <c r="F886" s="48"/>
     </row>
     <row r="887">
-      <c r="C887" s="49"/>
-      <c r="F887" s="49"/>
+      <c r="C887" s="48"/>
+      <c r="F887" s="48"/>
     </row>
     <row r="888">
-      <c r="C888" s="49"/>
-      <c r="F888" s="49"/>
+      <c r="C888" s="48"/>
+      <c r="F888" s="48"/>
     </row>
     <row r="889">
-      <c r="C889" s="49"/>
-      <c r="F889" s="49"/>
+      <c r="C889" s="48"/>
+      <c r="F889" s="48"/>
     </row>
     <row r="890">
-      <c r="C890" s="49"/>
-      <c r="F890" s="49"/>
+      <c r="C890" s="48"/>
+      <c r="F890" s="48"/>
     </row>
     <row r="891">
-      <c r="C891" s="49"/>
-      <c r="F891" s="49"/>
+      <c r="C891" s="48"/>
+      <c r="F891" s="48"/>
     </row>
     <row r="892">
-      <c r="C892" s="49"/>
-      <c r="F892" s="49"/>
+      <c r="C892" s="48"/>
+      <c r="F892" s="48"/>
     </row>
     <row r="893">
-      <c r="C893" s="49"/>
-      <c r="F893" s="49"/>
+      <c r="C893" s="48"/>
+      <c r="F893" s="48"/>
     </row>
     <row r="894">
-      <c r="C894" s="49"/>
-      <c r="F894" s="49"/>
+      <c r="C894" s="48"/>
+      <c r="F894" s="48"/>
     </row>
     <row r="895">
-      <c r="C895" s="49"/>
-      <c r="F895" s="49"/>
+      <c r="C895" s="48"/>
+      <c r="F895" s="48"/>
     </row>
     <row r="896">
-      <c r="C896" s="49"/>
-      <c r="F896" s="49"/>
+      <c r="C896" s="48"/>
+      <c r="F896" s="48"/>
     </row>
     <row r="897">
-      <c r="C897" s="49"/>
-      <c r="F897" s="49"/>
+      <c r="C897" s="48"/>
+      <c r="F897" s="48"/>
     </row>
     <row r="898">
-      <c r="C898" s="49"/>
-      <c r="F898" s="49"/>
+      <c r="C898" s="48"/>
+      <c r="F898" s="48"/>
     </row>
     <row r="899">
-      <c r="C899" s="49"/>
-      <c r="F899" s="49"/>
+      <c r="C899" s="48"/>
+      <c r="F899" s="48"/>
     </row>
     <row r="900">
-      <c r="C900" s="49"/>
-      <c r="F900" s="49"/>
+      <c r="C900" s="48"/>
+      <c r="F900" s="48"/>
     </row>
     <row r="901">
-      <c r="C901" s="49"/>
-      <c r="F901" s="49"/>
+      <c r="C901" s="48"/>
+      <c r="F901" s="48"/>
     </row>
     <row r="902">
-      <c r="C902" s="49"/>
-      <c r="F902" s="49"/>
+      <c r="C902" s="48"/>
+      <c r="F902" s="48"/>
     </row>
     <row r="903">
-      <c r="C903" s="49"/>
-      <c r="F903" s="49"/>
+      <c r="C903" s="48"/>
+      <c r="F903" s="48"/>
     </row>
     <row r="904">
-      <c r="C904" s="49"/>
-      <c r="F904" s="49"/>
+      <c r="C904" s="48"/>
+      <c r="F904" s="48"/>
     </row>
     <row r="905">
-      <c r="C905" s="49"/>
-      <c r="F905" s="49"/>
+      <c r="C905" s="48"/>
+      <c r="F905" s="48"/>
     </row>
     <row r="906">
-      <c r="C906" s="49"/>
-      <c r="F906" s="49"/>
+      <c r="C906" s="48"/>
+      <c r="F906" s="48"/>
     </row>
     <row r="907">
-      <c r="C907" s="49"/>
-      <c r="F907" s="49"/>
+      <c r="C907" s="48"/>
+      <c r="F907" s="48"/>
     </row>
     <row r="908">
-      <c r="C908" s="49"/>
-      <c r="F908" s="49"/>
+      <c r="C908" s="48"/>
+      <c r="F908" s="48"/>
     </row>
     <row r="909">
-      <c r="C909" s="49"/>
-      <c r="F909" s="49"/>
+      <c r="C909" s="48"/>
+      <c r="F909" s="48"/>
     </row>
     <row r="910">
-      <c r="C910" s="49"/>
-      <c r="F910" s="49"/>
+      <c r="C910" s="48"/>
+      <c r="F910" s="48"/>
     </row>
     <row r="911">
-      <c r="C911" s="49"/>
-      <c r="F911" s="49"/>
+      <c r="C911" s="48"/>
+      <c r="F911" s="48"/>
     </row>
     <row r="912">
-      <c r="C912" s="49"/>
-      <c r="F912" s="49"/>
+      <c r="C912" s="48"/>
+      <c r="F912" s="48"/>
     </row>
     <row r="913">
-      <c r="C913" s="49"/>
-      <c r="F913" s="49"/>
+      <c r="C913" s="48"/>
+      <c r="F913" s="48"/>
     </row>
     <row r="914">
-      <c r="C914" s="49"/>
-      <c r="F914" s="49"/>
+      <c r="C914" s="48"/>
+      <c r="F914" s="48"/>
     </row>
     <row r="915">
-      <c r="C915" s="49"/>
-      <c r="F915" s="49"/>
+      <c r="C915" s="48"/>
+      <c r="F915" s="48"/>
     </row>
     <row r="916">
-      <c r="C916" s="49"/>
-      <c r="F916" s="49"/>
+      <c r="C916" s="48"/>
+      <c r="F916" s="48"/>
     </row>
     <row r="917">
-      <c r="C917" s="49"/>
-      <c r="F917" s="49"/>
+      <c r="C917" s="48"/>
+      <c r="F917" s="48"/>
     </row>
     <row r="918">
-      <c r="C918" s="49"/>
-      <c r="F918" s="49"/>
+      <c r="C918" s="48"/>
+      <c r="F918" s="48"/>
     </row>
     <row r="919">
-      <c r="C919" s="49"/>
-      <c r="F919" s="49"/>
+      <c r="C919" s="48"/>
+      <c r="F919" s="48"/>
     </row>
     <row r="920">
-      <c r="C920" s="49"/>
-      <c r="F920" s="49"/>
+      <c r="C920" s="48"/>
+      <c r="F920" s="48"/>
     </row>
     <row r="921">
-      <c r="C921" s="49"/>
-      <c r="F921" s="49"/>
+      <c r="C921" s="48"/>
+      <c r="F921" s="48"/>
     </row>
     <row r="922">
-      <c r="C922" s="49"/>
-      <c r="F922" s="49"/>
+      <c r="C922" s="48"/>
+      <c r="F922" s="48"/>
     </row>
     <row r="923">
-      <c r="C923" s="49"/>
-      <c r="F923" s="49"/>
+      <c r="C923" s="48"/>
+      <c r="F923" s="48"/>
     </row>
     <row r="924">
-      <c r="C924" s="49"/>
-      <c r="F924" s="49"/>
+      <c r="C924" s="48"/>
+      <c r="F924" s="48"/>
     </row>
     <row r="925">
-      <c r="C925" s="49"/>
-      <c r="F925" s="49"/>
+      <c r="C925" s="48"/>
+      <c r="F925" s="48"/>
     </row>
     <row r="926">
-      <c r="C926" s="49"/>
-      <c r="F926" s="49"/>
+      <c r="C926" s="48"/>
+      <c r="F926" s="48"/>
     </row>
     <row r="927">
-      <c r="C927" s="49"/>
-      <c r="F927" s="49"/>
+      <c r="C927" s="48"/>
+      <c r="F927" s="48"/>
     </row>
     <row r="928">
-      <c r="C928" s="49"/>
-      <c r="F928" s="49"/>
+      <c r="C928" s="48"/>
+      <c r="F928" s="48"/>
     </row>
     <row r="929">
-      <c r="C929" s="49"/>
-      <c r="F929" s="49"/>
+      <c r="C929" s="48"/>
+      <c r="F929" s="48"/>
     </row>
     <row r="930">
-      <c r="C930" s="49"/>
-      <c r="F930" s="49"/>
+      <c r="C930" s="48"/>
+      <c r="F930" s="48"/>
     </row>
     <row r="931">
-      <c r="C931" s="49"/>
-      <c r="F931" s="49"/>
+      <c r="C931" s="48"/>
+      <c r="F931" s="48"/>
     </row>
     <row r="932">
-      <c r="C932" s="49"/>
-      <c r="F932" s="49"/>
+      <c r="C932" s="48"/>
+      <c r="F932" s="48"/>
     </row>
     <row r="933">
-      <c r="C933" s="49"/>
-      <c r="F933" s="49"/>
+      <c r="C933" s="48"/>
+      <c r="F933" s="48"/>
     </row>
     <row r="934">
-      <c r="C934" s="49"/>
-      <c r="F934" s="49"/>
+      <c r="C934" s="48"/>
+      <c r="F934" s="48"/>
     </row>
     <row r="935">
-      <c r="C935" s="49"/>
-      <c r="F935" s="49"/>
+      <c r="C935" s="48"/>
+      <c r="F935" s="48"/>
     </row>
     <row r="936">
-      <c r="C936" s="49"/>
-      <c r="F936" s="49"/>
+      <c r="C936" s="48"/>
+      <c r="F936" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="3">
